--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06CF1A-1827-4EC2-82E2-59F9E9387D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D87C1-9A19-44AE-BFBE-0B10A0F6AAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59190" yWindow="3210" windowWidth="19365" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="סמסטר חורף" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="130">
   <si>
     <t>מספר</t>
   </si>
@@ -505,13 +505,23 @@
   <si>
     <t>במקום</t>
   </si>
+  <si>
+    <t>116042</t>
+  </si>
+  <si>
+    <t>נושאים נבחרים באטומים אקזוטיים</t>
+  </si>
+  <si>
+    <t>22/03/2026</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -857,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1108,16 +1118,7 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,22 +1141,13 @@
     <xf numFmtId="14" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,18 +1166,48 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1599,9 +1621,9 @@
       <sheetName val="דוח מרוכז"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
         <row r="2">
           <cell r="A2" t="str">
             <v>שם מקצוע</v>
@@ -14544,10 +14566,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B959E296-F642-456A-AD48-B9E5E503FBB0}" name="טבלה1" displayName="טבלה1" ref="A1:M76" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M76" xr:uid="{B959E296-F642-456A-AD48-B9E5E503FBB0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M76">
-    <sortCondition ref="L1:L76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B959E296-F642-456A-AD48-B9E5E503FBB0}" name="טבלה1" displayName="טבלה1" ref="A1:M77" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:M77" xr:uid="{B959E296-F642-456A-AD48-B9E5E503FBB0}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="פיזיקה 5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M77">
+    <sortCondition ref="L1:L77"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{96ECBE6E-2D2D-4A77-AA79-7F7967F26B3A}" name="מספר" dataDxfId="12"/>
@@ -14831,10 +14859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14900,7 +14928,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67">
         <v>134113</v>
       </c>
@@ -14925,7 +14953,7 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M2" s="112"/>
+      <c r="M2" s="106"/>
       <c r="O2" s="1" t="s">
         <v>39</v>
       </c>
@@ -14963,12 +14991,12 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M3" s="107"/>
+      <c r="M3" s="114"/>
       <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67">
         <v>236343</v>
       </c>
@@ -14993,12 +15021,12 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M4" s="105"/>
+      <c r="M4" s="68"/>
       <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67">
         <v>104222</v>
       </c>
@@ -15028,7 +15056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="67">
         <v>84312</v>
       </c>
@@ -15053,12 +15081,12 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M6" s="106"/>
+      <c r="M6" s="101"/>
       <c r="O6" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>104215</v>
       </c>
@@ -15093,7 +15121,7 @@
       </c>
       <c r="M7" s="65"/>
     </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67">
         <v>104195</v>
       </c>
@@ -15120,7 +15148,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>104112</v>
       </c>
@@ -15147,7 +15175,7 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>236990</v>
       </c>
@@ -15179,7 +15207,7 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="38.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>104042</v>
       </c>
@@ -15202,9 +15230,9 @@
       <c r="L11" s="75">
         <v>46090</v>
       </c>
-      <c r="M11" s="102"/>
+      <c r="M11" s="69"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>114086</v>
       </c>
@@ -15239,7 +15267,7 @@
       </c>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
         <v>334011</v>
       </c>
@@ -15264,7 +15292,7 @@
       </c>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
         <v>104012</v>
       </c>
@@ -15295,7 +15323,7 @@
       </c>
       <c r="M14" s="65"/>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="5" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
         <v>44202</v>
       </c>
@@ -15320,7 +15348,7 @@
       </c>
       <c r="M15" s="64"/>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>104122</v>
       </c>
@@ -15345,9 +15373,9 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M16" s="103"/>
+      <c r="M16" s="99"/>
     </row>
-    <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>315052</v>
       </c>
@@ -15372,10 +15400,10 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M17" s="102"/>
+      <c r="M17" s="69"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>114074</v>
       </c>
@@ -15410,12 +15438,12 @@
       <c r="L18" s="85">
         <v>46105</v>
       </c>
-      <c r="M18" s="107"/>
+      <c r="M18" s="70"/>
       <c r="T18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59">
         <v>104220</v>
       </c>
@@ -15451,7 +15479,7 @@
       <c r="L19" s="75">
         <v>46091</v>
       </c>
-      <c r="M19" s="104"/>
+      <c r="M19" s="100"/>
       <c r="O19" s="5"/>
       <c r="T19" t="s">
         <v>125</v>
@@ -15466,7 +15494,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67">
         <v>104031</v>
       </c>
@@ -15489,9 +15517,9 @@
       <c r="L20" s="75">
         <v>46091</v>
       </c>
-      <c r="M20" s="102"/>
+      <c r="M20" s="69"/>
     </row>
-    <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>314532</v>
       </c>
@@ -15516,7 +15544,7 @@
       </c>
       <c r="M21" s="69"/>
     </row>
-    <row r="22" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
         <v>84738</v>
       </c>
@@ -15541,13 +15569,13 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46091</v>
       </c>
-      <c r="M22" s="105"/>
+      <c r="M22" s="68"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
+      <c r="A23" s="90">
         <v>118130</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="92" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -15568,7 +15596,7 @@
       </c>
       <c r="M23" s="33"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
         <v>104064</v>
       </c>
@@ -15640,7 +15668,7 @@
       </c>
       <c r="M25" s="48"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
         <v>104033</v>
       </c>
@@ -15667,7 +15695,7 @@
       </c>
       <c r="M26" s="33"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
         <v>44268</v>
       </c>
@@ -15690,9 +15718,9 @@
       <c r="L27" s="75">
         <v>46093</v>
       </c>
-      <c r="M27" s="105"/>
+      <c r="M27" s="68"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
         <v>104166</v>
       </c>
@@ -15715,9 +15743,9 @@
       <c r="L28" s="75">
         <v>46094</v>
       </c>
-      <c r="M28" s="102"/>
+      <c r="M28" s="69"/>
     </row>
-    <row r="29" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
         <v>104285</v>
       </c>
@@ -15742,7 +15770,7 @@
       </c>
       <c r="M29" s="48"/>
     </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="67">
         <v>104214</v>
       </c>
@@ -15777,7 +15805,7 @@
       </c>
       <c r="M30" s="48"/>
     </row>
-    <row r="31" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="67">
         <v>234218</v>
       </c>
@@ -15802,10 +15830,10 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M31" s="117"/>
+      <c r="M31" s="111"/>
       <c r="O31" s="53"/>
     </row>
-    <row r="32" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67">
         <v>104066</v>
       </c>
@@ -15836,7 +15864,7 @@
       <c r="A33" s="28">
         <v>118129</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="91" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -15857,10 +15885,10 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M33" s="118"/>
+      <c r="M33" s="112"/>
       <c r="P33" s="12"/>
     </row>
-    <row r="34" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59">
         <v>315037</v>
       </c>
@@ -15885,7 +15913,7 @@
       </c>
       <c r="M34" s="33"/>
     </row>
-    <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
         <v>276011</v>
       </c>
@@ -15910,7 +15938,7 @@
       </c>
       <c r="M35" s="48"/>
     </row>
-    <row r="36" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
         <v>234129</v>
       </c>
@@ -15935,7 +15963,7 @@
       </c>
       <c r="M36" s="48"/>
     </row>
-    <row r="37" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>104034</v>
       </c>
@@ -15968,7 +15996,7 @@
       </c>
       <c r="M37" s="76"/>
     </row>
-    <row r="38" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
         <v>104295</v>
       </c>
@@ -15991,13 +16019,13 @@
       <c r="L38" s="75">
         <v>46098</v>
       </c>
-      <c r="M38" s="103"/>
+      <c r="M38" s="99"/>
     </row>
-    <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59">
         <v>84220</v>
       </c>
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="93" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="21"/>
@@ -16018,7 +16046,7 @@
       </c>
       <c r="M39" s="33"/>
     </row>
-    <row r="40" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="67">
         <v>125001</v>
       </c>
@@ -16045,7 +16073,7 @@
       </c>
       <c r="M40" s="76"/>
     </row>
-    <row r="41" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="67">
         <v>334274</v>
       </c>
@@ -16070,7 +16098,7 @@
       </c>
       <c r="M41" s="48"/>
     </row>
-    <row r="42" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="67">
         <v>234125</v>
       </c>
@@ -16095,7 +16123,7 @@
       </c>
       <c r="M42" s="33"/>
     </row>
-    <row r="43" spans="1:16" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="10" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="67">
         <v>44148</v>
       </c>
@@ -16122,7 +16150,7 @@
       </c>
       <c r="M43" s="64"/>
     </row>
-    <row r="44" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59">
         <v>314003</v>
       </c>
@@ -16161,10 +16189,10 @@
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
-      <c r="F45" s="96"/>
+      <c r="F45" s="93"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
-      <c r="I45" s="99"/>
+      <c r="I45" s="96"/>
       <c r="J45" s="75">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46056</v>
@@ -16176,11 +16204,11 @@
       </c>
       <c r="M45" s="65"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59">
         <v>84913</v>
       </c>
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="93" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="21"/>
@@ -16199,9 +16227,9 @@
       <c r="L46" s="75">
         <v>46100</v>
       </c>
-      <c r="M46" s="105"/>
+      <c r="M46" s="68"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>114101</v>
       </c>
@@ -16238,9 +16266,9 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46103</v>
       </c>
-      <c r="M47" s="102"/>
+      <c r="M47" s="69"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="67">
         <v>234114</v>
       </c>
@@ -16265,7 +16293,7 @@
       </c>
       <c r="M48" s="69"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="67">
         <v>234117</v>
       </c>
@@ -16288,9 +16316,9 @@
       <c r="L49" s="75">
         <v>46103</v>
       </c>
-      <c r="M49" s="105"/>
+      <c r="M49" s="68"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="67">
         <v>134019</v>
       </c>
@@ -16315,9 +16343,9 @@
       <c r="L50" s="75">
         <v>46104</v>
       </c>
-      <c r="M50" s="107"/>
+      <c r="M50" s="70"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="67">
         <v>234292</v>
       </c>
@@ -16340,9 +16368,9 @@
       <c r="L51" s="75">
         <v>46104</v>
       </c>
-      <c r="M51" s="105"/>
+      <c r="M51" s="68"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="59">
         <v>104165</v>
       </c>
@@ -16365,9 +16393,9 @@
       <c r="L52" s="75">
         <v>46104</v>
       </c>
-      <c r="M52" s="116"/>
+      <c r="M52" s="110"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="59">
         <v>334009</v>
       </c>
@@ -16392,7 +16420,7 @@
       </c>
       <c r="M53" s="69"/>
     </row>
-    <row r="54" spans="1:15" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="6" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="59">
         <v>104279</v>
       </c>
@@ -16417,7 +16445,7 @@
       </c>
       <c r="M54" s="70"/>
     </row>
-    <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="59">
         <v>314006</v>
       </c>
@@ -16442,7 +16470,7 @@
       </c>
       <c r="M55" s="69"/>
     </row>
-    <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="67">
         <v>84314</v>
       </c>
@@ -16462,15 +16490,15 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K56" s="101"/>
+      <c r="K56" s="98"/>
       <c r="L56" s="75">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46105</v>
       </c>
-      <c r="M56" s="115"/>
+      <c r="M56" s="109"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="67">
         <v>94412</v>
       </c>
@@ -16493,9 +16521,9 @@
       <c r="L57" s="75">
         <v>46106</v>
       </c>
-      <c r="M57" s="102"/>
+      <c r="M57" s="69"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="67">
         <v>124108</v>
       </c>
@@ -16549,22 +16577,22 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46106</v>
       </c>
-      <c r="M59" s="102"/>
+      <c r="M59" s="115"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="67">
         <v>134058</v>
       </c>
       <c r="B60" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="98" t="s">
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="95" t="s">
         <v>4</v>
       </c>
       <c r="J60" s="75">
@@ -16574,30 +16602,30 @@
       <c r="L60" s="75">
         <v>46107</v>
       </c>
-      <c r="M60" s="102"/>
+      <c r="M60" s="69"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="78">
         <v>234128</v>
       </c>
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="94" t="s">
         <v>71</v>
       </c>
       <c r="E61" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="97" t="s">
+      <c r="F61" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="94"/>
       <c r="J61" s="75">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
@@ -16607,9 +16635,9 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46107</v>
       </c>
-      <c r="M61" s="107"/>
+      <c r="M61" s="70"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="78">
         <v>44105</v>
       </c>
@@ -16634,9 +16662,9 @@
       <c r="L62" s="75">
         <v>46108</v>
       </c>
-      <c r="M62" s="114"/>
+      <c r="M62" s="108"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="78">
         <v>44137</v>
       </c>
@@ -16656,19 +16684,19 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46079</v>
       </c>
-      <c r="K63" s="101"/>
+      <c r="K63" s="98"/>
       <c r="L63" s="75">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46108</v>
       </c>
       <c r="M63" s="50"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="31">
-        <v>116354</v>
-      </c>
-      <c r="B64" s="72" t="s">
-        <v>89</v>
+    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>12</v>
@@ -16686,46 +16714,52 @@
       <c r="H64" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="I64" s="110" t="s">
+      <c r="I64" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="J64" s="89">
-        <v>46076</v>
-      </c>
-      <c r="K64" s="80"/>
-      <c r="L64" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="M64" s="84"/>
+      <c r="J64" s="118">
+        <v>46068</v>
+      </c>
+      <c r="K64" s="113"/>
+      <c r="L64" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="M64" s="54"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="31">
-        <v>116029</v>
+        <v>116354</v>
       </c>
       <c r="B65" s="72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="56"/>
+      <c r="D65" s="63" t="s">
+        <v>77</v>
+      </c>
       <c r="E65" s="56" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="21"/>
-      <c r="G65" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="44"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="79" t="s">
-        <v>121</v>
+      <c r="G65" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="J65" s="89">
+        <v>46076</v>
       </c>
       <c r="K65" s="80"/>
       <c r="L65" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="M65" s="55"/>
+      <c r="M65" s="84"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="66">
@@ -16754,20 +16788,24 @@
     </row>
     <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
-        <v>116083</v>
+        <v>116029</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C67" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="24"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F67" s="36"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="73"/>
+      <c r="G67" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="44"/>
+      <c r="I67" s="105"/>
       <c r="J67" s="79" t="s">
         <v>121</v>
       </c>
@@ -16775,9 +16813,9 @@
       <c r="L67" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="M67" s="54"/>
+      <c r="M67" s="55"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="78">
         <v>337403</v>
       </c>
@@ -16790,7 +16828,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="100" t="s">
+      <c r="I68" s="97" t="s">
         <v>15</v>
       </c>
       <c r="J68" s="79" t="s">
@@ -16802,7 +16840,7 @@
       </c>
       <c r="M68" s="55"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="74">
         <v>324033</v>
       </c>
@@ -16812,13 +16850,13 @@
       <c r="C69" s="36"/>
       <c r="D69" s="52"/>
       <c r="E69" s="21"/>
-      <c r="F69" s="97" t="s">
+      <c r="F69" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="G69" s="97" t="s">
+      <c r="G69" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="H69" s="97" t="s">
+      <c r="H69" s="94" t="s">
         <v>38</v>
       </c>
       <c r="I69" s="51"/>
@@ -16831,7 +16869,7 @@
       </c>
       <c r="M69" s="55"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="78">
         <v>104000</v>
       </c>
@@ -16844,9 +16882,9 @@
         <v>49</v>
       </c>
       <c r="F70" s="36"/>
-      <c r="G70" s="97"/>
-      <c r="H70" s="97"/>
-      <c r="I70" s="98"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="95"/>
       <c r="J70" s="79" t="s">
         <v>120</v>
       </c>
@@ -16856,7 +16894,7 @@
       </c>
       <c r="M70" s="54"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="66">
         <v>104192</v>
       </c>
@@ -16879,9 +16917,9 @@
       <c r="L71" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="M71" s="108"/>
+      <c r="M71" s="102"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="66">
         <v>104276</v>
       </c>
@@ -16906,32 +16944,32 @@
       </c>
       <c r="M72" s="54"/>
     </row>
-    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="90">
-        <v>117006</v>
-      </c>
-      <c r="B73" s="93" t="s">
-        <v>113</v>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="28">
+        <v>116083</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="23"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="35"/>
       <c r="J73" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="K73" s="77"/>
+        <v>121</v>
+      </c>
+      <c r="K73" s="80"/>
       <c r="L73" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="M73" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="M73" s="54"/>
     </row>
-    <row r="74" spans="1:15" s="32" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="32" customFormat="1" ht="26.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="78">
         <v>84154</v>
       </c>
@@ -16954,26 +16992,26 @@
       <c r="L74" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="M74" s="113"/>
+      <c r="M74" s="107"/>
       <c r="N74" s="62"/>
       <c r="O74" s="61"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31">
         <v>104134</v>
       </c>
       <c r="B75" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="94"/>
       <c r="H75" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I75" s="98"/>
+      <c r="I75" s="95"/>
       <c r="J75" s="75">
         <v>46077</v>
       </c>
@@ -16981,11 +17019,11 @@
       <c r="L75" s="86"/>
       <c r="M75" s="69"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="92">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="62">
         <v>104283</v>
       </c>
-      <c r="B76" s="92" t="s">
+      <c r="B76" s="62" t="s">
         <v>106</v>
       </c>
       <c r="C76" s="36"/>
@@ -17003,6 +17041,31 @@
       <c r="K76" s="86"/>
       <c r="L76" s="86"/>
       <c r="M76" s="68"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="116">
+        <v>117006</v>
+      </c>
+      <c r="B77" s="117" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="36"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="K77" s="120"/>
+      <c r="L77" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="M77" s="122"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D87C1-9A19-44AE-BFBE-0B10A0F6AAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C7F11F-410A-4289-94CC-8B5A75B5D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59190" yWindow="3210" windowWidth="19365" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1182,12 +1182,6 @@
     <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,7 +1200,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14862,7 +14856,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14991,7 +14985,7 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M3" s="114"/>
+      <c r="M3" s="70"/>
       <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
@@ -16577,7 +16571,7 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46106</v>
       </c>
-      <c r="M59" s="115"/>
+      <c r="M59" s="69"/>
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="67">
@@ -16717,8 +16711,8 @@
       <c r="I64" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="J64" s="118">
-        <v>46068</v>
+      <c r="J64" s="116">
+        <v>46072</v>
       </c>
       <c r="K64" s="113"/>
       <c r="L64" s="58" t="s">
@@ -17043,10 +17037,10 @@
       <c r="M76" s="68"/>
     </row>
     <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="116">
+      <c r="A77" s="114">
         <v>117006</v>
       </c>
-      <c r="B77" s="117" t="s">
+      <c r="B77" s="115" t="s">
         <v>113</v>
       </c>
       <c r="C77" s="20" t="s">
@@ -17058,14 +17052,14 @@
       <c r="G77" s="56"/>
       <c r="H77" s="36"/>
       <c r="I77" s="66"/>
-      <c r="J77" s="119" t="s">
+      <c r="J77" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="K77" s="120"/>
-      <c r="L77" s="121" t="s">
+      <c r="K77" s="118"/>
+      <c r="L77" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="M77" s="122"/>
+      <c r="M77" s="120"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C7F11F-410A-4289-94CC-8B5A75B5D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0128DE-381B-4015-8165-B627377B254A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59190" yWindow="3210" windowWidth="19365" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1067,9 +1067,6 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1176,9 +1173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1202,6 +1196,15 @@
     </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14569,7 +14572,7 @@
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M77">
-    <sortCondition ref="L1:L77"/>
+    <sortCondition ref="J1:J77"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{96ECBE6E-2D2D-4A77-AA79-7F7967F26B3A}" name="מספר" dataDxfId="12"/>
@@ -14856,7 +14859,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14938,54 +14941,46 @@
       <c r="I2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="75">
+      <c r="J2" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46055</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="75">
+      <c r="K2" s="76"/>
+      <c r="L2" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M2" s="106"/>
+      <c r="M2" s="105"/>
       <c r="O2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>116217</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>18</v>
+      <c r="A3" s="28">
+        <v>118122</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="75">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46057</v>
-      </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="75">
+        <v>46056</v>
+      </c>
+      <c r="K3" s="76"/>
+      <c r="L3" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46086</v>
-      </c>
-      <c r="M3" s="70"/>
+        <v>46100</v>
+      </c>
+      <c r="M3" s="120"/>
       <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
@@ -15006,12 +15001,12 @@
         <v>36</v>
       </c>
       <c r="I4" s="35"/>
-      <c r="J4" s="75">
+      <c r="J4" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46056</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="75">
+      <c r="K4" s="76"/>
+      <c r="L4" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
@@ -15036,16 +15031,16 @@
       <c r="G5" s="18"/>
       <c r="H5" s="22"/>
       <c r="I5" s="40"/>
-      <c r="J5" s="75">
+      <c r="J5" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46057</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="75">
+      <c r="K5" s="76"/>
+      <c r="L5" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M5" s="76"/>
+      <c r="M5" s="75"/>
       <c r="O5" s="4" t="s">
         <v>42</v>
       </c>
@@ -15066,16 +15061,16 @@
       <c r="G6" s="18"/>
       <c r="H6" s="22"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="75">
+      <c r="J6" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46056</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="75">
+      <c r="K6" s="76"/>
+      <c r="L6" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M6" s="101"/>
+      <c r="M6" s="100"/>
       <c r="O6" s="32" t="s">
         <v>112</v>
       </c>
@@ -15106,11 +15101,11 @@
       <c r="I7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="75">
+      <c r="J7" s="74">
         <v>46058</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="75">
+      <c r="K7" s="78"/>
+      <c r="L7" s="74">
         <v>46087</v>
       </c>
       <c r="M7" s="65"/>
@@ -15131,11 +15126,11 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="38"/>
-      <c r="J8" s="75">
+      <c r="J8" s="74">
         <v>46063</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="75">
+      <c r="K8" s="85"/>
+      <c r="L8" s="74">
         <v>46087</v>
       </c>
       <c r="M8" s="48"/>
@@ -15158,11 +15153,11 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="75">
+      <c r="J9" s="74">
         <v>46058</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="75">
+      <c r="K9" s="85"/>
+      <c r="L9" s="74">
         <v>46087</v>
       </c>
       <c r="M9" s="33"/>
@@ -15185,12 +15180,12 @@
         <v>36</v>
       </c>
       <c r="I10" s="23"/>
-      <c r="J10" s="75">
+      <c r="J10" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46065</v>
       </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="75">
+      <c r="K10" s="76"/>
+      <c r="L10" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46089</v>
       </c>
@@ -15217,11 +15212,11 @@
       <c r="I11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="75">
+      <c r="J11" s="74">
         <v>46062</v>
       </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75">
+      <c r="K11" s="74"/>
+      <c r="L11" s="74">
         <v>46090</v>
       </c>
       <c r="M11" s="69"/>
@@ -15252,11 +15247,11 @@
       <c r="I12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="84">
         <v>46055</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="75">
+      <c r="K12" s="78"/>
+      <c r="L12" s="74">
         <v>46090</v>
       </c>
       <c r="M12" s="48"/>
@@ -15277,11 +15272,11 @@
       <c r="I13" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="75"/>
-      <c r="K13" s="77" t="s">
+      <c r="J13" s="74"/>
+      <c r="K13" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L13" s="74">
         <v>46090</v>
       </c>
       <c r="M13" s="48"/>
@@ -15308,11 +15303,11 @@
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="38"/>
-      <c r="J14" s="75">
+      <c r="J14" s="74">
         <v>46063</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="75">
+      <c r="K14" s="85"/>
+      <c r="L14" s="74">
         <v>46090</v>
       </c>
       <c r="M14" s="65"/>
@@ -15333,11 +15328,11 @@
       </c>
       <c r="H15" s="71"/>
       <c r="I15" s="41"/>
-      <c r="J15" s="75">
+      <c r="J15" s="74">
         <v>46064</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="75">
+      <c r="K15" s="85"/>
+      <c r="L15" s="74">
         <v>46090</v>
       </c>
       <c r="M15" s="64"/>
@@ -15358,16 +15353,16 @@
       <c r="G16" s="18"/>
       <c r="H16" s="22"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="75">
+      <c r="J16" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K16" s="77"/>
-      <c r="L16" s="75">
+      <c r="K16" s="76"/>
+      <c r="L16" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M16" s="99"/>
+      <c r="M16" s="98"/>
     </row>
     <row r="17" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
@@ -15385,12 +15380,12 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="75">
+      <c r="J17" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K17" s="77"/>
-      <c r="L17" s="75">
+      <c r="K17" s="76"/>
+      <c r="L17" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
@@ -15425,11 +15420,11 @@
       <c r="I18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="85">
+      <c r="J18" s="84">
         <v>46057</v>
       </c>
-      <c r="K18" s="75"/>
-      <c r="L18" s="85">
+      <c r="K18" s="74"/>
+      <c r="L18" s="84">
         <v>46105</v>
       </c>
       <c r="M18" s="70"/>
@@ -15463,17 +15458,17 @@
       <c r="I19" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="75">
+      <c r="J19" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
         <v>46063</v>
       </c>
-      <c r="K19" s="83">
+      <c r="K19" s="82">
         <v>46062</v>
       </c>
-      <c r="L19" s="75">
+      <c r="L19" s="74">
         <v>46091</v>
       </c>
-      <c r="M19" s="100"/>
+      <c r="M19" s="99"/>
       <c r="O19" s="5"/>
       <c r="T19" t="s">
         <v>125</v>
@@ -15504,11 +15499,11 @@
         <v>38</v>
       </c>
       <c r="I20" s="23"/>
-      <c r="J20" s="75">
+      <c r="J20" s="74">
         <v>46062</v>
       </c>
-      <c r="K20" s="86"/>
-      <c r="L20" s="75">
+      <c r="K20" s="85"/>
+      <c r="L20" s="74">
         <v>46091</v>
       </c>
       <c r="M20" s="69"/>
@@ -15529,11 +15524,11 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="75">
+      <c r="J21" s="74">
         <v>46069</v>
       </c>
-      <c r="K21" s="86"/>
-      <c r="L21" s="75">
+      <c r="K21" s="85"/>
+      <c r="L21" s="74">
         <v>46091</v>
       </c>
       <c r="M21" s="69"/>
@@ -15554,41 +15549,51 @@
       <c r="G22" s="18"/>
       <c r="H22" s="22"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="75">
+      <c r="J22" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="75">
+      <c r="K22" s="76"/>
+      <c r="L22" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46091</v>
       </c>
       <c r="M22" s="68"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="90">
-        <v>118130</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>119</v>
+      <c r="A23" s="30">
+        <v>116217</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="75">
-        <v>46063</v>
-      </c>
-      <c r="K23" s="86"/>
-      <c r="L23" s="75">
-        <v>46091</v>
-      </c>
-      <c r="M23" s="33"/>
+      <c r="D23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46057</v>
+      </c>
+      <c r="K23" s="76"/>
+      <c r="L23" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46086</v>
+      </c>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
@@ -15614,53 +15619,39 @@
       <c r="I24" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="75">
+      <c r="J24" s="74">
         <v>46068</v>
       </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75">
+      <c r="K24" s="74"/>
+      <c r="L24" s="74">
         <v>46093</v>
       </c>
       <c r="M24" s="65"/>
     </row>
     <row r="25" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>115204</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>11</v>
+      <c r="A25" s="89">
+        <v>118130</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="75">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46069</v>
-      </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="75">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46093</v>
-      </c>
-      <c r="M25" s="48"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="74">
+        <v>46063</v>
+      </c>
+      <c r="K25" s="85"/>
+      <c r="L25" s="74">
+        <v>46091</v>
+      </c>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
@@ -15678,12 +15669,12 @@
         <v>35</v>
       </c>
       <c r="I26" s="40"/>
-      <c r="J26" s="75">
+      <c r="J26" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46064</v>
       </c>
-      <c r="K26" s="77"/>
-      <c r="L26" s="75">
+      <c r="K26" s="76"/>
+      <c r="L26" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46093</v>
       </c>
@@ -15705,11 +15696,11 @@
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="75">
+      <c r="J27" s="74">
         <v>46065</v>
       </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="75">
+      <c r="K27" s="85"/>
+      <c r="L27" s="74">
         <v>46093</v>
       </c>
       <c r="M27" s="68"/>
@@ -15730,11 +15721,11 @@
         <v>38</v>
       </c>
       <c r="I28" s="38"/>
-      <c r="J28" s="75">
+      <c r="J28" s="74">
         <v>46066</v>
       </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="75">
+      <c r="K28" s="85"/>
+      <c r="L28" s="74">
         <v>46094</v>
       </c>
       <c r="M28" s="69"/>
@@ -15755,11 +15746,11 @@
       <c r="G29" s="18"/>
       <c r="H29" s="22"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="75">
+      <c r="J29" s="74">
         <v>46065</v>
       </c>
-      <c r="K29" s="86"/>
-      <c r="L29" s="75">
+      <c r="K29" s="85"/>
+      <c r="L29" s="74">
         <v>46094</v>
       </c>
       <c r="M29" s="48"/>
@@ -15790,11 +15781,11 @@
       <c r="I30" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="75">
+      <c r="J30" s="74">
         <v>46073</v>
       </c>
-      <c r="K30" s="83"/>
-      <c r="L30" s="75">
+      <c r="K30" s="82"/>
+      <c r="L30" s="74">
         <v>46096</v>
       </c>
       <c r="M30" s="48"/>
@@ -15815,16 +15806,16 @@
         <v>35</v>
       </c>
       <c r="I31" s="40"/>
-      <c r="J31" s="75">
+      <c r="J31" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46061</v>
       </c>
-      <c r="K31" s="77"/>
-      <c r="L31" s="75">
+      <c r="K31" s="76"/>
+      <c r="L31" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M31" s="111"/>
+      <c r="M31" s="110"/>
       <c r="O31" s="53"/>
     </row>
     <row r="32" spans="1:23" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -15843,43 +15834,53 @@
       <c r="G32" s="15"/>
       <c r="H32" s="17"/>
       <c r="I32" s="38"/>
-      <c r="J32" s="75">
+      <c r="J32" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46069</v>
       </c>
-      <c r="K32" s="77"/>
-      <c r="L32" s="75">
+      <c r="K32" s="76"/>
+      <c r="L32" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
       <c r="M32" s="33"/>
     </row>
-    <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
-        <v>118129</v>
-      </c>
-      <c r="B33" s="91" t="s">
-        <v>91</v>
+    <row r="33" spans="1:16" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="D33" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F33" s="21"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="75">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46072</v>
-      </c>
-      <c r="K33" s="77"/>
-      <c r="L33" s="75">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
-      </c>
-      <c r="M33" s="112"/>
+      <c r="G33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="114">
+        <v>46068</v>
+      </c>
+      <c r="K33" s="111">
+        <v>46066</v>
+      </c>
+      <c r="L33" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="M33" s="33"/>
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15898,11 +15899,11 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="75">
+      <c r="J34" s="74">
         <v>46072</v>
       </c>
-      <c r="K34" s="86"/>
-      <c r="L34" s="75">
+      <c r="K34" s="85"/>
+      <c r="L34" s="74">
         <v>46097</v>
       </c>
       <c r="M34" s="33"/>
@@ -15923,11 +15924,11 @@
       <c r="I35" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="75">
+      <c r="J35" s="74">
         <v>46071</v>
       </c>
-      <c r="K35" s="77"/>
-      <c r="L35" s="75">
+      <c r="K35" s="76"/>
+      <c r="L35" s="74">
         <v>46098</v>
       </c>
       <c r="M35" s="48"/>
@@ -15948,11 +15949,11 @@
         <v>38</v>
       </c>
       <c r="I36" s="35"/>
-      <c r="J36" s="75">
+      <c r="J36" s="74">
         <v>46071</v>
       </c>
-      <c r="K36" s="86"/>
-      <c r="L36" s="75">
+      <c r="K36" s="85"/>
+      <c r="L36" s="74">
         <v>46098</v>
       </c>
       <c r="M36" s="48"/>
@@ -15979,16 +15980,16 @@
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="75">
+      <c r="J37" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46070</v>
       </c>
-      <c r="K37" s="82"/>
-      <c r="L37" s="75">
+      <c r="K37" s="81"/>
+      <c r="L37" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46098</v>
       </c>
-      <c r="M37" s="76"/>
+      <c r="M37" s="75"/>
     </row>
     <row r="38" spans="1:16" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
@@ -16006,20 +16007,20 @@
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="38"/>
-      <c r="J38" s="75">
+      <c r="J38" s="74">
         <v>46075</v>
       </c>
-      <c r="K38" s="86"/>
-      <c r="L38" s="75">
+      <c r="K38" s="85"/>
+      <c r="L38" s="74">
         <v>46098</v>
       </c>
-      <c r="M38" s="99"/>
+      <c r="M38" s="98"/>
     </row>
     <row r="39" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59">
         <v>84220</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="92" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="21"/>
@@ -16031,11 +16032,11 @@
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="75">
+      <c r="J39" s="74">
         <v>46073</v>
       </c>
-      <c r="K39" s="86"/>
-      <c r="L39" s="75">
+      <c r="K39" s="85"/>
+      <c r="L39" s="74">
         <v>46098</v>
       </c>
       <c r="M39" s="33"/>
@@ -16058,14 +16059,14 @@
       <c r="I40" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="75">
+      <c r="J40" s="74">
         <v>46075</v>
       </c>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75">
+      <c r="K40" s="74"/>
+      <c r="L40" s="74">
         <v>46099</v>
       </c>
-      <c r="M40" s="76"/>
+      <c r="M40" s="75"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="67">
@@ -16083,11 +16084,11 @@
       <c r="I41" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="75">
+      <c r="J41" s="74">
         <v>46077</v>
       </c>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75">
+      <c r="K41" s="74"/>
+      <c r="L41" s="74">
         <v>46099</v>
       </c>
       <c r="M41" s="48"/>
@@ -16108,11 +16109,11 @@
         <v>36</v>
       </c>
       <c r="I42" s="40"/>
-      <c r="J42" s="75">
+      <c r="J42" s="74">
         <v>46075</v>
       </c>
-      <c r="K42" s="86"/>
-      <c r="L42" s="75">
+      <c r="K42" s="85"/>
+      <c r="L42" s="74">
         <v>46100</v>
       </c>
       <c r="M42" s="33"/>
@@ -16133,12 +16134,12 @@
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="75">
+      <c r="J43" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46072</v>
       </c>
-      <c r="K43" s="77"/>
-      <c r="L43" s="75">
+      <c r="K43" s="76"/>
+      <c r="L43" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46100</v>
       </c>
@@ -16160,12 +16161,12 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="75">
+      <c r="J44" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46076</v>
       </c>
-      <c r="K44" s="77"/>
-      <c r="L44" s="75">
+      <c r="K44" s="76"/>
+      <c r="L44" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46100</v>
       </c>
@@ -16173,36 +16174,48 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
-        <v>118122</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>101</v>
+        <v>115204</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="75">
+      <c r="D45" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
-      </c>
-      <c r="K45" s="77"/>
-      <c r="L45" s="75">
+        <v>46069</v>
+      </c>
+      <c r="K45" s="76"/>
+      <c r="L45" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M45" s="65"/>
+        <v>46093</v>
+      </c>
+      <c r="M45" s="48"/>
     </row>
     <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59">
         <v>84913</v>
       </c>
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="92" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="21"/>
@@ -16214,11 +16227,11 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="75">
+      <c r="J46" s="74">
         <v>46077</v>
       </c>
-      <c r="K46" s="86"/>
-      <c r="L46" s="75">
+      <c r="K46" s="85"/>
+      <c r="L46" s="74">
         <v>46100</v>
       </c>
       <c r="M46" s="68"/>
@@ -16251,12 +16264,12 @@
       <c r="I47" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="75">
+      <c r="J47" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46078</v>
       </c>
-      <c r="K47" s="77"/>
-      <c r="L47" s="75">
+      <c r="K47" s="76"/>
+      <c r="L47" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46103</v>
       </c>
@@ -16278,11 +16291,11 @@
         <v>38</v>
       </c>
       <c r="I48" s="38"/>
-      <c r="J48" s="75">
+      <c r="J48" s="74">
         <v>46076</v>
       </c>
-      <c r="K48" s="86"/>
-      <c r="L48" s="75">
+      <c r="K48" s="85"/>
+      <c r="L48" s="74">
         <v>46103</v>
       </c>
       <c r="M48" s="69"/>
@@ -16303,11 +16316,11 @@
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="38"/>
-      <c r="J49" s="75">
+      <c r="J49" s="74">
         <v>46076</v>
       </c>
-      <c r="K49" s="86"/>
-      <c r="L49" s="75">
+      <c r="K49" s="85"/>
+      <c r="L49" s="74">
         <v>46103</v>
       </c>
       <c r="M49" s="68"/>
@@ -16328,13 +16341,13 @@
       <c r="I50" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="75">
+      <c r="J50" s="74">
         <v>46068</v>
       </c>
-      <c r="K50" s="79">
+      <c r="K50" s="78">
         <v>46069</v>
       </c>
-      <c r="L50" s="75">
+      <c r="L50" s="74">
         <v>46104</v>
       </c>
       <c r="M50" s="70"/>
@@ -16355,11 +16368,11 @@
         <v>35</v>
       </c>
       <c r="I51" s="40"/>
-      <c r="J51" s="87">
+      <c r="J51" s="86">
         <v>46055</v>
       </c>
-      <c r="K51" s="88"/>
-      <c r="L51" s="75">
+      <c r="K51" s="87"/>
+      <c r="L51" s="74">
         <v>46104</v>
       </c>
       <c r="M51" s="68"/>
@@ -16380,14 +16393,14 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="75">
+      <c r="J52" s="74">
         <v>46066</v>
       </c>
-      <c r="K52" s="86"/>
-      <c r="L52" s="75">
+      <c r="K52" s="85"/>
+      <c r="L52" s="74">
         <v>46104</v>
       </c>
-      <c r="M52" s="110"/>
+      <c r="M52" s="109"/>
     </row>
     <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="59">
@@ -16405,11 +16418,11 @@
       <c r="I53" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="75">
+      <c r="J53" s="74">
         <v>46082</v>
       </c>
-      <c r="K53" s="77"/>
-      <c r="L53" s="75">
+      <c r="K53" s="76"/>
+      <c r="L53" s="74">
         <v>46105</v>
       </c>
       <c r="M53" s="69"/>
@@ -16430,11 +16443,11 @@
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="23"/>
-      <c r="J54" s="75">
+      <c r="J54" s="74">
         <v>46078</v>
       </c>
-      <c r="K54" s="86"/>
-      <c r="L54" s="75">
+      <c r="K54" s="85"/>
+      <c r="L54" s="74">
         <v>46105</v>
       </c>
       <c r="M54" s="70"/>
@@ -16455,11 +16468,11 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="23"/>
-      <c r="J55" s="85">
+      <c r="J55" s="84">
         <v>46082</v>
       </c>
-      <c r="K55" s="88"/>
-      <c r="L55" s="75">
+      <c r="K55" s="87"/>
+      <c r="L55" s="74">
         <v>46105</v>
       </c>
       <c r="M55" s="69"/>
@@ -16480,16 +16493,16 @@
       <c r="G56" s="18"/>
       <c r="H56" s="22"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="87">
+      <c r="J56" s="86">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K56" s="98"/>
-      <c r="L56" s="75">
+      <c r="K56" s="97"/>
+      <c r="L56" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46105</v>
       </c>
-      <c r="M56" s="109"/>
+      <c r="M56" s="108"/>
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -16508,11 +16521,11 @@
         <v>35</v>
       </c>
       <c r="I57" s="23"/>
-      <c r="J57" s="75">
+      <c r="J57" s="74">
         <v>46082</v>
       </c>
-      <c r="K57" s="86"/>
-      <c r="L57" s="75">
+      <c r="K57" s="85"/>
+      <c r="L57" s="74">
         <v>46106</v>
       </c>
       <c r="M57" s="69"/>
@@ -16535,12 +16548,12 @@
         <v>36</v>
       </c>
       <c r="I58" s="35"/>
-      <c r="J58" s="75">
+      <c r="J58" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K58" s="80"/>
-      <c r="L58" s="75">
+      <c r="K58" s="79"/>
+      <c r="L58" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46106</v>
       </c>
@@ -16548,30 +16561,30 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
-        <v>124107</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>96</v>
+        <v>118129</v>
+      </c>
+      <c r="B59" s="90" t="s">
+        <v>91</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="75">
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K59" s="77"/>
-      <c r="L59" s="75">
+        <v>46072</v>
+      </c>
+      <c r="K59" s="76"/>
+      <c r="L59" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46106</v>
-      </c>
-      <c r="M59" s="69"/>
+        <v>46096</v>
+      </c>
+      <c r="M59" s="121"/>
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="67">
@@ -16580,59 +16593,59 @@
       <c r="B60" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="95" t="s">
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="J60" s="75">
+      <c r="J60" s="74">
         <v>46079</v>
       </c>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75">
+      <c r="K60" s="74"/>
+      <c r="L60" s="74">
         <v>46107</v>
       </c>
       <c r="M60" s="69"/>
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="78">
+      <c r="A61" s="77">
         <v>234128</v>
       </c>
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="102" t="s">
         <v>48</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="94" t="s">
+      <c r="D61" s="93" t="s">
         <v>71</v>
       </c>
       <c r="E61" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="94" t="s">
+      <c r="F61" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="75">
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K61" s="81"/>
-      <c r="L61" s="75">
+      <c r="K61" s="80"/>
+      <c r="L61" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46107</v>
       </c>
       <c r="M61" s="70"/>
     </row>
     <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="78">
+      <c r="A62" s="77">
         <v>44105</v>
       </c>
       <c r="B62" s="44" t="s">
@@ -16649,17 +16662,17 @@
       <c r="I62" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="75">
+      <c r="J62" s="74">
         <v>46082</v>
       </c>
-      <c r="K62" s="79"/>
-      <c r="L62" s="75">
+      <c r="K62" s="78"/>
+      <c r="L62" s="74">
         <v>46108</v>
       </c>
-      <c r="M62" s="108"/>
+      <c r="M62" s="107"/>
     </row>
     <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="78">
+      <c r="A63" s="77">
         <v>44137</v>
       </c>
       <c r="B63" s="36" t="s">
@@ -16674,23 +16687,23 @@
       </c>
       <c r="H63" s="36"/>
       <c r="I63" s="51"/>
-      <c r="J63" s="85">
+      <c r="J63" s="84">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46079</v>
       </c>
-      <c r="K63" s="98"/>
-      <c r="L63" s="75">
+      <c r="K63" s="97"/>
+      <c r="L63" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46108</v>
       </c>
       <c r="M63" s="50"/>
     </row>
-    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>128</v>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="31">
+        <v>116354</v>
+      </c>
+      <c r="B64" s="72" t="s">
+        <v>89</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>12</v>
@@ -16708,77 +16721,69 @@
       <c r="H64" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="I64" s="104" t="s">
+      <c r="I64" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="J64" s="116">
-        <v>46072</v>
-      </c>
-      <c r="K64" s="113"/>
-      <c r="L64" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="M64" s="54"/>
+      <c r="J64" s="88">
+        <v>46076</v>
+      </c>
+      <c r="K64" s="79"/>
+      <c r="L64" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="M64" s="83"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="31">
-        <v>116354</v>
-      </c>
-      <c r="B65" s="72" t="s">
-        <v>89</v>
+      <c r="A65" s="66">
+        <v>116041</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="C65" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="56" t="s">
-        <v>13</v>
-      </c>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="21"/>
-      <c r="G65" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="I65" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="J65" s="89">
-        <v>46076</v>
-      </c>
-      <c r="K65" s="80"/>
-      <c r="L65" s="79" t="s">
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="78">
+        <v>46079</v>
+      </c>
+      <c r="K65" s="79"/>
+      <c r="L65" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="M65" s="84"/>
+      <c r="M65" s="54"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="66">
-        <v>116041</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>94</v>
+      <c r="A66" s="31">
+        <v>124107</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="79">
-        <v>46079</v>
-      </c>
-      <c r="K66" s="80"/>
-      <c r="L66" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="M66" s="54"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="119"/>
+      <c r="J66" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K66" s="76"/>
+      <c r="L66" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46106</v>
+      </c>
+      <c r="M66" s="55"/>
     </row>
     <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
@@ -16799,18 +16804,18 @@
         <v>14</v>
       </c>
       <c r="H67" s="44"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="79" t="s">
+      <c r="I67" s="104"/>
+      <c r="J67" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="K67" s="80"/>
-      <c r="L67" s="79" t="s">
+      <c r="K67" s="79"/>
+      <c r="L67" s="78" t="s">
         <v>121</v>
       </c>
       <c r="M67" s="55"/>
     </row>
     <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="78">
+      <c r="A68" s="77">
         <v>337403</v>
       </c>
       <c r="B68" s="44" t="s">
@@ -16822,20 +16827,20 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="97" t="s">
+      <c r="I68" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="J68" s="79" t="s">
+      <c r="J68" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K68" s="77"/>
-      <c r="L68" s="79" t="s">
+      <c r="K68" s="76"/>
+      <c r="L68" s="78" t="s">
         <v>120</v>
       </c>
       <c r="M68" s="55"/>
     </row>
     <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="74">
+      <c r="A69" s="73">
         <v>324033</v>
       </c>
       <c r="B69" s="44" t="s">
@@ -16844,27 +16849,27 @@
       <c r="C69" s="36"/>
       <c r="D69" s="52"/>
       <c r="E69" s="21"/>
-      <c r="F69" s="94" t="s">
+      <c r="F69" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="G69" s="94" t="s">
+      <c r="G69" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="H69" s="94" t="s">
+      <c r="H69" s="93" t="s">
         <v>38</v>
       </c>
       <c r="I69" s="51"/>
-      <c r="J69" s="79" t="s">
+      <c r="J69" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="77"/>
-      <c r="L69" s="79" t="s">
+      <c r="K69" s="76"/>
+      <c r="L69" s="78" t="s">
         <v>120</v>
       </c>
       <c r="M69" s="55"/>
     </row>
     <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="78">
+      <c r="A70" s="77">
         <v>104000</v>
       </c>
       <c r="B70" s="72" t="s">
@@ -16876,14 +16881,14 @@
         <v>49</v>
       </c>
       <c r="F70" s="36"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="95"/>
-      <c r="J70" s="79" t="s">
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K70" s="77"/>
-      <c r="L70" s="79" t="s">
+      <c r="K70" s="76"/>
+      <c r="L70" s="78" t="s">
         <v>120</v>
       </c>
       <c r="M70" s="54"/>
@@ -16904,14 +16909,14 @@
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
       <c r="I71" s="51"/>
-      <c r="J71" s="79" t="s">
+      <c r="J71" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K71" s="77"/>
-      <c r="L71" s="79" t="s">
+      <c r="K71" s="76"/>
+      <c r="L71" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M71" s="102"/>
+      <c r="M71" s="101"/>
     </row>
     <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="66">
@@ -16929,11 +16934,11 @@
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
       <c r="I72" s="51"/>
-      <c r="J72" s="79" t="s">
+      <c r="J72" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K72" s="77"/>
-      <c r="L72" s="79" t="s">
+      <c r="K72" s="76"/>
+      <c r="L72" s="78" t="s">
         <v>120</v>
       </c>
       <c r="M72" s="54"/>
@@ -16954,17 +16959,17 @@
       <c r="G73" s="24"/>
       <c r="H73" s="24"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="79" t="s">
+      <c r="J73" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="K73" s="80"/>
-      <c r="L73" s="79" t="s">
+      <c r="K73" s="79"/>
+      <c r="L73" s="78" t="s">
         <v>121</v>
       </c>
       <c r="M73" s="54"/>
     </row>
     <row r="74" spans="1:15" s="32" customFormat="1" ht="26.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="78">
+      <c r="A74" s="77">
         <v>84154</v>
       </c>
       <c r="B74" s="44" t="s">
@@ -16979,14 +16984,14 @@
       <c r="G74" s="45"/>
       <c r="H74" s="56"/>
       <c r="I74" s="46"/>
-      <c r="J74" s="79" t="s">
+      <c r="J74" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K74" s="77"/>
-      <c r="L74" s="79" t="s">
+      <c r="K74" s="76"/>
+      <c r="L74" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M74" s="107"/>
+      <c r="M74" s="106"/>
       <c r="N74" s="62"/>
       <c r="O74" s="61"/>
     </row>
@@ -16997,20 +17002,20 @@
       <c r="B75" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="94"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="93"/>
       <c r="H75" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I75" s="95"/>
-      <c r="J75" s="75">
+      <c r="I75" s="94"/>
+      <c r="J75" s="74">
         <v>46077</v>
       </c>
-      <c r="K75" s="86"/>
-      <c r="L75" s="86"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="85"/>
       <c r="M75" s="69"/>
     </row>
     <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -17029,18 +17034,18 @@
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
       <c r="I76" s="51"/>
-      <c r="J76" s="75">
+      <c r="J76" s="74">
         <v>46076</v>
       </c>
-      <c r="K76" s="86"/>
-      <c r="L76" s="86"/>
+      <c r="K76" s="85"/>
+      <c r="L76" s="85"/>
       <c r="M76" s="68"/>
     </row>
     <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="114">
+      <c r="A77" s="112">
         <v>117006</v>
       </c>
-      <c r="B77" s="115" t="s">
+      <c r="B77" s="113" t="s">
         <v>113</v>
       </c>
       <c r="C77" s="20" t="s">
@@ -17052,14 +17057,14 @@
       <c r="G77" s="56"/>
       <c r="H77" s="36"/>
       <c r="I77" s="66"/>
-      <c r="J77" s="117" t="s">
+      <c r="J77" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="K77" s="118"/>
-      <c r="L77" s="119" t="s">
+      <c r="K77" s="116"/>
+      <c r="L77" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="M77" s="120"/>
+      <c r="M77" s="118"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0128DE-381B-4015-8165-B627377B254A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F016540C-F242-47C1-A818-5F3E09F09763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59190" yWindow="3210" windowWidth="19365" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59190" yWindow="3210" windowWidth="29985" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="סמסטר חורף" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="136">
   <si>
     <t>מספר</t>
   </si>
@@ -514,6 +514,24 @@
   <si>
     <t>22/03/2026</t>
   </si>
+  <si>
+    <t>אטומים אקזוטיים מועד א'</t>
+  </si>
+  <si>
+    <t>15.2.26</t>
+  </si>
+  <si>
+    <t>אטומים אקזוטיים מועד ב'</t>
+  </si>
+  <si>
+    <t>22.3.26</t>
+  </si>
+  <si>
+    <t>או</t>
+  </si>
+  <si>
+    <t>13.2.26</t>
+  </si>
 </sst>
 </file>
 
@@ -867,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1000,9 +1018,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,6 +1080,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,38 +1178,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1205,6 +1201,49 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14564,15 +14603,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B959E296-F642-456A-AD48-B9E5E503FBB0}" name="טבלה1" displayName="טבלה1" ref="A1:M77" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M77" xr:uid="{B959E296-F642-456A-AD48-B9E5E503FBB0}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="פיזיקה 5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M77">
-    <sortCondition ref="J1:J77"/>
+  <autoFilter ref="A1:M77" xr:uid="{B959E296-F642-456A-AD48-B9E5E503FBB0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M76">
+    <sortCondition ref="L1:L77"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{96ECBE6E-2D2D-4A77-AA79-7F7967F26B3A}" name="מספר" dataDxfId="12"/>
@@ -14859,7 +14892,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14878,7 +14911,7 @@
     <col min="13" max="13" width="16.28515625" style="49" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14925,8 +14958,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67">
+    <row r="2" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66">
         <v>134113</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -14934,11 +14967,11 @@
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="74">
@@ -14957,80 +14990,94 @@
     </row>
     <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
-        <v>118122</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="95"/>
+        <v>114086</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
-      </c>
-      <c r="K3" s="76"/>
+        <v>46055</v>
+      </c>
+      <c r="K3" s="78"/>
       <c r="L3" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M3" s="120"/>
+        <v>46090</v>
+      </c>
+      <c r="M3" s="121"/>
       <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67">
-        <v>236343</v>
+    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66">
+        <v>234292</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="35"/>
+        <v>65</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="40"/>
       <c r="J4" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
-      </c>
-      <c r="K4" s="76"/>
+        <v>46055</v>
+      </c>
+      <c r="K4" s="85"/>
       <c r="L4" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46086</v>
-      </c>
-      <c r="M4" s="68"/>
+        <v>46104</v>
+      </c>
+      <c r="M4" s="67"/>
       <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67">
-        <v>104222</v>
+    <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>116217</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="J5" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46057</v>
@@ -15040,27 +15087,27 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="64"/>
       <c r="O5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67">
-        <v>84312</v>
+    <row r="6" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66">
+        <v>236343</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="40"/>
+        <v>29</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="35"/>
       <c r="J6" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46056</v>
@@ -15070,405 +15117,386 @@
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M6" s="100"/>
+      <c r="M6" s="33"/>
       <c r="O6" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>104215</v>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66">
+        <v>84312</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>8</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="74">
-        <v>46058</v>
-      </c>
-      <c r="K7" s="78"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
+      </c>
+      <c r="K7" s="76"/>
       <c r="L7" s="74">
-        <v>46087</v>
-      </c>
-      <c r="M7" s="65"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46086</v>
+      </c>
+      <c r="M7" s="100"/>
     </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67">
-        <v>104195</v>
+    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66">
+        <v>104222</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="38"/>
+        <v>53</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="74">
-        <v>46063</v>
-      </c>
-      <c r="K8" s="85"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46057</v>
+      </c>
+      <c r="K8" s="76"/>
       <c r="L8" s="74">
-        <v>46087</v>
-      </c>
-      <c r="M8" s="48"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46086</v>
+      </c>
+      <c r="M8" s="75"/>
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
-        <v>104112</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="23"/>
+    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>114074</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="J9" s="74">
-        <v>46058</v>
-      </c>
-      <c r="K9" s="85"/>
+        <v>46057</v>
+      </c>
+      <c r="K9" s="74"/>
       <c r="L9" s="74">
-        <v>46087</v>
-      </c>
-      <c r="M9" s="33"/>
+        <v>46105</v>
+      </c>
+      <c r="M9" s="64"/>
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>236990</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="21"/>
+    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89">
+        <v>118130</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="23"/>
       <c r="J10" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46065</v>
-      </c>
-      <c r="K10" s="76"/>
+        <v>46063</v>
+      </c>
+      <c r="K10" s="85"/>
       <c r="L10" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46089</v>
-      </c>
-      <c r="M10" s="65"/>
+        <v>46091</v>
+      </c>
+      <c r="M10" s="33"/>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" ht="38.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
+    <row r="11" spans="1:19" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>104215</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="74">
+        <v>46058</v>
+      </c>
+      <c r="K11" s="78"/>
+      <c r="L11" s="74">
+        <v>46087</v>
+      </c>
+      <c r="M11" s="112"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="58">
+        <v>104112</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="84">
+        <v>46058</v>
+      </c>
+      <c r="K12" s="85"/>
+      <c r="L12" s="74">
+        <v>46087</v>
+      </c>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66">
+        <v>234218</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46061</v>
+      </c>
+      <c r="K13" s="76"/>
+      <c r="L13" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46096</v>
+      </c>
+      <c r="M13" s="123"/>
+    </row>
+    <row r="14" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
         <v>104042</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="38" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="74">
+      <c r="J14" s="74">
         <v>46062</v>
       </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74">
-        <v>46090</v>
-      </c>
-      <c r="M11" s="69"/>
-    </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>114086</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="84">
-        <v>46055</v>
-      </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="74">
-        <v>46090</v>
-      </c>
-      <c r="M12" s="48"/>
-    </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
-        <v>334011</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" s="74">
-        <v>46090</v>
-      </c>
-      <c r="M13" s="48"/>
-    </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
-        <v>104012</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="74">
-        <v>46063</v>
-      </c>
-      <c r="K14" s="85"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="74">
         <v>46090</v>
       </c>
-      <c r="M14" s="65"/>
+      <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
-        <v>44202</v>
+    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66">
+        <v>104031</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="41"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="23"/>
       <c r="J15" s="74">
-        <v>46064</v>
+        <v>46062</v>
       </c>
       <c r="K15" s="85"/>
       <c r="L15" s="74">
+        <v>46091</v>
+      </c>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="66">
+        <v>104195</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="74">
+        <v>46063</v>
+      </c>
+      <c r="K16" s="85"/>
+      <c r="L16" s="74">
+        <v>46087</v>
+      </c>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66">
+        <v>104012</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="74">
+        <v>46063</v>
+      </c>
+      <c r="K17" s="85"/>
+      <c r="L17" s="74">
         <v>46090</v>
       </c>
-      <c r="M15" s="64"/>
+      <c r="M17" s="112"/>
+      <c r="O17" s="5"/>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
         <v>104122</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="74">
+      <c r="F18" s="20"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="84">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K16" s="76"/>
-      <c r="L16" s="74">
+      <c r="K18" s="76"/>
+      <c r="L18" s="84">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M16" s="98"/>
+      <c r="M18" s="122"/>
+      <c r="T18" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
         <v>315052</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B19" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="74">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K17" s="76"/>
-      <c r="L17" s="74">
+      <c r="K19" s="76"/>
+      <c r="L19" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M17" s="69"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
-        <v>114074</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="84">
-        <v>46057</v>
-      </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="84">
-        <v>46105</v>
-      </c>
-      <c r="M18" s="70"/>
-      <c r="T18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59">
-        <v>104220</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K19" s="82">
-        <v>46062</v>
-      </c>
-      <c r="L19" s="74">
-        <v>46091</v>
-      </c>
-      <c r="M19" s="99"/>
+      <c r="M19" s="68"/>
       <c r="O19" s="5"/>
       <c r="T19" t="s">
         <v>125</v>
@@ -15483,230 +15511,259 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
-        <v>104031</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="23"/>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="58">
+        <v>104220</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="J20" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
+        <v>46063</v>
+      </c>
+      <c r="K20" s="82">
         <v>46062</v>
       </c>
-      <c r="K20" s="85"/>
       <c r="L20" s="74">
         <v>46091</v>
       </c>
-      <c r="M20" s="69"/>
+      <c r="M20" s="99"/>
+      <c r="T20" t="s">
+        <v>130</v>
+      </c>
+      <c r="U20" t="s">
+        <v>131</v>
+      </c>
+      <c r="V20" t="s">
+        <v>134</v>
+      </c>
+      <c r="W20" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59">
-        <v>314532</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
+    <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66">
+        <v>84738</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="74">
-        <v>46069</v>
-      </c>
-      <c r="K21" s="85"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46063</v>
+      </c>
+      <c r="K21" s="76"/>
       <c r="L21" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46091</v>
       </c>
-      <c r="M21" s="69"/>
+      <c r="M21" s="67"/>
+      <c r="T21" t="s">
+        <v>132</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
-        <v>84738</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="20"/>
+    <row r="22" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>115204</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="40"/>
+      <c r="G22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="J22" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46063</v>
+        <v>46069</v>
       </c>
       <c r="K22" s="76"/>
       <c r="L22" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46091</v>
-      </c>
-      <c r="M22" s="68"/>
+        <v>46093</v>
+      </c>
+      <c r="M22" s="121"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>116217</v>
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="66">
+        <v>44202</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>13</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="35" t="s">
-        <v>90</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H23" s="70"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="74">
+        <v>46064</v>
+      </c>
+      <c r="K23" s="85"/>
+      <c r="L23" s="74">
+        <v>46090</v>
+      </c>
+      <c r="M23" s="63"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="66">
+        <v>104033</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="40"/>
+      <c r="J24" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46057</v>
-      </c>
-      <c r="K23" s="76"/>
-      <c r="L23" s="74">
+        <v>46064</v>
+      </c>
+      <c r="K24" s="76"/>
+      <c r="L24" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46086</v>
-      </c>
-      <c r="M23" s="65"/>
-    </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
-        <v>104064</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="74">
-        <v>46068</v>
-      </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74">
         <v>46093</v>
       </c>
-      <c r="M24" s="65"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89">
-        <v>118130</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="A25" s="58">
+        <v>236990</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="H25" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="I25" s="23"/>
       <c r="J25" s="74">
-        <v>46063</v>
-      </c>
-      <c r="K25" s="85"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46065</v>
+      </c>
+      <c r="K25" s="76"/>
       <c r="L25" s="74">
-        <v>46091</v>
-      </c>
-      <c r="M25" s="33"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46089</v>
+      </c>
+      <c r="M25" s="64"/>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
-        <v>104033</v>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="66">
+        <v>44268</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="G26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="18"/>
       <c r="I26" s="40"/>
       <c r="J26" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46064</v>
-      </c>
-      <c r="K26" s="76"/>
+        <v>46065</v>
+      </c>
+      <c r="K26" s="85"/>
       <c r="L26" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46093</v>
       </c>
       <c r="M26" s="33"/>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67">
-        <v>44268</v>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="66">
+        <v>104285</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="18"/>
+      <c r="E27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="40"/>
       <c r="J27" s="74">
         <v>46065</v>
       </c>
       <c r="K27" s="85"/>
       <c r="L27" s="74">
-        <v>46093</v>
-      </c>
-      <c r="M27" s="68"/>
+        <v>46094</v>
+      </c>
+      <c r="M27" s="121"/>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="66">
         <v>104166</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -15728,555 +15785,529 @@
       <c r="L28" s="74">
         <v>46094</v>
       </c>
-      <c r="M28" s="69"/>
+      <c r="M28" s="68"/>
     </row>
-    <row r="29" spans="1:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
-        <v>104285</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="40"/>
+    <row r="29" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="58">
+        <v>104165</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="74">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="K29" s="85"/>
       <c r="L29" s="74">
-        <v>46094</v>
-      </c>
-      <c r="M29" s="48"/>
+        <v>46104</v>
+      </c>
+      <c r="M29" s="98"/>
     </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67">
-        <v>104214</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="40" t="s">
-        <v>8</v>
+    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66">
+        <v>104064</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="38" t="s">
+        <v>4</v>
       </c>
       <c r="J30" s="74">
-        <v>46073</v>
-      </c>
-      <c r="K30" s="82"/>
+        <v>46068</v>
+      </c>
+      <c r="K30" s="74"/>
       <c r="L30" s="74">
-        <v>46096</v>
-      </c>
-      <c r="M30" s="48"/>
+        <v>46093</v>
+      </c>
+      <c r="M30" s="64"/>
     </row>
-    <row r="31" spans="1:23" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67">
-        <v>234218</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="40"/>
+    <row r="31" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>118129</v>
+      </c>
+      <c r="B31" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46061</v>
+        <v>46072</v>
       </c>
       <c r="K31" s="76"/>
       <c r="L31" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M31" s="110"/>
-      <c r="O31" s="53"/>
+      <c r="M31" s="113"/>
+      <c r="O31" s="52"/>
     </row>
-    <row r="32" spans="1:23" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+    <row r="32" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66">
+        <v>134019</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="74">
+        <v>46068</v>
+      </c>
+      <c r="K32" s="78">
+        <v>46069</v>
+      </c>
+      <c r="L32" s="74">
+        <v>46104</v>
+      </c>
+      <c r="M32" s="64"/>
+    </row>
+    <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="58">
+        <v>314532</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="74">
+        <v>46069</v>
+      </c>
+      <c r="K33" s="85"/>
+      <c r="L33" s="74">
+        <v>46091</v>
+      </c>
+      <c r="M33" s="48"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="66">
         <v>104066</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B34" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="15" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="74">
+      <c r="F34" s="21"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46069</v>
       </c>
-      <c r="K32" s="76"/>
-      <c r="L32" s="74">
+      <c r="K34" s="76"/>
+      <c r="L34" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M32" s="33"/>
-    </row>
-    <row r="33" spans="1:16" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J33" s="114">
-        <v>46068</v>
-      </c>
-      <c r="K33" s="111">
-        <v>46066</v>
-      </c>
-      <c r="L33" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="M33" s="33"/>
-      <c r="P33" s="12"/>
-    </row>
-    <row r="34" spans="1:16" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59">
-        <v>315037</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="74">
-        <v>46072</v>
-      </c>
-      <c r="K34" s="85"/>
-      <c r="L34" s="74">
-        <v>46097</v>
-      </c>
       <c r="M34" s="33"/>
     </row>
-    <row r="35" spans="1:16" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67">
-        <v>276011</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="57" t="s">
-        <v>15</v>
-      </c>
+    <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>118122</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="95"/>
       <c r="J35" s="74">
-        <v>46071</v>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
       </c>
       <c r="K35" s="76"/>
       <c r="L35" s="74">
-        <v>46098</v>
-      </c>
-      <c r="M35" s="48"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M35" s="64"/>
     </row>
-    <row r="36" spans="1:16" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67">
-        <v>234129</v>
+    <row r="36" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>104034</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="74">
-        <v>46071</v>
-      </c>
-      <c r="K36" s="85"/>
-      <c r="L36" s="74">
-        <v>46098</v>
-      </c>
-      <c r="M36" s="48"/>
-    </row>
-    <row r="37" spans="1:16" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
-        <v>104034</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46070</v>
       </c>
-      <c r="K37" s="81"/>
-      <c r="L37" s="74">
+      <c r="K36" s="81"/>
+      <c r="L36" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46098</v>
       </c>
-      <c r="M37" s="75"/>
+      <c r="M36" s="75"/>
     </row>
-    <row r="38" spans="1:16" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
-        <v>104295</v>
+    <row r="37" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66">
+        <v>276011</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="74">
+        <v>46071</v>
+      </c>
+      <c r="K37" s="76"/>
+      <c r="L37" s="74">
+        <v>46098</v>
+      </c>
+      <c r="M37" s="48"/>
+    </row>
+    <row r="38" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="66">
+        <v>234129</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="38"/>
+        <v>57</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="35"/>
       <c r="J38" s="74">
-        <v>46075</v>
+        <v>46071</v>
       </c>
       <c r="K38" s="85"/>
       <c r="L38" s="74">
         <v>46098</v>
       </c>
-      <c r="M38" s="98"/>
+      <c r="M38" s="48"/>
     </row>
-    <row r="39" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59">
-        <v>84220</v>
-      </c>
-      <c r="B39" s="92" t="s">
-        <v>102</v>
+    <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="58">
+        <v>315037</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="D39" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="E39" s="21"/>
-      <c r="F39" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="23"/>
       <c r="J39" s="74">
-        <v>46073</v>
+        <v>46072</v>
       </c>
       <c r="K39" s="85"/>
       <c r="L39" s="74">
-        <v>46098</v>
+        <v>46097</v>
       </c>
       <c r="M39" s="33"/>
     </row>
-    <row r="40" spans="1:16" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67">
-        <v>125001</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="38" t="s">
-        <v>4</v>
-      </c>
+    <row r="40" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="66">
+        <v>44148</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="74">
-        <v>46075</v>
-      </c>
-      <c r="K40" s="74"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46072</v>
+      </c>
+      <c r="K40" s="76"/>
       <c r="L40" s="74">
-        <v>46099</v>
-      </c>
-      <c r="M40" s="75"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M40" s="63"/>
     </row>
-    <row r="41" spans="1:16" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67">
-        <v>334274</v>
+    <row r="41" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>124107</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="40" t="s">
-        <v>8</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="74">
-        <v>46077</v>
-      </c>
-      <c r="K41" s="74"/>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K41" s="76"/>
       <c r="L41" s="74">
-        <v>46099</v>
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46106</v>
       </c>
       <c r="M41" s="48"/>
     </row>
-    <row r="42" spans="1:16" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
-        <v>234125</v>
+    <row r="42" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66">
+        <v>104214</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+        <v>114</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" s="40"/>
+      <c r="F42" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="J42" s="74">
-        <v>46075</v>
-      </c>
-      <c r="K42" s="85"/>
+        <v>46073</v>
+      </c>
+      <c r="K42" s="82"/>
       <c r="L42" s="74">
-        <v>46100</v>
-      </c>
-      <c r="M42" s="33"/>
+        <v>46096</v>
+      </c>
+      <c r="M42" s="48"/>
     </row>
-    <row r="43" spans="1:16" s="10" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="67">
-        <v>44148</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>110</v>
+    <row r="43" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="58">
+        <v>84220</v>
+      </c>
+      <c r="B43" s="92" t="s">
+        <v>102</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="F43" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="23"/>
       <c r="J43" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46072</v>
-      </c>
-      <c r="K43" s="76"/>
+        <v>46073</v>
+      </c>
+      <c r="K43" s="85"/>
       <c r="L43" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M43" s="64"/>
+        <v>46098</v>
+      </c>
+      <c r="M43" s="33"/>
     </row>
-    <row r="44" spans="1:16" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59">
-        <v>314003</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>76</v>
+    <row r="44" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="66">
+        <v>104295</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="21"/>
-      <c r="D44" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="23"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="38"/>
       <c r="J44" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46076</v>
-      </c>
-      <c r="K44" s="76"/>
+        <v>46075</v>
+      </c>
+      <c r="K44" s="85"/>
       <c r="L44" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M44" s="48"/>
+        <v>46098</v>
+      </c>
+      <c r="M44" s="98"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
-        <v>115204</v>
+      <c r="A45" s="66">
+        <v>125001</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="74">
+        <v>46075</v>
+      </c>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74">
+        <v>46099</v>
+      </c>
+      <c r="M45" s="75"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="66">
+        <v>234125</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I45" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46069</v>
-      </c>
-      <c r="K45" s="76"/>
-      <c r="L45" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46093</v>
-      </c>
-      <c r="M45" s="48"/>
-    </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59">
-        <v>84913</v>
-      </c>
-      <c r="B46" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="23"/>
+      <c r="I46" s="40"/>
       <c r="J46" s="74">
-        <v>46077</v>
+        <v>46075</v>
       </c>
       <c r="K46" s="85"/>
       <c r="L46" s="74">
         <v>46100</v>
       </c>
-      <c r="M46" s="68"/>
+      <c r="M46" s="124"/>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
-        <v>114101</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="41" t="s">
-        <v>15</v>
-      </c>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="58">
+        <v>314003</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46078</v>
+        <v>46076</v>
       </c>
       <c r="K47" s="76"/>
       <c r="L47" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46103</v>
-      </c>
-      <c r="M47" s="69"/>
+        <v>46100</v>
+      </c>
+      <c r="M47" s="121"/>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="66">
         <v>234114</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -16298,10 +16329,10 @@
       <c r="L48" s="74">
         <v>46103</v>
       </c>
-      <c r="M48" s="69"/>
+      <c r="M48" s="68"/>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="67">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="66">
         <v>234117</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -16323,567 +16354,579 @@
       <c r="L49" s="74">
         <v>46103</v>
       </c>
-      <c r="M49" s="68"/>
+      <c r="M49" s="67"/>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67">
-        <v>134019</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="40" t="s">
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50" s="108">
+        <v>46068</v>
+      </c>
+      <c r="K50" s="107">
+        <v>46066</v>
+      </c>
+      <c r="L50" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="M50" s="124"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="58">
+        <v>104283</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="86">
+        <v>46076</v>
+      </c>
+      <c r="K51" s="87"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="67"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="66">
+        <v>334274</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="74">
-        <v>46068</v>
-      </c>
-      <c r="K50" s="78">
-        <v>46069</v>
-      </c>
-      <c r="L50" s="74">
-        <v>46104</v>
-      </c>
-      <c r="M50" s="70"/>
+      <c r="J52" s="74">
+        <v>46077</v>
+      </c>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74">
+        <v>46099</v>
+      </c>
+      <c r="M52" s="121"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67">
-        <v>234292</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I51" s="40"/>
-      <c r="J51" s="86">
-        <v>46055</v>
-      </c>
-      <c r="K51" s="87"/>
-      <c r="L51" s="74">
-        <v>46104</v>
-      </c>
-      <c r="M51" s="68"/>
-    </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59">
-        <v>104165</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="74">
-        <v>46066</v>
-      </c>
-      <c r="K52" s="85"/>
-      <c r="L52" s="74">
-        <v>46104</v>
-      </c>
-      <c r="M52" s="109"/>
-    </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59">
-        <v>334009</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>97</v>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="58">
+        <v>84913</v>
+      </c>
+      <c r="B53" s="92" t="s">
+        <v>103</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
+      <c r="F53" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
-      <c r="I53" s="41" t="s">
+      <c r="I53" s="23"/>
+      <c r="J53" s="74">
+        <v>46077</v>
+      </c>
+      <c r="K53" s="85"/>
+      <c r="L53" s="74">
+        <v>46100</v>
+      </c>
+      <c r="M53" s="67"/>
+    </row>
+    <row r="54" spans="1:15" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28">
+        <v>104134</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="38"/>
+      <c r="J54" s="74">
+        <v>46077</v>
+      </c>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="68"/>
+    </row>
+    <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28">
+        <v>114101</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="74">
-        <v>46082</v>
-      </c>
-      <c r="K53" s="76"/>
-      <c r="L53" s="74">
+      <c r="J55" s="84">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46078</v>
+      </c>
+      <c r="K55" s="97"/>
+      <c r="L55" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46103</v>
+      </c>
+      <c r="M55" s="68"/>
+    </row>
+    <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="58">
+        <v>104279</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="86">
+        <v>46078</v>
+      </c>
+      <c r="K56" s="87"/>
+      <c r="L56" s="74">
         <v>46105</v>
       </c>
-      <c r="M53" s="69"/>
-    </row>
-    <row r="54" spans="1:15" s="6" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59">
-        <v>104279</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="74">
-        <v>46078</v>
-      </c>
-      <c r="K54" s="85"/>
-      <c r="L54" s="74">
-        <v>46105</v>
-      </c>
-      <c r="M54" s="70"/>
-    </row>
-    <row r="55" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59">
-        <v>314006</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="84">
-        <v>46082</v>
-      </c>
-      <c r="K55" s="87"/>
-      <c r="L55" s="74">
-        <v>46105</v>
-      </c>
-      <c r="M55" s="69"/>
-    </row>
-    <row r="56" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="67">
-        <v>84314</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="86">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K56" s="97"/>
-      <c r="L56" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46105</v>
-      </c>
-      <c r="M56" s="108"/>
+      <c r="M56" s="69"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="67">
-        <v>94412</v>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="66">
+        <v>134058</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I57" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="J57" s="74">
-        <v>46082</v>
-      </c>
-      <c r="K57" s="85"/>
+        <v>46079</v>
+      </c>
+      <c r="K57" s="74"/>
       <c r="L57" s="74">
-        <v>46106</v>
-      </c>
-      <c r="M57" s="69"/>
+        <v>46107</v>
+      </c>
+      <c r="M57" s="68"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67">
-        <v>124108</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I58" s="35"/>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="66">
+        <v>44137</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K58" s="79"/>
+        <v>46079</v>
+      </c>
+      <c r="K58" s="76"/>
       <c r="L58" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46106</v>
+        <v>46108</v>
       </c>
       <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
-        <v>118129</v>
-      </c>
-      <c r="B59" s="90" t="s">
-        <v>91</v>
+        <v>116354</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
+      <c r="D59" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F59" s="21"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46072</v>
-      </c>
-      <c r="K59" s="76"/>
-      <c r="L59" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
-      </c>
-      <c r="M59" s="121"/>
+      <c r="G59" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" s="88">
+        <v>46076</v>
+      </c>
+      <c r="K59" s="79"/>
+      <c r="L59" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="M59" s="112"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="67">
-        <v>134058</v>
-      </c>
-      <c r="B60" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="93"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="94" t="s">
-        <v>4</v>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="58">
+        <v>334009</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="111" t="s">
+        <v>15</v>
       </c>
       <c r="J60" s="74">
-        <v>46079</v>
-      </c>
-      <c r="K60" s="74"/>
+        <v>46082</v>
+      </c>
+      <c r="K60" s="76"/>
       <c r="L60" s="74">
-        <v>46107</v>
-      </c>
-      <c r="M60" s="69"/>
+        <v>46105</v>
+      </c>
+      <c r="M60" s="68"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="77">
-        <v>234128</v>
-      </c>
-      <c r="B61" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="93"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93"/>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="65">
+        <v>314006</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
       <c r="J61" s="74">
+        <v>46082</v>
+      </c>
+      <c r="K61" s="85"/>
+      <c r="L61" s="74">
+        <v>46105</v>
+      </c>
+      <c r="M61" s="68"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="77">
+        <v>84314</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="45"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K61" s="80"/>
-      <c r="L61" s="74">
+      <c r="K62" s="76"/>
+      <c r="L62" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46105</v>
+      </c>
+      <c r="M62" s="106"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="77">
+        <v>94412</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="50"/>
+      <c r="J63" s="84">
+        <v>46082</v>
+      </c>
+      <c r="K63" s="87"/>
+      <c r="L63" s="74">
+        <v>46106</v>
+      </c>
+      <c r="M63" s="125"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="77">
+        <v>124108</v>
+      </c>
+      <c r="B64" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" s="103"/>
+      <c r="J64" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K64" s="79"/>
+      <c r="L64" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46106</v>
+      </c>
+      <c r="M64" s="53"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="77">
+        <v>234128</v>
+      </c>
+      <c r="B65" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="94"/>
+      <c r="J65" s="74">
+        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K65" s="80"/>
+      <c r="L65" s="74">
         <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46107</v>
       </c>
-      <c r="M61" s="70"/>
-    </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="77">
-        <v>44105</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="45"/>
-      <c r="I62" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="74">
-        <v>46082</v>
-      </c>
-      <c r="K62" s="78"/>
-      <c r="L62" s="74">
-        <v>46108</v>
-      </c>
-      <c r="M62" s="107"/>
-    </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="77">
-        <v>44137</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="84">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46079</v>
-      </c>
-      <c r="K63" s="97"/>
-      <c r="L63" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46108</v>
-      </c>
-      <c r="M63" s="50"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="31">
-        <v>116354</v>
-      </c>
-      <c r="B64" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="36"/>
-      <c r="G64" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" s="103" t="s">
-        <v>90</v>
-      </c>
-      <c r="J64" s="88">
-        <v>46076</v>
-      </c>
-      <c r="K64" s="79"/>
-      <c r="L64" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="M64" s="83"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="66">
-        <v>116041</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="78">
-        <v>46079</v>
-      </c>
-      <c r="K65" s="79"/>
-      <c r="L65" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="M65" s="54"/>
+      <c r="M65" s="83"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="31">
-        <v>124107</v>
+      <c r="A66" s="77">
+        <v>44105</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="119"/>
+        <v>24</v>
+      </c>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="45"/>
+      <c r="I66" s="46" t="s">
+        <v>8</v>
+      </c>
       <c r="J66" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K66" s="76"/>
+      <c r="K66" s="78"/>
       <c r="L66" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46106</v>
-      </c>
-      <c r="M66" s="55"/>
+        <v>46108</v>
+      </c>
+      <c r="M66" s="128"/>
     </row>
     <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="31">
-        <v>116029</v>
-      </c>
-      <c r="B67" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="52" t="s">
+      <c r="A67" s="65">
+        <v>116041</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="D67" s="36"/>
+      <c r="E67" s="21"/>
       <c r="F67" s="36"/>
-      <c r="G67" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="44"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="78" t="s">
-        <v>121</v>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="78">
+        <v>46079</v>
       </c>
       <c r="K67" s="79"/>
       <c r="L67" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="M67" s="55"/>
+      <c r="M67" s="53"/>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="77">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="31">
+        <v>116029</v>
+      </c>
+      <c r="B68" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="55"/>
+      <c r="E68" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="36"/>
+      <c r="G68" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="44"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="K68" s="79"/>
+      <c r="L68" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="M68" s="54"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="31">
+        <v>116083</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="62"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="K69" s="79"/>
+      <c r="L69" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="M69" s="53"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="77">
         <v>337403</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B70" s="44" t="s">
         <v>64</v>
-      </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="K68" s="76"/>
-      <c r="L68" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="M68" s="55"/>
-    </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="73">
-        <v>324033</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I69" s="51"/>
-      <c r="J69" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="K69" s="76"/>
-      <c r="L69" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="M69" s="55"/>
-    </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="77">
-        <v>104000</v>
-      </c>
-      <c r="B70" s="72" t="s">
-        <v>100</v>
       </c>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
-      <c r="E70" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="E70" s="21"/>
       <c r="F70" s="36"/>
-      <c r="G70" s="93"/>
-      <c r="H70" s="93"/>
-      <c r="I70" s="94"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="96" t="s">
+        <v>15</v>
+      </c>
       <c r="J70" s="78" t="s">
         <v>120</v>
       </c>
@@ -16893,22 +16936,26 @@
       </c>
       <c r="M70" s="54"/>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66">
-        <v>104192</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>122</v>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="73">
+        <v>324033</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" s="50"/>
       <c r="J71" s="78" t="s">
         <v>120</v>
       </c>
@@ -16916,24 +16963,24 @@
       <c r="L71" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M71" s="101"/>
+      <c r="M71" s="54"/>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="66">
-        <v>104276</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>108</v>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="77">
+        <v>104000</v>
+      </c>
+      <c r="B72" s="71" t="s">
+        <v>100</v>
       </c>
       <c r="C72" s="36"/>
       <c r="D72" s="36"/>
-      <c r="E72" s="22" t="s">
-        <v>13</v>
+      <c r="E72" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="51"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="94"/>
       <c r="J72" s="78" t="s">
         <v>120</v>
       </c>
@@ -16941,49 +16988,49 @@
       <c r="L72" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="54"/>
+      <c r="M72" s="53"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="28">
-        <v>116083</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
+      <c r="A73" s="58">
+        <v>104192</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F73" s="21"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="35"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="23"/>
       <c r="J73" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="K73" s="79"/>
+        <v>120</v>
+      </c>
+      <c r="K73" s="76"/>
       <c r="L73" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="M73" s="54"/>
+        <v>120</v>
+      </c>
+      <c r="M73" s="101"/>
     </row>
-    <row r="74" spans="1:15" s="32" customFormat="1" ht="26.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="77">
-        <v>84154</v>
-      </c>
-      <c r="B74" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="45"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="46"/>
+    <row r="74" spans="1:15" s="32" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="65">
+        <v>104276</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="50"/>
       <c r="J74" s="78" t="s">
         <v>120</v>
       </c>
@@ -16991,80 +17038,84 @@
       <c r="L74" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M74" s="106"/>
-      <c r="N74" s="62"/>
-      <c r="O74" s="61"/>
+      <c r="M74" s="127"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="60"/>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="31">
-        <v>104134</v>
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="77">
+        <v>84154</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="93"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I75" s="94"/>
-      <c r="J75" s="74">
-        <v>46077</v>
-      </c>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="69"/>
+        <v>82</v>
+      </c>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="45"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="K75" s="76"/>
+      <c r="L75" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="M75" s="126"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="62">
-        <v>104283</v>
-      </c>
-      <c r="B76" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="36"/>
+    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="114">
+        <v>117006</v>
+      </c>
+      <c r="B76" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>12</v>
+      </c>
       <c r="D76" s="36"/>
-      <c r="E76" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="55"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="74">
-        <v>46076</v>
-      </c>
-      <c r="K76" s="85"/>
-      <c r="L76" s="85"/>
-      <c r="M76" s="68"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="K76" s="76"/>
+      <c r="L76" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="M76" s="110"/>
     </row>
-    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="112">
-        <v>117006</v>
-      </c>
-      <c r="B77" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>12</v>
-      </c>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="77">
+        <v>334011</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="21"/>
       <c r="D77" s="36"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="56"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="K77" s="116"/>
-      <c r="L77" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="M77" s="118"/>
+      <c r="I77" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="119"/>
+      <c r="K77" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="L77" s="120">
+        <v>46090</v>
+      </c>
+      <c r="M77" s="121"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F016540C-F242-47C1-A818-5F3E09F09763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6716D2-AC70-4BDC-AB03-8206DE15A857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59190" yWindow="3210" windowWidth="29985" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="73620" yWindow="2205" windowWidth="29670" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="סמסטר חורף" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="136">
   <si>
     <t>מספר</t>
   </si>
@@ -512,9 +512,6 @@
     <t>נושאים נבחרים באטומים אקזוטיים</t>
   </si>
   <si>
-    <t>22/03/2026</t>
-  </si>
-  <si>
     <t>אטומים אקזוטיים מועד א'</t>
   </si>
   <si>
@@ -532,16 +529,18 @@
   <si>
     <t>13.2.26</t>
   </si>
+  <si>
+    <t>ריק</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +716,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -885,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1150,16 +1157,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,78 +1169,66 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1267,7 +1253,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -1306,7 +1292,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -1434,7 +1420,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <charset val="177"/>
         <scheme val="minor"/>
@@ -1583,6 +1569,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1600,13 +1593,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -14602,25 +14588,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B959E296-F642-456A-AD48-B9E5E503FBB0}" name="טבלה1" displayName="טבלה1" ref="A1:M77" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M77" xr:uid="{B959E296-F642-456A-AD48-B9E5E503FBB0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D55DB98B-67EC-4AC3-87E3-56FDBEEEA350}" name="טבלה13" displayName="טבלה13" ref="A1:M77" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:M77" xr:uid="{D55DB98B-67EC-4AC3-87E3-56FDBEEEA350}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M77">
     <sortCondition ref="L1:L77"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{96ECBE6E-2D2D-4A77-AA79-7F7967F26B3A}" name="מספר" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{096DB6F6-823D-4AE5-8A81-6C8D780A8233}" name="שם קורס" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{D576F261-CBBC-434F-B4DA-86C37F0E3DE4}" name="פיזיקה" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{ED2EF5E9-9869-4EE2-8218-80BE3E49AE12}" name="חומרים" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{46AEC637-4010-4745-A135-C49986C05FCB}" name="מתמטיקה" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{6EA6AF67-7C78-4E98-88D3-3418CFF3DF6B}" name="אווירונטיקה" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3CC7FC3D-4C7B-423E-9C20-53C5D30DBB4E}" name="חשמל" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{74EF6464-1962-400F-BF26-5DE751E61560}" name="מדעי מחשב" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{4706092C-1802-4D14-AC92-A2953C1CECEB}" name="ביו-רפואה" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{E0FE1AF0-7E53-434C-BDA4-86B16CC8EA92}" name="מועד א'" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{4C5E1D2B-1ED4-41EA-ACCE-E7A40A801643}" name="מועד א' חלופות" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{DE6A654B-76D8-4CE1-A96E-9DC1F279225C}" name="מועד ב'" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{CA1A60BF-8032-4DA6-B229-3B05EFC6A410}" name="שינויים מועד ב'" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{85D29950-44C3-49A5-852E-E80B2576A63B}" name="מספר" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{4F14147D-EF95-4203-B533-6A99A60122B3}" name="שם קורס" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{146656FE-F44B-4DFE-BDAC-60C30D62AD6B}" name="פיזיקה" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{94E6960C-23A0-4679-B94C-2DF91DC7C2E5}" name="חומרים" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{823B6E0E-E073-4073-B059-98BAA9747409}" name="מתמטיקה" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{677013ED-86F0-408D-9057-736B12FA4855}" name="אווירונטיקה" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{20704DDF-CC8B-4162-98FB-2B2AC8047D3B}" name="חשמל" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{77828D30-2E4B-4F7C-BD2B-4486C9F8C1B3}" name="מדעי מחשב" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{EB4C62A4-FDC0-4664-B0AD-B194A29AF097}" name="ביו-רפואה" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{CDDD17CD-8C40-4C6D-83DC-11C584CE33F8}" name="מועד א'" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{CFD4BCBD-D903-4392-97A9-AF916EFDCB38}" name="מועד א' חלופות" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{4851DBEA-51C9-4D60-82E5-EA051ECB75F8}" name="מועד ב'" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{CB8E50BC-E0E2-4B36-8CA5-1952A218F250}" name="שינויים מועד ב'" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14892,7 +14878,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14907,7 +14893,7 @@
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="11" width="12.28515625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="49" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" style="49" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
@@ -14975,272 +14961,262 @@
         <v>15</v>
       </c>
       <c r="J2" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46055</v>
       </c>
       <c r="K2" s="76"/>
       <c r="L2" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M2" s="105"/>
+      <c r="M2" s="101"/>
       <c r="O2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
-        <v>114086</v>
+      <c r="A3" s="30">
+        <v>116217</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="J3" s="74">
-        <v>46055</v>
-      </c>
-      <c r="K3" s="78"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46057</v>
+      </c>
+      <c r="K3" s="76"/>
       <c r="L3" s="74">
-        <v>46090</v>
-      </c>
-      <c r="M3" s="121"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46086</v>
+      </c>
+      <c r="M3" s="69"/>
       <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66">
-        <v>234292</v>
+        <v>236343</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="40"/>
+        <v>29</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="35"/>
       <c r="J4" s="74">
-        <v>46055</v>
-      </c>
-      <c r="K4" s="85"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
+      </c>
+      <c r="K4" s="76"/>
       <c r="L4" s="74">
-        <v>46104</v>
-      </c>
-      <c r="M4" s="67"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46086</v>
+      </c>
+      <c r="M4" s="106"/>
       <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
-        <v>116217</v>
+      <c r="A5" s="66">
+        <v>104222</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="35" t="s">
-        <v>90</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46057</v>
       </c>
       <c r="K5" s="76"/>
       <c r="L5" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="75"/>
       <c r="O5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66">
-        <v>236343</v>
+        <v>84312</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46056</v>
       </c>
       <c r="K6" s="76"/>
       <c r="L6" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M6" s="33"/>
+      <c r="M6" s="97"/>
       <c r="O6" s="32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
-        <v>84312</v>
+      <c r="A7" s="28">
+        <v>104215</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="40"/>
+        <v>87</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="J7" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
-      </c>
-      <c r="K7" s="76"/>
+        <v>46058</v>
+      </c>
+      <c r="K7" s="78"/>
       <c r="L7" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46086</v>
-      </c>
-      <c r="M7" s="100"/>
+        <v>46087</v>
+      </c>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66">
-        <v>104222</v>
+        <v>104195</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46057</v>
-      </c>
-      <c r="K8" s="76"/>
+        <v>46063</v>
+      </c>
+      <c r="K8" s="85"/>
       <c r="L8" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46086</v>
-      </c>
-      <c r="M8" s="75"/>
+        <v>46087</v>
+      </c>
+      <c r="M8" s="48"/>
       <c r="R8"/>
       <c r="S8"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>114074</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="58">
+        <v>104112</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="74">
-        <v>46057</v>
-      </c>
-      <c r="K9" s="74"/>
+        <v>46058</v>
+      </c>
+      <c r="K9" s="85"/>
       <c r="L9" s="74">
-        <v>46105</v>
-      </c>
-      <c r="M9" s="64"/>
+        <v>46087</v>
+      </c>
+      <c r="M9" s="33"/>
       <c r="R9"/>
       <c r="S9"/>
     </row>
     <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89">
-        <v>118130</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="58">
+        <v>236990</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="I10" s="23"/>
       <c r="J10" s="74">
-        <v>46063</v>
-      </c>
-      <c r="K10" s="85"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46065</v>
+      </c>
+      <c r="K10" s="76"/>
       <c r="L10" s="74">
-        <v>46091</v>
-      </c>
-      <c r="M10" s="33"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46089</v>
+      </c>
+      <c r="M10" s="64"/>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
@@ -15248,255 +15224,266 @@
       <c r="S10"/>
     </row>
     <row r="11" spans="1:19" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>104215</v>
+      <c r="A11" s="58">
+        <v>104042</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>8</v>
+        <v>116</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="38" t="s">
+        <v>4</v>
       </c>
       <c r="J11" s="74">
-        <v>46058</v>
-      </c>
-      <c r="K11" s="78"/>
+        <v>46062</v>
+      </c>
+      <c r="K11" s="74"/>
       <c r="L11" s="74">
-        <v>46087</v>
+        <v>46090</v>
       </c>
       <c r="M11" s="112"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
-        <v>104112</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="28">
+        <v>114086</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="J12" s="84">
-        <v>46058</v>
-      </c>
-      <c r="K12" s="85"/>
+        <v>46055</v>
+      </c>
+      <c r="K12" s="78"/>
       <c r="L12" s="74">
-        <v>46087</v>
-      </c>
-      <c r="M12" s="33"/>
+        <v>46090</v>
+      </c>
+      <c r="M12" s="48"/>
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66">
-        <v>234218</v>
+        <v>334011</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46061</v>
-      </c>
-      <c r="K13" s="76"/>
+        <v>63</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="74"/>
+      <c r="K13" s="76" t="s">
+        <v>123</v>
+      </c>
       <c r="L13" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
-      </c>
-      <c r="M13" s="123"/>
+        <v>46090</v>
+      </c>
+      <c r="M13" s="48"/>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
-        <v>104042</v>
+      <c r="A14" s="66">
+        <v>104012</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+        <v>95</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="38" t="s">
-        <v>4</v>
-      </c>
+      <c r="I14" s="38"/>
       <c r="J14" s="74">
-        <v>46062</v>
-      </c>
-      <c r="K14" s="74"/>
+        <v>46063</v>
+      </c>
+      <c r="K14" s="85"/>
       <c r="L14" s="74">
         <v>46090</v>
       </c>
-      <c r="M14" s="48"/>
+      <c r="M14" s="64"/>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="66">
-        <v>104031</v>
+        <v>44202</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="70"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="74">
-        <v>46062</v>
+        <v>46064</v>
       </c>
       <c r="K15" s="85"/>
       <c r="L15" s="74">
-        <v>46091</v>
-      </c>
-      <c r="M15" s="48"/>
+        <v>46090</v>
+      </c>
+      <c r="M15" s="63"/>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66">
-        <v>104195</v>
+      <c r="A16" s="28">
+        <v>104122</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="38"/>
+        <v>54</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K16" s="85"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="74">
-        <v>46087</v>
-      </c>
-      <c r="M16" s="48"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46090</v>
+      </c>
+      <c r="M16" s="96"/>
     </row>
     <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66">
-        <v>104012</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="38"/>
+      <c r="A17" s="58">
+        <v>315052</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K17" s="85"/>
+      <c r="K17" s="76"/>
       <c r="L17" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M17" s="112"/>
+      <c r="M17" s="68"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
-        <v>104122</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="40"/>
+      <c r="A18" s="58">
+        <v>104220</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="J18" s="84">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
         <v>46063</v>
       </c>
-      <c r="K18" s="76"/>
+      <c r="K18" s="82">
+        <v>46062</v>
+      </c>
       <c r="L18" s="84">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46090</v>
-      </c>
-      <c r="M18" s="122"/>
+        <v>46091</v>
+      </c>
+      <c r="M18" s="115"/>
       <c r="T18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>315052</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>75</v>
+      <c r="A19" s="66">
+        <v>104031</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K19" s="76"/>
+        <v>46062</v>
+      </c>
+      <c r="K19" s="85"/>
       <c r="L19" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46090</v>
-      </c>
-      <c r="M19" s="68"/>
+        <v>46091</v>
+      </c>
+      <c r="M19" s="112"/>
       <c r="O19" s="5"/>
       <c r="T19" t="s">
         <v>125</v>
@@ -15513,52 +15500,39 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
-        <v>104220</v>
+        <v>314532</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>8</v>
-      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K20" s="82">
-        <v>46062</v>
-      </c>
+        <v>46069</v>
+      </c>
+      <c r="K20" s="85"/>
       <c r="L20" s="74">
         <v>46091</v>
       </c>
-      <c r="M20" s="99"/>
+      <c r="M20" s="68"/>
       <c r="T20" t="s">
+        <v>129</v>
+      </c>
+      <c r="U20" t="s">
         <v>130</v>
       </c>
-      <c r="U20" t="s">
-        <v>131</v>
-      </c>
       <c r="V20" t="s">
+        <v>133</v>
+      </c>
+      <c r="W20" t="s">
         <v>134</v>
-      </c>
-      <c r="W20" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15578,139 +15552,145 @@
       <c r="H21" s="22"/>
       <c r="I21" s="40"/>
       <c r="J21" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
       <c r="K21" s="76"/>
       <c r="L21" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46091</v>
       </c>
-      <c r="M21" s="67"/>
+      <c r="M21" s="106"/>
       <c r="T21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U21" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>115204</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>11</v>
+      <c r="A22" s="89">
+        <v>118130</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>119</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>15</v>
-      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46069</v>
-      </c>
-      <c r="K22" s="76"/>
+        <v>46072</v>
+      </c>
+      <c r="K22" s="74"/>
       <c r="L22" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46091</v>
+      </c>
+      <c r="M22" s="106"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="66">
+        <v>104064</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="74">
+        <v>46068</v>
+      </c>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74">
         <v>46093</v>
       </c>
-      <c r="M22" s="121"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
-        <v>44202</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="74">
-        <v>46064</v>
-      </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="74">
-        <v>46090</v>
-      </c>
-      <c r="M23" s="63"/>
+      <c r="M23" s="64"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="66">
-        <v>104033</v>
+      <c r="A24" s="28">
+        <v>115204</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="40"/>
+        <v>11</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="J24" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46064</v>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46069</v>
       </c>
       <c r="K24" s="76"/>
       <c r="L24" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46093</v>
       </c>
-      <c r="M24" s="33"/>
+      <c r="M24" s="48"/>
     </row>
     <row r="25" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
-        <v>236990</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="23"/>
+      <c r="A25" s="66">
+        <v>104033</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="40"/>
       <c r="J25" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46065</v>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46064</v>
       </c>
       <c r="K25" s="76"/>
       <c r="L25" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46089</v>
-      </c>
-      <c r="M25" s="64"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46093</v>
+      </c>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="66">
@@ -15739,173 +15719,176 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="66">
-        <v>104285</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="40"/>
+        <v>104166</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="38"/>
       <c r="J27" s="74">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="K27" s="85"/>
       <c r="L27" s="74">
         <v>46094</v>
       </c>
-      <c r="M27" s="121"/>
+      <c r="M27" s="112"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="66">
-        <v>104166</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="38"/>
+        <v>104285</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="40"/>
       <c r="J28" s="74">
-        <v>46066</v>
+        <v>46065</v>
       </c>
       <c r="K28" s="85"/>
       <c r="L28" s="74">
         <v>46094</v>
       </c>
-      <c r="M28" s="68"/>
+      <c r="M28" s="112"/>
     </row>
     <row r="29" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
-        <v>104165</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="23"/>
+      <c r="A29" s="66">
+        <v>104214</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="J29" s="74">
-        <v>46066</v>
-      </c>
-      <c r="K29" s="85"/>
+        <v>46073</v>
+      </c>
+      <c r="K29" s="82"/>
       <c r="L29" s="74">
-        <v>46104</v>
-      </c>
-      <c r="M29" s="98"/>
+        <v>46096</v>
+      </c>
+      <c r="M29" s="48"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66">
-        <v>104064</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="38" t="s">
-        <v>4</v>
-      </c>
+        <v>234218</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="40"/>
       <c r="J30" s="74">
-        <v>46068</v>
-      </c>
-      <c r="K30" s="74"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46061</v>
+      </c>
+      <c r="K30" s="76"/>
       <c r="L30" s="74">
-        <v>46093</v>
-      </c>
-      <c r="M30" s="64"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46096</v>
+      </c>
+      <c r="M30" s="104"/>
     </row>
     <row r="31" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
-        <v>118129</v>
-      </c>
-      <c r="B31" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="66">
+        <v>104066</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="21"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="35"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46072</v>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46069</v>
       </c>
       <c r="K31" s="76"/>
       <c r="L31" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M31" s="113"/>
+      <c r="M31" s="106"/>
       <c r="O31" s="52"/>
     </row>
     <row r="32" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66">
-        <v>134019</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="40" t="s">
-        <v>8</v>
-      </c>
+      <c r="A32" s="28">
+        <v>118129</v>
+      </c>
+      <c r="B32" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="74">
-        <v>46068</v>
-      </c>
-      <c r="K32" s="78">
-        <v>46069</v>
-      </c>
+        <v>46063</v>
+      </c>
+      <c r="K32" s="74"/>
       <c r="L32" s="74">
-        <v>46104</v>
-      </c>
-      <c r="M32" s="64"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46096</v>
+      </c>
+      <c r="M32" s="113"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
-        <v>314532</v>
+        <v>315037</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="24" t="s">
@@ -15917,68 +15900,64 @@
       <c r="H33" s="21"/>
       <c r="I33" s="23"/>
       <c r="J33" s="74">
-        <v>46069</v>
+        <v>46072</v>
       </c>
       <c r="K33" s="85"/>
       <c r="L33" s="74">
-        <v>46091</v>
-      </c>
-      <c r="M33" s="48"/>
+        <v>46097</v>
+      </c>
+      <c r="M33" s="33"/>
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66">
-        <v>104066</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>22</v>
+        <v>276011</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="E34" s="21"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="38"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="56" t="s">
+        <v>15</v>
+      </c>
       <c r="J34" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46069</v>
+        <v>46071</v>
       </c>
       <c r="K34" s="76"/>
       <c r="L34" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
-      </c>
-      <c r="M34" s="33"/>
+        <v>46098</v>
+      </c>
+      <c r="M34" s="48"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
-        <v>118122</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="95"/>
+      <c r="A35" s="66">
+        <v>234129</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="35"/>
       <c r="J35" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
-      </c>
-      <c r="K35" s="76"/>
+        <v>46071</v>
+      </c>
+      <c r="K35" s="85"/>
       <c r="L35" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M35" s="64"/>
+        <v>46098</v>
+      </c>
+      <c r="M35" s="48"/>
     </row>
     <row r="36" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
@@ -16003,324 +15982,328 @@
       <c r="H36" s="21"/>
       <c r="I36" s="23"/>
       <c r="J36" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46070</v>
       </c>
       <c r="K36" s="81"/>
       <c r="L36" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46098</v>
       </c>
       <c r="M36" s="75"/>
     </row>
     <row r="37" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66">
-        <v>276011</v>
+        <v>104295</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="56" t="s">
-        <v>15</v>
-      </c>
+      <c r="E37" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="38"/>
       <c r="J37" s="74">
-        <v>46071</v>
-      </c>
-      <c r="K37" s="76"/>
+        <v>46075</v>
+      </c>
+      <c r="K37" s="85"/>
       <c r="L37" s="74">
         <v>46098</v>
       </c>
-      <c r="M37" s="48"/>
+      <c r="M37" s="96"/>
     </row>
     <row r="38" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66">
-        <v>234129</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="35"/>
+      <c r="A38" s="58">
+        <v>84220</v>
+      </c>
+      <c r="B38" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="74">
-        <v>46071</v>
+        <v>46073</v>
       </c>
       <c r="K38" s="85"/>
       <c r="L38" s="74">
         <v>46098</v>
       </c>
-      <c r="M38" s="48"/>
+      <c r="M38" s="33"/>
     </row>
     <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
-        <v>315037</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="23"/>
+      <c r="A39" s="66">
+        <v>125001</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="J39" s="74">
-        <v>46072</v>
-      </c>
-      <c r="K39" s="85"/>
+        <v>46075</v>
+      </c>
+      <c r="K39" s="74"/>
       <c r="L39" s="74">
-        <v>46097</v>
-      </c>
-      <c r="M39" s="33"/>
+        <v>46099</v>
+      </c>
+      <c r="M39" s="75"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="66">
-        <v>44148</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="23"/>
+        <v>334274</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="J40" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46072</v>
-      </c>
-      <c r="K40" s="76"/>
+        <v>46077</v>
+      </c>
+      <c r="K40" s="74"/>
       <c r="L40" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M40" s="63"/>
+        <v>46099</v>
+      </c>
+      <c r="M40" s="48"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
-        <v>124107</v>
+      <c r="A41" s="66">
+        <v>234125</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="41"/>
+        <v>60</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="40"/>
       <c r="J41" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K41" s="76"/>
+        <v>46075</v>
+      </c>
+      <c r="K41" s="85"/>
       <c r="L41" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46106</v>
-      </c>
-      <c r="M41" s="48"/>
+        <v>46100</v>
+      </c>
+      <c r="M41" s="33"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="66">
-        <v>104214</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>8</v>
-      </c>
+        <v>44148</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="23"/>
       <c r="J42" s="74">
-        <v>46073</v>
-      </c>
-      <c r="K42" s="82"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46072</v>
+      </c>
+      <c r="K42" s="76"/>
       <c r="L42" s="74">
-        <v>46096</v>
-      </c>
-      <c r="M42" s="48"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M42" s="63"/>
     </row>
     <row r="43" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
-        <v>84220</v>
-      </c>
-      <c r="B43" s="92" t="s">
-        <v>102</v>
+        <v>314003</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="D43" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="E43" s="21"/>
-      <c r="F43" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="23"/>
       <c r="J43" s="74">
-        <v>46073</v>
-      </c>
-      <c r="K43" s="85"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46076</v>
+      </c>
+      <c r="K43" s="76"/>
       <c r="L43" s="74">
-        <v>46098</v>
-      </c>
-      <c r="M43" s="33"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M43" s="48"/>
     </row>
     <row r="44" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66">
-        <v>104295</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="38"/>
+      <c r="A44" s="28">
+        <v>118122</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="95"/>
       <c r="J44" s="74">
-        <v>46075</v>
-      </c>
-      <c r="K44" s="85"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
+      </c>
+      <c r="K44" s="76"/>
       <c r="L44" s="74">
-        <v>46098</v>
-      </c>
-      <c r="M44" s="98"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M44" s="64"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="66">
-        <v>125001</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="38" t="s">
-        <v>4</v>
-      </c>
+      <c r="A45" s="58">
+        <v>84913</v>
+      </c>
+      <c r="B45" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="23"/>
       <c r="J45" s="74">
-        <v>46075</v>
-      </c>
-      <c r="K45" s="74"/>
+        <v>46077</v>
+      </c>
+      <c r="K45" s="85"/>
       <c r="L45" s="74">
-        <v>46099</v>
-      </c>
-      <c r="M45" s="75"/>
+        <v>46100</v>
+      </c>
+      <c r="M45" s="33"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="66">
-        <v>234125</v>
+      <c r="A46" s="28">
+        <v>114101</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I46" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="J46" s="74">
-        <v>46075</v>
-      </c>
-      <c r="K46" s="85"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46078</v>
+      </c>
+      <c r="K46" s="76"/>
       <c r="L46" s="74">
-        <v>46100</v>
-      </c>
-      <c r="M46" s="124"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46103</v>
+      </c>
+      <c r="M46" s="112"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="58">
-        <v>314003</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="23"/>
+      <c r="A47" s="66">
+        <v>234114</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="38"/>
       <c r="J47" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46076</v>
       </c>
-      <c r="K47" s="76"/>
+      <c r="K47" s="85"/>
       <c r="L47" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M47" s="121"/>
+        <v>46103</v>
+      </c>
+      <c r="M47" s="68"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="66">
-        <v>234114</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>30</v>
+        <v>234117</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="G48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="15"/>
       <c r="I48" s="38"/>
       <c r="J48" s="74">
         <v>46076</v>
@@ -16329,514 +16312,514 @@
       <c r="L48" s="74">
         <v>46103</v>
       </c>
-      <c r="M48" s="68"/>
+      <c r="M48" s="106"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="66">
-        <v>234117</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="74">
-        <v>46076</v>
-      </c>
-      <c r="K49" s="85"/>
-      <c r="L49" s="74">
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="107">
+        <v>46068</v>
+      </c>
+      <c r="K49" s="79">
+        <v>46066</v>
+      </c>
+      <c r="L49" s="109">
         <v>46103</v>
       </c>
-      <c r="M49" s="67"/>
+      <c r="M49" s="106"/>
     </row>
-    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I50" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" s="108">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="66">
+        <v>134019</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="74">
         <v>46068</v>
       </c>
-      <c r="K50" s="107">
-        <v>46066</v>
-      </c>
-      <c r="L50" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="M50" s="124"/>
+      <c r="K50" s="78">
+        <v>46069</v>
+      </c>
+      <c r="L50" s="74">
+        <v>46104</v>
+      </c>
+      <c r="M50" s="111"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="58">
-        <v>104283</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="23"/>
+      <c r="A51" s="66">
+        <v>234292</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="40"/>
       <c r="J51" s="86">
-        <v>46076</v>
+        <v>46055</v>
       </c>
       <c r="K51" s="87"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="67"/>
+      <c r="L51" s="74">
+        <v>46104</v>
+      </c>
+      <c r="M51" s="106"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="66">
-        <v>334274</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="40" t="s">
-        <v>8</v>
-      </c>
+      <c r="A52" s="58">
+        <v>104165</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="23"/>
       <c r="J52" s="74">
-        <v>46077</v>
-      </c>
-      <c r="K52" s="74"/>
+        <v>46066</v>
+      </c>
+      <c r="K52" s="85"/>
       <c r="L52" s="74">
-        <v>46099</v>
-      </c>
-      <c r="M52" s="121"/>
+        <v>46104</v>
+      </c>
+      <c r="M52" s="103"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="58">
-        <v>84913</v>
-      </c>
-      <c r="B53" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="23"/>
+      <c r="A53" s="29">
+        <v>114074</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="J53" s="74">
-        <v>46077</v>
-      </c>
-      <c r="K53" s="85"/>
+        <v>46057</v>
+      </c>
+      <c r="K53" s="74"/>
       <c r="L53" s="74">
-        <v>46100</v>
-      </c>
-      <c r="M53" s="67"/>
+        <v>46105</v>
+      </c>
+      <c r="M53" s="111"/>
     </row>
     <row r="54" spans="1:15" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
-        <v>104134</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="38"/>
+      <c r="A54" s="58">
+        <v>334009</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="J54" s="74">
-        <v>46077</v>
-      </c>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
+        <v>46082</v>
+      </c>
+      <c r="K54" s="76"/>
+      <c r="L54" s="74">
+        <v>46105</v>
+      </c>
       <c r="M54" s="68"/>
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
-        <v>114101</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="41" t="s">
-        <v>15</v>
-      </c>
+      <c r="A55" s="58">
+        <v>104279</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="84">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46078</v>
       </c>
-      <c r="K55" s="97"/>
+      <c r="K55" s="87"/>
       <c r="L55" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46103</v>
-      </c>
-      <c r="M55" s="68"/>
+        <v>46105</v>
+      </c>
+      <c r="M55" s="69"/>
     </row>
     <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="58">
-        <v>104279</v>
+        <v>314006</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="D56" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="21"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="23"/>
       <c r="J56" s="86">
-        <v>46078</v>
+        <v>46082</v>
       </c>
       <c r="K56" s="87"/>
       <c r="L56" s="74">
         <v>46105</v>
       </c>
-      <c r="M56" s="69"/>
+      <c r="M56" s="68"/>
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="66">
-        <v>134058</v>
+        <v>84314</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="38" t="s">
-        <v>4</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="40"/>
       <c r="J57" s="74">
-        <v>46079</v>
-      </c>
-      <c r="K57" s="74"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K57" s="76"/>
       <c r="L57" s="74">
-        <v>46107</v>
-      </c>
-      <c r="M57" s="68"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46105</v>
+      </c>
+      <c r="M57" s="114"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="66">
-        <v>44137</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="21"/>
+        <v>94412</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="I58" s="23"/>
       <c r="J58" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46079</v>
-      </c>
-      <c r="K58" s="76"/>
+        <v>46082</v>
+      </c>
+      <c r="K58" s="85"/>
       <c r="L58" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46108</v>
-      </c>
-      <c r="M58" s="33"/>
+        <v>46106</v>
+      </c>
+      <c r="M58" s="48"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="28">
-        <v>116354</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="21"/>
+      <c r="A59" s="66">
+        <v>124108</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
       <c r="G59" s="24" t="s">
         <v>34</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I59" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J59" s="88">
-        <v>46076</v>
+      <c r="I59" s="35"/>
+      <c r="J59" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
       </c>
       <c r="K59" s="79"/>
-      <c r="L59" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="M59" s="112"/>
+      <c r="L59" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46106</v>
+      </c>
+      <c r="M59" s="106"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="58">
-        <v>334009</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="111" t="s">
-        <v>15</v>
-      </c>
+      <c r="A60" s="28">
+        <v>124107</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="102"/>
       <c r="J60" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
       <c r="K60" s="76"/>
       <c r="L60" s="74">
-        <v>46105</v>
-      </c>
-      <c r="M60" s="68"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46106</v>
+      </c>
+      <c r="M60" s="112"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="65">
-        <v>314006</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="A61" s="77">
+        <v>134058</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93" t="s">
+        <v>4</v>
+      </c>
       <c r="J61" s="74">
-        <v>46082</v>
-      </c>
-      <c r="K61" s="85"/>
+        <v>46079</v>
+      </c>
+      <c r="K61" s="74"/>
       <c r="L61" s="74">
-        <v>46105</v>
-      </c>
-      <c r="M61" s="68"/>
+        <v>46107</v>
+      </c>
+      <c r="M61" s="112"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="77">
-        <v>84314</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" s="45"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="40"/>
+        <v>234128</v>
+      </c>
+      <c r="B62" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="38"/>
       <c r="J62" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K62" s="76"/>
+      <c r="K62" s="80"/>
       <c r="L62" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46105</v>
-      </c>
-      <c r="M62" s="106"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46107</v>
+      </c>
+      <c r="M62" s="69"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="77">
-        <v>94412</v>
+        <v>44105</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I63" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="45"/>
+      <c r="I63" s="46" t="s">
+        <v>8</v>
+      </c>
       <c r="J63" s="84">
         <v>46082</v>
       </c>
-      <c r="K63" s="87"/>
+      <c r="K63" s="119"/>
       <c r="L63" s="74">
-        <v>46106</v>
-      </c>
-      <c r="M63" s="125"/>
+        <v>46108</v>
+      </c>
+      <c r="M63" s="121"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="77">
-        <v>124108</v>
-      </c>
-      <c r="B64" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" s="103"/>
+        <v>44137</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="36"/>
+      <c r="I64" s="65"/>
       <c r="J64" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K64" s="79"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46079</v>
+      </c>
+      <c r="K64" s="76"/>
       <c r="L64" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46106</v>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46108</v>
       </c>
       <c r="M64" s="53"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="77">
-        <v>234128</v>
-      </c>
-      <c r="B65" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K65" s="80"/>
-      <c r="L65" s="74">
-        <f>VLOOKUP(טבלה1[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46107</v>
+      <c r="A65" s="31">
+        <v>116354</v>
+      </c>
+      <c r="B65" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="J65" s="88">
+        <v>46076</v>
+      </c>
+      <c r="K65" s="79"/>
+      <c r="L65" s="78" t="s">
+        <v>121</v>
       </c>
       <c r="M65" s="83"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="77">
-        <v>44105</v>
-      </c>
-      <c r="B66" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="45"/>
-      <c r="I66" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="74">
-        <v>46082</v>
-      </c>
-      <c r="K66" s="78"/>
-      <c r="L66" s="74">
-        <v>46108</v>
-      </c>
-      <c r="M66" s="128"/>
+      <c r="A66" s="31">
+        <v>116029</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="44"/>
+      <c r="I66" s="100"/>
+      <c r="J66" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="K66" s="79"/>
+      <c r="L66" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="M66" s="54"/>
     </row>
     <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="65">
         <v>116041</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="105" t="s">
         <v>94</v>
       </c>
       <c r="C67" s="51" t="s">
@@ -16848,7 +16831,7 @@
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
       <c r="I67" s="50"/>
-      <c r="J67" s="78">
+      <c r="J67" s="88">
         <v>46079</v>
       </c>
       <c r="K67" s="79"/>
@@ -16859,24 +16842,20 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
-        <v>116029</v>
+        <v>116083</v>
       </c>
       <c r="B68" s="71" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C68" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="55"/>
-      <c r="E68" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="D68" s="62"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="36"/>
-      <c r="G68" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="44"/>
-      <c r="I68" s="104"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="78" t="s">
         <v>121</v>
       </c>
@@ -16884,49 +16863,53 @@
       <c r="L68" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="M68" s="54"/>
+      <c r="M68" s="53"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="31">
-        <v>116083</v>
-      </c>
-      <c r="B69" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="K69" s="79"/>
-      <c r="L69" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="M69" s="53"/>
+      <c r="A69" s="66">
+        <v>337403</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="K69" s="76"/>
+      <c r="L69" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="M69" s="54"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="77">
-        <v>337403</v>
+      <c r="A70" s="73">
+        <v>324033</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
+      <c r="D70" s="51"/>
       <c r="E70" s="21"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="96" t="s">
-        <v>15</v>
-      </c>
+      <c r="F70" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="50"/>
       <c r="J70" s="78" t="s">
         <v>120</v>
       </c>
@@ -16937,25 +16920,21 @@
       <c r="M70" s="54"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="73">
-        <v>324033</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>68</v>
+      <c r="A71" s="77">
+        <v>104000</v>
+      </c>
+      <c r="B71" s="71" t="s">
+        <v>100</v>
       </c>
       <c r="C71" s="36"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I71" s="50"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="36"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="94"/>
       <c r="J71" s="78" t="s">
         <v>120</v>
       </c>
@@ -16963,24 +16942,24 @@
       <c r="L71" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M71" s="54"/>
+      <c r="M71" s="53"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="77">
-        <v>104000</v>
-      </c>
-      <c r="B72" s="71" t="s">
-        <v>100</v>
+      <c r="A72" s="65">
+        <v>104192</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>122</v>
       </c>
       <c r="C72" s="36"/>
       <c r="D72" s="36"/>
-      <c r="E72" s="15" t="s">
-        <v>49</v>
+      <c r="E72" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="F72" s="36"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="94"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="50"/>
       <c r="J72" s="78" t="s">
         <v>120</v>
       </c>
@@ -16988,24 +16967,24 @@
       <c r="L72" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="53"/>
+      <c r="M72" s="98"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="58">
-        <v>104192</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="A73" s="65">
+        <v>104276</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="23"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="50"/>
       <c r="J73" s="78" t="s">
         <v>120</v>
       </c>
@@ -17013,24 +16992,24 @@
       <c r="L73" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="101"/>
+      <c r="M73" s="53"/>
     </row>
     <row r="74" spans="1:15" s="32" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="65">
-        <v>104276</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="50"/>
+      <c r="A74" s="117">
+        <v>117006</v>
+      </c>
+      <c r="B74" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="23"/>
       <c r="J74" s="78" t="s">
         <v>120</v>
       </c>
@@ -17038,7 +17017,7 @@
       <c r="L74" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M74" s="127"/>
+      <c r="M74" s="57"/>
       <c r="N74" s="61"/>
       <c r="O74" s="60"/>
     </row>
@@ -17065,57 +17044,57 @@
       <c r="L75" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M75" s="126"/>
+      <c r="M75" s="120"/>
     </row>
-    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="114">
-        <v>117006</v>
-      </c>
-      <c r="B76" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="K76" s="76"/>
-      <c r="L76" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="M76" s="110"/>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="31">
+        <v>104134</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" s="94"/>
+      <c r="J76" s="74">
+        <v>46077</v>
+      </c>
+      <c r="K76" s="85"/>
+      <c r="L76" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="M76" s="112"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="77">
-        <v>334011</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="21"/>
+      <c r="A77" s="116">
+        <v>104283</v>
+      </c>
+      <c r="B77" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="36"/>
       <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
+      <c r="E77" s="55" t="s">
+        <v>13</v>
+      </c>
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="119"/>
-      <c r="K77" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="L77" s="120">
-        <v>46090</v>
-      </c>
-      <c r="M77" s="121"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="74">
+        <v>46076</v>
+      </c>
+      <c r="K77" s="85"/>
+      <c r="L77" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="M77" s="67"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6716D2-AC70-4BDC-AB03-8206DE15A857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF415366-750E-43FA-AE14-82EC394BEFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73620" yWindow="2205" windowWidth="29670" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69690" yWindow="2970" windowWidth="29670" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="סמסטר חורף" sheetId="1" r:id="rId1"/>
@@ -14878,7 +14878,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16451,7 +16451,7 @@
       </c>
       <c r="K53" s="74"/>
       <c r="L53" s="74">
-        <v>46105</v>
+        <v>46100</v>
       </c>
       <c r="M53" s="111"/>
     </row>

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF415366-750E-43FA-AE14-82EC394BEFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543C59BC-189A-4FB4-9FAD-FE9154A55259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="69690" yWindow="2970" windowWidth="29670" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1157,10 +1157,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1176,10 +1176,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1213,22 +1216,25 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14878,7 +14884,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14975,59 +14981,51 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>116217</v>
+      <c r="A3" s="66">
+        <v>236343</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="35" t="s">
-        <v>90</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="35"/>
       <c r="J3" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46057</v>
+        <v>46056</v>
       </c>
       <c r="K3" s="76"/>
       <c r="L3" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="107"/>
       <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66">
-        <v>236343</v>
+        <v>84312</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46056</v>
@@ -15037,27 +15035,35 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M4" s="106"/>
+      <c r="M4" s="115"/>
       <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66">
-        <v>104222</v>
+      <c r="A5" s="30">
+        <v>116217</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="J5" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46057</v>
@@ -15067,37 +15073,37 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="64"/>
       <c r="O5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66">
-        <v>84312</v>
+        <v>104222</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="18"/>
       <c r="H6" s="22"/>
       <c r="I6" s="40"/>
       <c r="J6" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="K6" s="76"/>
       <c r="L6" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M6" s="97"/>
+      <c r="M6" s="75"/>
       <c r="O6" s="32" t="s">
         <v>112</v>
       </c>
@@ -15138,56 +15144,56 @@
       <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
-        <v>104195</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>50</v>
+      <c r="A8" s="58">
+        <v>104112</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="38"/>
+      <c r="E8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="74">
-        <v>46063</v>
+        <v>46058</v>
       </c>
       <c r="K8" s="85"/>
       <c r="L8" s="74">
         <v>46087</v>
       </c>
-      <c r="M8" s="48"/>
+      <c r="M8" s="33"/>
       <c r="R8"/>
       <c r="S8"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
-        <v>104112</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>107</v>
+      <c r="A9" s="66">
+        <v>104195</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="23"/>
+      <c r="E9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="74">
-        <v>46058</v>
+        <v>46063</v>
       </c>
       <c r="K9" s="85"/>
       <c r="L9" s="74">
         <v>46087</v>
       </c>
-      <c r="M9" s="33"/>
+      <c r="M9" s="48"/>
       <c r="R9"/>
       <c r="S9"/>
     </row>
@@ -15224,60 +15230,60 @@
       <c r="S10"/>
     </row>
     <row r="11" spans="1:19" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
-        <v>104042</v>
+      <c r="A11" s="28">
+        <v>114086</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="38" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>8</v>
       </c>
       <c r="J11" s="74">
-        <v>46062</v>
-      </c>
-      <c r="K11" s="74"/>
+        <v>46055</v>
+      </c>
+      <c r="K11" s="78"/>
       <c r="L11" s="74">
-        <v>46090</v>
-      </c>
-      <c r="M11" s="112"/>
+        <v>46093</v>
+      </c>
+      <c r="M11" s="113"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>114086</v>
+      <c r="A12" s="58">
+        <v>104042</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>8</v>
+        <v>116</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="38" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="84">
-        <v>46055</v>
-      </c>
-      <c r="K12" s="78"/>
+        <v>46062</v>
+      </c>
+      <c r="K12" s="74"/>
       <c r="L12" s="74">
         <v>46090</v>
       </c>
@@ -15285,205 +15291,205 @@
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66">
-        <v>334011</v>
+        <v>104012</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="76" t="s">
-        <v>123</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="74">
+        <v>46063</v>
+      </c>
+      <c r="K13" s="85"/>
       <c r="L13" s="74">
         <v>46090</v>
       </c>
-      <c r="M13" s="48"/>
+      <c r="M13" s="64"/>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
-        <v>104012</v>
+      <c r="A14" s="28">
+        <v>104122</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="38"/>
+        <v>54</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K14" s="85"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M14" s="64"/>
+      <c r="M14" s="97"/>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="66">
-        <v>44202</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="41"/>
+    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58">
+        <v>315052</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="74">
-        <v>46064</v>
-      </c>
-      <c r="K15" s="85"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46063</v>
+      </c>
+      <c r="K15" s="76"/>
       <c r="L15" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M15" s="63"/>
+      <c r="M15" s="48"/>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
-        <v>104122</v>
+      <c r="A16" s="66">
+        <v>44202</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20" t="s">
-        <v>13</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="40"/>
+      <c r="G16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="70"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K16" s="76"/>
+        <v>46064</v>
+      </c>
+      <c r="K16" s="85"/>
       <c r="L16" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M16" s="96"/>
+      <c r="M16" s="63"/>
     </row>
     <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
-        <v>315052</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>75</v>
+      <c r="A17" s="66">
+        <v>334011</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K17" s="76"/>
+      <c r="I17" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="74"/>
+      <c r="K17" s="76" t="s">
+        <v>123</v>
+      </c>
       <c r="L17" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M17" s="68"/>
+      <c r="M17" s="113"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
+      <c r="A18" s="66">
+        <v>104031</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="84">
+        <v>46062</v>
+      </c>
+      <c r="K18" s="85"/>
+      <c r="L18" s="84">
+        <v>46091</v>
+      </c>
+      <c r="M18" s="113"/>
+      <c r="T18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
         <v>104220</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B19" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I19" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="84">
+      <c r="J19" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
         <v>46063</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K19" s="82">
         <v>46062</v>
       </c>
-      <c r="L18" s="84">
-        <v>46091</v>
-      </c>
-      <c r="M18" s="115"/>
-      <c r="T18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="66">
-        <v>104031</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="74">
-        <v>46062</v>
-      </c>
-      <c r="K19" s="85"/>
       <c r="L19" s="74">
         <v>46091</v>
       </c>
-      <c r="M19" s="112"/>
+      <c r="M19" s="116"/>
       <c r="O19" s="5"/>
       <c r="T19" t="s">
         <v>125</v>
@@ -15499,29 +15505,31 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
-        <v>314532</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="23"/>
+      <c r="A20" s="66">
+        <v>84738</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="74">
-        <v>46069</v>
-      </c>
-      <c r="K20" s="85"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46063</v>
+      </c>
+      <c r="K20" s="76"/>
       <c r="L20" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46091</v>
       </c>
-      <c r="M20" s="68"/>
+      <c r="M20" s="107"/>
       <c r="T20" t="s">
         <v>129</v>
       </c>
@@ -15536,31 +15544,29 @@
       </c>
     </row>
     <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66">
-        <v>84738</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="40"/>
+      <c r="A21" s="58">
+        <v>314532</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K21" s="76"/>
+        <v>46069</v>
+      </c>
+      <c r="K21" s="85"/>
       <c r="L21" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46091</v>
       </c>
-      <c r="M21" s="106"/>
+      <c r="M21" s="113"/>
       <c r="T21" t="s">
         <v>131</v>
       </c>
@@ -15591,243 +15597,234 @@
       <c r="L22" s="74">
         <v>46091</v>
       </c>
-      <c r="M22" s="106"/>
+      <c r="M22" s="107"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="66">
-        <v>104064</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="38" t="s">
-        <v>4</v>
-      </c>
+        <v>104033</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="40"/>
       <c r="J23" s="74">
-        <v>46068</v>
-      </c>
-      <c r="K23" s="74"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46064</v>
+      </c>
+      <c r="K23" s="76"/>
       <c r="L23" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46093</v>
       </c>
-      <c r="M23" s="64"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <v>115204</v>
+      <c r="A24" s="66">
+        <v>44268</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>15</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46069</v>
-      </c>
-      <c r="K24" s="76"/>
+        <v>46065</v>
+      </c>
+      <c r="K24" s="85"/>
       <c r="L24" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46093</v>
       </c>
-      <c r="M24" s="48"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66">
-        <v>104033</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="40"/>
+        <v>104064</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="J25" s="74">
+        <v>46068</v>
+      </c>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74">
+        <v>46093</v>
+      </c>
+      <c r="M25" s="64"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>115204</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46064</v>
-      </c>
-      <c r="K25" s="76"/>
-      <c r="L25" s="74">
+        <v>46069</v>
+      </c>
+      <c r="K26" s="76"/>
+      <c r="L26" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46093</v>
       </c>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="66">
-        <v>44268</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="74">
-        <v>46065</v>
-      </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="74">
-        <v>46093</v>
-      </c>
-      <c r="M26" s="33"/>
+      <c r="M26" s="48"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="66">
-        <v>104166</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="38"/>
+        <v>104285</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="74">
-        <v>46066</v>
+        <v>46065</v>
       </c>
       <c r="K27" s="85"/>
       <c r="L27" s="74">
         <v>46094</v>
       </c>
-      <c r="M27" s="112"/>
+      <c r="M27" s="113"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="66">
-        <v>104285</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="40"/>
+        <v>104166</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="38"/>
       <c r="J28" s="74">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="K28" s="85"/>
       <c r="L28" s="74">
         <v>46094</v>
       </c>
-      <c r="M28" s="112"/>
+      <c r="M28" s="113"/>
     </row>
     <row r="29" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66">
-        <v>104214</v>
+        <v>234218</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>72</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>8</v>
-      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="40"/>
       <c r="J29" s="74">
-        <v>46073</v>
-      </c>
-      <c r="K29" s="82"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46061</v>
+      </c>
+      <c r="K29" s="76"/>
       <c r="L29" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M29" s="48"/>
+      <c r="M29" s="103"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66">
-        <v>234218</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="40"/>
+      <c r="A30" s="28">
+        <v>118129</v>
+      </c>
+      <c r="B30" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46061</v>
-      </c>
-      <c r="K30" s="76"/>
+        <v>46063</v>
+      </c>
+      <c r="K30" s="74"/>
       <c r="L30" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M30" s="104"/>
+      <c r="M30" s="114"/>
     </row>
     <row r="31" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66">
@@ -15854,34 +15851,43 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M31" s="106"/>
+      <c r="M31" s="107"/>
       <c r="O31" s="52"/>
     </row>
     <row r="32" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
-        <v>118129</v>
-      </c>
-      <c r="B32" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="35"/>
+      <c r="A32" s="66">
+        <v>104214</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="J32" s="74">
-        <v>46063</v>
-      </c>
-      <c r="K32" s="74"/>
+        <v>46073</v>
+      </c>
+      <c r="K32" s="82"/>
       <c r="L32" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M32" s="113"/>
+      <c r="M32" s="48"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
@@ -15910,137 +15916,137 @@
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66">
-        <v>276011</v>
+      <c r="A34" s="28">
+        <v>104034</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="H34" s="21"/>
-      <c r="I34" s="56" t="s">
-        <v>15</v>
-      </c>
+      <c r="I34" s="23"/>
       <c r="J34" s="74">
-        <v>46071</v>
-      </c>
-      <c r="K34" s="76"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46070</v>
+      </c>
+      <c r="K34" s="81"/>
       <c r="L34" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46098</v>
       </c>
-      <c r="M34" s="48"/>
+      <c r="M34" s="75"/>
     </row>
     <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66">
-        <v>234129</v>
+        <v>276011</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="56" t="s">
+        <v>15</v>
+      </c>
       <c r="J35" s="74">
         <v>46071</v>
       </c>
-      <c r="K35" s="85"/>
+      <c r="K35" s="76"/>
       <c r="L35" s="74">
         <v>46098</v>
       </c>
       <c r="M35" s="48"/>
     </row>
     <row r="36" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
-        <v>104034</v>
+      <c r="A36" s="66">
+        <v>234129</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="35"/>
       <c r="J36" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46070</v>
-      </c>
-      <c r="K36" s="81"/>
+        <v>46071</v>
+      </c>
+      <c r="K36" s="85"/>
       <c r="L36" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46098</v>
       </c>
-      <c r="M36" s="75"/>
+      <c r="M36" s="48"/>
     </row>
     <row r="37" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66">
-        <v>104295</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>51</v>
+      <c r="A37" s="58">
+        <v>84220</v>
+      </c>
+      <c r="B37" s="92" t="s">
+        <v>102</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="38"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="74">
-        <v>46075</v>
+        <v>46073</v>
       </c>
       <c r="K37" s="85"/>
       <c r="L37" s="74">
         <v>46098</v>
       </c>
-      <c r="M37" s="96"/>
+      <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58">
-        <v>84220</v>
-      </c>
-      <c r="B38" s="92" t="s">
-        <v>102</v>
+      <c r="A38" s="66">
+        <v>104295</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="23"/>
+      <c r="E38" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="74">
-        <v>46073</v>
+        <v>46075</v>
       </c>
       <c r="K38" s="85"/>
       <c r="L38" s="74">
         <v>46098</v>
       </c>
-      <c r="M38" s="33"/>
+      <c r="M38" s="97"/>
     </row>
     <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="66">
@@ -16095,215 +16101,215 @@
       <c r="M40" s="48"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66">
-        <v>234125</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="40"/>
+      <c r="A41" s="28">
+        <v>118122</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="95"/>
       <c r="J41" s="74">
-        <v>46075</v>
-      </c>
-      <c r="K41" s="85"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
+      </c>
+      <c r="K41" s="76"/>
       <c r="L41" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46100</v>
       </c>
-      <c r="M41" s="33"/>
+      <c r="M41" s="64"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66">
+      <c r="A42" s="29">
+        <v>114074</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="74">
+        <v>46057</v>
+      </c>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74">
+        <v>46100</v>
+      </c>
+      <c r="M42" s="64"/>
+    </row>
+    <row r="43" spans="1:16" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="66">
         <v>44148</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B43" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46072</v>
-      </c>
-      <c r="K42" s="76"/>
-      <c r="L42" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M42" s="63"/>
-    </row>
-    <row r="43" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58">
-        <v>314003</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>76</v>
-      </c>
       <c r="C43" s="21"/>
-      <c r="D43" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" s="21"/>
       <c r="I43" s="23"/>
       <c r="J43" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46076</v>
+        <v>46072</v>
       </c>
       <c r="K43" s="76"/>
       <c r="L43" s="74">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46100</v>
       </c>
-      <c r="M43" s="48"/>
+      <c r="M43" s="63"/>
     </row>
     <row r="44" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
-        <v>118122</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="95"/>
+      <c r="A44" s="66">
+        <v>234125</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="40"/>
       <c r="J44" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
-      </c>
-      <c r="K44" s="76"/>
+        <v>46075</v>
+      </c>
+      <c r="K44" s="85"/>
       <c r="L44" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46100</v>
       </c>
-      <c r="M44" s="64"/>
+      <c r="M44" s="33"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
-        <v>84913</v>
-      </c>
-      <c r="B45" s="92" t="s">
-        <v>103</v>
+        <v>314003</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="D45" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="E45" s="21"/>
-      <c r="F45" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
       <c r="I45" s="23"/>
       <c r="J45" s="74">
-        <v>46077</v>
-      </c>
-      <c r="K45" s="85"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46076</v>
+      </c>
+      <c r="K45" s="76"/>
       <c r="L45" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46100</v>
       </c>
-      <c r="M45" s="33"/>
+      <c r="M45" s="48"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
-        <v>114101</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="41" t="s">
-        <v>15</v>
-      </c>
+      <c r="A46" s="58">
+        <v>84913</v>
+      </c>
+      <c r="B46" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46078</v>
-      </c>
-      <c r="K46" s="76"/>
+        <v>46077</v>
+      </c>
+      <c r="K46" s="85"/>
       <c r="L46" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M46" s="107"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="108">
+        <v>46068</v>
+      </c>
+      <c r="K47" s="79">
+        <v>46066</v>
+      </c>
+      <c r="L47" s="110">
         <v>46103</v>
       </c>
-      <c r="M46" s="112"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="66">
-        <v>234114</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="74">
-        <v>46076</v>
-      </c>
-      <c r="K47" s="85"/>
-      <c r="L47" s="74">
-        <v>46103</v>
-      </c>
-      <c r="M47" s="68"/>
+      <c r="M47" s="107"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="66">
-        <v>234117</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>55</v>
+        <v>234114</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="I48" s="38"/>
       <c r="J48" s="74">
         <v>46076</v>
@@ -16312,61 +16318,71 @@
       <c r="L48" s="74">
         <v>46103</v>
       </c>
-      <c r="M48" s="106"/>
+      <c r="M48" s="68"/>
     </row>
-    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="107">
-        <v>46068</v>
-      </c>
-      <c r="K49" s="79">
-        <v>46066</v>
-      </c>
-      <c r="L49" s="109">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="66">
+        <v>234117</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="74">
+        <v>46076</v>
+      </c>
+      <c r="K49" s="85"/>
+      <c r="L49" s="74">
         <v>46103</v>
       </c>
-      <c r="M49" s="106"/>
+      <c r="M49" s="107"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="66">
-        <v>134019</v>
+      <c r="A50" s="28">
+        <v>114101</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="40" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="J50" s="74">
-        <v>46068</v>
-      </c>
-      <c r="K50" s="78">
-        <v>46069</v>
-      </c>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46078</v>
+      </c>
+      <c r="K50" s="76"/>
       <c r="L50" s="74">
-        <v>46104</v>
-      </c>
-      <c r="M50" s="111"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46103</v>
+      </c>
+      <c r="M50" s="113"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="66">
@@ -16391,7 +16407,7 @@
       <c r="L51" s="74">
         <v>46104</v>
       </c>
-      <c r="M51" s="106"/>
+      <c r="M51" s="107"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="58">
@@ -16416,94 +16432,84 @@
       <c r="L52" s="74">
         <v>46104</v>
       </c>
-      <c r="M52" s="103"/>
+      <c r="M52" s="121"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="29">
-        <v>114074</v>
+      <c r="A53" s="66">
+        <v>134019</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="J53" s="74">
-        <v>46057</v>
-      </c>
-      <c r="K53" s="74"/>
+        <v>46068</v>
+      </c>
+      <c r="K53" s="78">
+        <v>46069</v>
+      </c>
       <c r="L53" s="74">
-        <v>46100</v>
-      </c>
-      <c r="M53" s="111"/>
+        <v>46104</v>
+      </c>
+      <c r="M53" s="112"/>
     </row>
     <row r="54" spans="1:15" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="58">
-        <v>334009</v>
+        <v>104279</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
-      <c r="I54" s="41" t="s">
-        <v>15</v>
-      </c>
+      <c r="I54" s="23"/>
       <c r="J54" s="74">
-        <v>46082</v>
-      </c>
-      <c r="K54" s="76"/>
+        <v>46078</v>
+      </c>
+      <c r="K54" s="85"/>
       <c r="L54" s="74">
         <v>46105</v>
       </c>
-      <c r="M54" s="68"/>
+      <c r="M54" s="69"/>
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="58">
-        <v>104279</v>
+        <v>334009</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
-      <c r="I55" s="23"/>
+      <c r="I55" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="J55" s="84">
-        <v>46078</v>
-      </c>
-      <c r="K55" s="87"/>
+        <v>46082</v>
+      </c>
+      <c r="K55" s="96"/>
       <c r="L55" s="74">
         <v>46105</v>
       </c>
-      <c r="M55" s="69"/>
+      <c r="M55" s="68"/>
     </row>
     <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="58">
@@ -16556,7 +16562,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46105</v>
       </c>
-      <c r="M57" s="114"/>
+      <c r="M57" s="115"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="66">
@@ -16610,7 +16616,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46106</v>
       </c>
-      <c r="M59" s="106"/>
+      <c r="M59" s="107"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
@@ -16637,7 +16643,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46106</v>
       </c>
-      <c r="M60" s="112"/>
+      <c r="M60" s="113"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="77">
@@ -16662,7 +16668,7 @@
       <c r="L61" s="74">
         <v>46107</v>
       </c>
-      <c r="M61" s="112"/>
+      <c r="M61" s="113"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="77">
@@ -16695,61 +16701,61 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46107</v>
       </c>
-      <c r="M62" s="69"/>
+      <c r="M62" s="112"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="77">
-        <v>44105</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="45"/>
-      <c r="I63" s="46" t="s">
-        <v>8</v>
-      </c>
+        <v>44137</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="36"/>
+      <c r="I63" s="50"/>
       <c r="J63" s="84">
-        <v>46082</v>
-      </c>
-      <c r="K63" s="119"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46079</v>
+      </c>
+      <c r="K63" s="96"/>
       <c r="L63" s="74">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46108</v>
       </c>
-      <c r="M63" s="121"/>
+      <c r="M63" s="105"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="77">
-        <v>44137</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="65"/>
+        <v>44105</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="45"/>
+      <c r="I64" s="123" t="s">
+        <v>8</v>
+      </c>
       <c r="J64" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46079</v>
-      </c>
-      <c r="K64" s="76"/>
+        <v>46082</v>
+      </c>
+      <c r="K64" s="78"/>
       <c r="L64" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46108</v>
       </c>
-      <c r="M64" s="53"/>
+      <c r="M64" s="104"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="31">
@@ -16787,58 +16793,58 @@
       <c r="M65" s="83"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="31">
-        <v>116029</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>88</v>
+      <c r="A66" s="65">
+        <v>116041</v>
+      </c>
+      <c r="B66" s="106" t="s">
+        <v>94</v>
       </c>
       <c r="C66" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55" t="s">
-        <v>13</v>
-      </c>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="21"/>
-      <c r="G66" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="44"/>
-      <c r="I66" s="100"/>
-      <c r="J66" s="78" t="s">
-        <v>121</v>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="88">
+        <v>46079</v>
       </c>
       <c r="K66" s="79"/>
       <c r="L66" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="M66" s="54"/>
+      <c r="M66" s="53"/>
     </row>
     <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="65">
-        <v>116041</v>
-      </c>
-      <c r="B67" s="105" t="s">
-        <v>94</v>
+      <c r="A67" s="31">
+        <v>116029</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>88</v>
       </c>
       <c r="C67" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="21"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="88">
-        <v>46079</v>
+      <c r="G67" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="44"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="78" t="s">
+        <v>121</v>
       </c>
       <c r="K67" s="79"/>
       <c r="L67" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="M67" s="53"/>
+      <c r="M67" s="54"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
@@ -16881,11 +16887,11 @@
       <c r="I69" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="108" t="s">
+      <c r="J69" s="109" t="s">
         <v>120</v>
       </c>
       <c r="K69" s="76"/>
-      <c r="L69" s="110" t="s">
+      <c r="L69" s="111" t="s">
         <v>120</v>
       </c>
       <c r="M69" s="54"/>
@@ -17044,57 +17050,57 @@
       <c r="L75" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M75" s="120"/>
+      <c r="M75" s="119"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="31">
-        <v>104134</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="93"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I76" s="94"/>
+      <c r="A76" s="65">
+        <v>104283</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="50"/>
       <c r="J76" s="74">
-        <v>46077</v>
+        <v>46076</v>
       </c>
       <c r="K76" s="85"/>
       <c r="L76" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="M76" s="112"/>
+      <c r="M76" s="67"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="116">
-        <v>104283</v>
-      </c>
-      <c r="B77" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="50"/>
+      <c r="A77" s="122">
+        <v>104134</v>
+      </c>
+      <c r="B77" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="94"/>
       <c r="J77" s="74">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="K77" s="85"/>
       <c r="L77" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="M77" s="67"/>
+      <c r="M77" s="113"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543C59BC-189A-4FB4-9FAD-FE9154A55259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED50C25-E3CD-4242-8162-54A5B36855B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="69690" yWindow="2970" windowWidth="29670" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="K11" s="78"/>
       <c r="L11" s="74">
-        <v>46093</v>
+        <v>46090</v>
       </c>
       <c r="M11" s="113"/>
     </row>

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED50C25-E3CD-4242-8162-54A5B36855B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765F1F6-FAB1-43DA-9E2C-3C563D2C701C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="69690" yWindow="2970" windowWidth="29670" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1044,9 +1044,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,9 +1084,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,16 +1151,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,14 +1179,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1207,34 +1219,31 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14597,7 +14606,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D55DB98B-67EC-4AC3-87E3-56FDBEEEA350}" name="טבלה13" displayName="טבלה13" ref="A1:M77" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M77" xr:uid="{D55DB98B-67EC-4AC3-87E3-56FDBEEEA350}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M77">
-    <sortCondition ref="L1:L77"/>
+    <sortCondition ref="J1:J77"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{85D29950-44C3-49A5-852E-E80B2576A63B}" name="מספר" dataDxfId="12"/>
@@ -14884,7 +14893,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14951,7 +14960,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66">
+      <c r="A2" s="65">
         <v>134113</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -14959,270 +14968,282 @@
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="74">
+      <c r="J2" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46055</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="74">
+      <c r="K2" s="74"/>
+      <c r="L2" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M2" s="101"/>
+      <c r="M2" s="102"/>
       <c r="O2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
+      <c r="A3" s="28">
+        <v>114086</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="72">
+        <v>46055</v>
+      </c>
+      <c r="K3" s="76"/>
+      <c r="L3" s="72">
+        <v>46090</v>
+      </c>
+      <c r="M3" s="117"/>
+      <c r="O3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65">
+        <v>234292</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="72">
+        <v>46055</v>
+      </c>
+      <c r="K4" s="83"/>
+      <c r="L4" s="72">
+        <v>46104</v>
+      </c>
+      <c r="M4" s="111"/>
+      <c r="O4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65">
         <v>236343</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="74">
+      <c r="I5" s="35"/>
+      <c r="J5" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46056</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="74">
+      <c r="K5" s="74"/>
+      <c r="L5" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M3" s="107"/>
-      <c r="O3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66">
-        <v>84312</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
-      </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46086</v>
-      </c>
-      <c r="M4" s="115"/>
-      <c r="O4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
-        <v>116217</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46057</v>
-      </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46086</v>
-      </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="33"/>
       <c r="O5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66">
-        <v>104222</v>
+      <c r="A6" s="65">
+        <v>84312</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="22"/>
       <c r="I6" s="40"/>
-      <c r="J6" s="74">
+      <c r="J6" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46057</v>
-      </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="74">
+        <v>46056</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M6" s="75"/>
+      <c r="M6" s="97"/>
       <c r="O6" s="32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
-        <v>104215</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="74">
-        <v>46058</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="74">
-        <v>46087</v>
-      </c>
-      <c r="M7" s="64"/>
+        <v>118122</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
-        <v>104112</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="30">
+        <v>116217</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="E8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="74">
-        <v>46058</v>
-      </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="74">
-        <v>46087</v>
-      </c>
-      <c r="M8" s="33"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46057</v>
+      </c>
+      <c r="K8" s="74"/>
+      <c r="L8" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46086</v>
+      </c>
+      <c r="M8" s="63"/>
       <c r="R8"/>
       <c r="S8"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
-        <v>104195</v>
+      <c r="A9" s="65">
+        <v>104222</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="74">
-        <v>46063</v>
-      </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="74">
-        <v>46087</v>
-      </c>
-      <c r="M9" s="48"/>
+        <v>53</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46057</v>
+      </c>
+      <c r="K9" s="74"/>
+      <c r="L9" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46086</v>
+      </c>
+      <c r="M9" s="73"/>
       <c r="R9"/>
       <c r="S9"/>
     </row>
     <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <v>236990</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46065</v>
-      </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46089</v>
-      </c>
-      <c r="M10" s="64"/>
+      <c r="A10" s="29">
+        <v>114074</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="72">
+        <v>46057</v>
+      </c>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72">
+        <v>46100</v>
+      </c>
+      <c r="M10" s="63"/>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
@@ -15231,10 +15252,10 @@
     </row>
     <row r="11" spans="1:19" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
-        <v>114086</v>
+        <v>104215</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>6</v>
@@ -15242,254 +15263,243 @@
       <c r="D11" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="21"/>
       <c r="F11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="74">
-        <v>46055</v>
-      </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="74">
-        <v>46090</v>
-      </c>
-      <c r="M11" s="113"/>
+      <c r="J11" s="72">
+        <v>46058</v>
+      </c>
+      <c r="K11" s="76"/>
+      <c r="L11" s="72">
+        <v>46087</v>
+      </c>
+      <c r="M11" s="116"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
-        <v>104042</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>116</v>
+      <c r="A12" s="57">
+        <v>104112</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="84">
-        <v>46062</v>
-      </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74">
-        <v>46090</v>
-      </c>
-      <c r="M12" s="48"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="82">
+        <v>46058</v>
+      </c>
+      <c r="K12" s="83"/>
+      <c r="L12" s="72">
+        <v>46087</v>
+      </c>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
-        <v>104012</v>
+      <c r="A13" s="65">
+        <v>234218</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="74">
-        <v>46063</v>
-      </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="74">
-        <v>46090</v>
-      </c>
-      <c r="M13" s="64"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46061</v>
+      </c>
+      <c r="K13" s="74"/>
+      <c r="L13" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46096</v>
+      </c>
+      <c r="M13" s="106"/>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <v>104122</v>
+      <c r="A14" s="57">
+        <v>104042</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="72">
+        <v>46062</v>
+      </c>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72">
         <v>46090</v>
       </c>
-      <c r="M14" s="97"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
-        <v>315052</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>75</v>
+      <c r="A15" s="65">
+        <v>104031</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="H15" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="I15" s="23"/>
-      <c r="J15" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K15" s="76"/>
-      <c r="L15" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46090</v>
+      <c r="J15" s="72">
+        <v>46062</v>
+      </c>
+      <c r="K15" s="83"/>
+      <c r="L15" s="72">
+        <v>46091</v>
       </c>
       <c r="M15" s="48"/>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66">
-        <v>44202</v>
+      <c r="A16" s="65">
+        <v>104195</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="74">
-        <v>46064</v>
-      </c>
-      <c r="K16" s="85"/>
-      <c r="L16" s="74">
-        <v>46090</v>
-      </c>
-      <c r="M16" s="63"/>
+        <v>50</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="72">
+        <v>46063</v>
+      </c>
+      <c r="K16" s="83"/>
+      <c r="L16" s="72">
+        <v>46087</v>
+      </c>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66">
-        <v>334011</v>
+      <c r="A17" s="65">
+        <v>104012</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="74">
+        <v>95</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="72">
+        <v>46063</v>
+      </c>
+      <c r="K17" s="83"/>
+      <c r="L17" s="72">
         <v>46090</v>
       </c>
-      <c r="M17" s="113"/>
+      <c r="M17" s="116"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="66">
-        <v>104031</v>
+      <c r="A18" s="28">
+        <v>104122</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="84">
-        <v>46062</v>
-      </c>
-      <c r="K18" s="85"/>
-      <c r="L18" s="84">
-        <v>46091</v>
-      </c>
-      <c r="M18" s="113"/>
+        <v>54</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="82">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46063</v>
+      </c>
+      <c r="K18" s="74"/>
+      <c r="L18" s="82">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46090</v>
+      </c>
+      <c r="M18" s="124"/>
       <c r="T18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>104220</v>
+      <c r="A19" s="57">
+        <v>315052</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K19" s="82">
-        <v>46062</v>
-      </c>
-      <c r="L19" s="74">
-        <v>46091</v>
-      </c>
-      <c r="M19" s="116"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46090</v>
+      </c>
+      <c r="M19" s="117"/>
       <c r="O19" s="5"/>
       <c r="T19" t="s">
         <v>125</v>
@@ -15505,68 +15515,81 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="66">
+      <c r="A20" s="57">
+        <v>104220</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
+        <v>46063</v>
+      </c>
+      <c r="K20" s="80">
+        <v>46062</v>
+      </c>
+      <c r="L20" s="72">
+        <v>46091</v>
+      </c>
+      <c r="M20" s="119"/>
+      <c r="T20" t="s">
+        <v>129</v>
+      </c>
+      <c r="U20" t="s">
+        <v>130</v>
+      </c>
+      <c r="V20" t="s">
+        <v>133</v>
+      </c>
+      <c r="W20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="65">
         <v>84738</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B21" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="74">
+      <c r="G21" s="18"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K20" s="76"/>
-      <c r="L20" s="74">
+      <c r="K21" s="74"/>
+      <c r="L21" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46091</v>
       </c>
-      <c r="M20" s="107"/>
-      <c r="T20" t="s">
-        <v>129</v>
-      </c>
-      <c r="U20" t="s">
-        <v>130</v>
-      </c>
-      <c r="V20" t="s">
-        <v>133</v>
-      </c>
-      <c r="W20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
-        <v>314532</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="74">
-        <v>46069</v>
-      </c>
-      <c r="K21" s="85"/>
-      <c r="L21" s="74">
-        <v>46091</v>
-      </c>
-      <c r="M21" s="113"/>
+      <c r="M21" s="111"/>
       <c r="T21" t="s">
         <v>131</v>
       </c>
@@ -15575,156 +15598,137 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
-        <v>118130</v>
-      </c>
-      <c r="B22" s="91" t="s">
-        <v>119</v>
+      <c r="A22" s="28">
+        <v>118129</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>91</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="74">
-        <v>46072</v>
-      </c>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74">
-        <v>46091</v>
-      </c>
-      <c r="M22" s="107"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="72">
+        <v>46063</v>
+      </c>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46096</v>
+      </c>
+      <c r="M22" s="125"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
-        <v>104033</v>
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="65">
+        <v>44202</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>66</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="69"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="72">
         <v>46064</v>
       </c>
-      <c r="K23" s="76"/>
-      <c r="L23" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46093</v>
-      </c>
-      <c r="M23" s="33"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="72">
+        <v>46090</v>
+      </c>
+      <c r="M23" s="62"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="66">
-        <v>44268</v>
+      <c r="A24" s="65">
+        <v>104033</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="I24" s="40"/>
-      <c r="J24" s="74">
-        <v>46065</v>
-      </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="74">
+      <c r="J24" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46064</v>
+      </c>
+      <c r="K24" s="74"/>
+      <c r="L24" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46093</v>
       </c>
       <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
-        <v>104064</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="74">
-        <v>46068</v>
+      <c r="A25" s="57">
+        <v>236990</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46065</v>
       </c>
       <c r="K25" s="74"/>
-      <c r="L25" s="74">
-        <v>46093</v>
-      </c>
-      <c r="M25" s="64"/>
+      <c r="L25" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46089</v>
+      </c>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
-        <v>115204</v>
+      <c r="A26" s="65">
+        <v>44268</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46069</v>
-      </c>
-      <c r="K26" s="76"/>
-      <c r="L26" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="72">
+        <v>46065</v>
+      </c>
+      <c r="K26" s="83"/>
+      <c r="L26" s="72">
         <v>46093</v>
       </c>
-      <c r="M26" s="48"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="66">
+      <c r="A27" s="65">
         <v>104285</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -15739,17 +15743,17 @@
       <c r="G27" s="18"/>
       <c r="H27" s="22"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="74">
+      <c r="J27" s="72">
         <v>46065</v>
       </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="74">
+      <c r="K27" s="83"/>
+      <c r="L27" s="72">
         <v>46094</v>
       </c>
-      <c r="M27" s="113"/>
+      <c r="M27" s="117"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="66">
+      <c r="A28" s="65">
         <v>104166</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -15764,137 +15768,134 @@
         <v>38</v>
       </c>
       <c r="I28" s="38"/>
-      <c r="J28" s="74">
+      <c r="J28" s="72">
         <v>46066</v>
       </c>
-      <c r="K28" s="85"/>
-      <c r="L28" s="74">
+      <c r="K28" s="83"/>
+      <c r="L28" s="72">
         <v>46094</v>
       </c>
-      <c r="M28" s="113"/>
+      <c r="M28" s="117"/>
     </row>
     <row r="29" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66">
-        <v>234218</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46061</v>
-      </c>
-      <c r="K29" s="76"/>
-      <c r="L29" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
-      </c>
-      <c r="M29" s="103"/>
+      <c r="A29" s="57">
+        <v>104165</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="72">
+        <v>46066</v>
+      </c>
+      <c r="K29" s="83"/>
+      <c r="L29" s="72">
+        <v>46104</v>
+      </c>
+      <c r="M29" s="96"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
-        <v>118129</v>
-      </c>
-      <c r="B30" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="65">
+        <v>104064</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="72">
+        <v>46068</v>
+      </c>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72">
+        <v>46093</v>
+      </c>
+      <c r="M30" s="63"/>
+    </row>
+    <row r="31" spans="1:23" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="74">
-        <v>46063</v>
-      </c>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
-      </c>
-      <c r="M30" s="114"/>
-    </row>
-    <row r="31" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66">
-        <v>104066</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="21"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46069</v>
-      </c>
-      <c r="K31" s="76"/>
-      <c r="L31" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
-      </c>
-      <c r="M31" s="107"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="112">
+        <v>46068</v>
+      </c>
+      <c r="K31" s="77">
+        <v>46066</v>
+      </c>
+      <c r="L31" s="114">
+        <v>46103</v>
+      </c>
+      <c r="M31" s="111"/>
       <c r="O31" s="52"/>
     </row>
     <row r="32" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66">
-        <v>104214</v>
+      <c r="A32" s="65">
+        <v>134019</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>72</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="74">
-        <v>46073</v>
-      </c>
-      <c r="K32" s="82"/>
-      <c r="L32" s="74">
-        <v>46096</v>
-      </c>
-      <c r="M32" s="48"/>
+      <c r="J32" s="72">
+        <v>46068</v>
+      </c>
+      <c r="K32" s="76">
+        <v>46069</v>
+      </c>
+      <c r="L32" s="72">
+        <v>46104</v>
+      </c>
+      <c r="M32" s="63"/>
     </row>
     <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
-        <v>315037</v>
+      <c r="A33" s="57">
+        <v>314532</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="24" t="s">
@@ -15905,398 +15906,408 @@
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="74">
-        <v>46072</v>
-      </c>
-      <c r="K33" s="85"/>
-      <c r="L33" s="74">
-        <v>46097</v>
-      </c>
-      <c r="M33" s="33"/>
+      <c r="J33" s="72">
+        <v>46069</v>
+      </c>
+      <c r="K33" s="83"/>
+      <c r="L33" s="72">
+        <v>46091</v>
+      </c>
+      <c r="M33" s="48"/>
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
+        <v>115204</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46069</v>
+      </c>
+      <c r="K34" s="74"/>
+      <c r="L34" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46093</v>
+      </c>
+      <c r="M34" s="48"/>
+    </row>
+    <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="65">
+        <v>104066</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46069</v>
+      </c>
+      <c r="K35" s="74"/>
+      <c r="L35" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46096</v>
+      </c>
+      <c r="M35" s="33"/>
+    </row>
+    <row r="36" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
         <v>104034</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D36" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G36" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="74">
+      <c r="H36" s="21"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46070</v>
       </c>
-      <c r="K34" s="81"/>
-      <c r="L34" s="74">
+      <c r="K36" s="79"/>
+      <c r="L36" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46098</v>
       </c>
-      <c r="M34" s="75"/>
-    </row>
-    <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66">
-        <v>276011</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="74">
-        <v>46071</v>
-      </c>
-      <c r="K35" s="76"/>
-      <c r="L35" s="74">
-        <v>46098</v>
-      </c>
-      <c r="M35" s="48"/>
-    </row>
-    <row r="36" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66">
-        <v>234129</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="74">
-        <v>46071</v>
-      </c>
-      <c r="K36" s="85"/>
-      <c r="L36" s="74">
-        <v>46098</v>
-      </c>
-      <c r="M36" s="48"/>
+      <c r="M36" s="73"/>
     </row>
     <row r="37" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58">
-        <v>84220</v>
-      </c>
-      <c r="B37" s="92" t="s">
-        <v>102</v>
+      <c r="A37" s="65">
+        <v>276011</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="74">
-        <v>46073</v>
-      </c>
-      <c r="K37" s="85"/>
-      <c r="L37" s="74">
+      <c r="I37" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="72">
+        <v>46071</v>
+      </c>
+      <c r="K37" s="74"/>
+      <c r="L37" s="72">
         <v>46098</v>
       </c>
-      <c r="M37" s="33"/>
+      <c r="M37" s="48"/>
     </row>
     <row r="38" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66">
-        <v>104295</v>
+      <c r="A38" s="65">
+        <v>234129</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="74">
-        <v>46075</v>
-      </c>
-      <c r="K38" s="85"/>
-      <c r="L38" s="74">
+        <v>57</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="72">
+        <v>46071</v>
+      </c>
+      <c r="K38" s="83"/>
+      <c r="L38" s="72">
         <v>46098</v>
       </c>
-      <c r="M38" s="97"/>
+      <c r="M38" s="48"/>
     </row>
     <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66">
-        <v>125001</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="74">
-        <v>46075</v>
-      </c>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74">
-        <v>46099</v>
-      </c>
-      <c r="M39" s="75"/>
+      <c r="A39" s="87">
+        <v>118130</v>
+      </c>
+      <c r="B39" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="72">
+        <v>46072</v>
+      </c>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72">
+        <v>46091</v>
+      </c>
+      <c r="M39" s="33"/>
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66">
-        <v>334274</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="74">
-        <v>46077</v>
-      </c>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74">
-        <v>46099</v>
-      </c>
-      <c r="M40" s="48"/>
+      <c r="A40" s="57">
+        <v>315037</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="72">
+        <v>46072</v>
+      </c>
+      <c r="K40" s="83"/>
+      <c r="L40" s="72">
+        <v>46097</v>
+      </c>
+      <c r="M40" s="33"/>
     </row>
     <row r="41" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
-        <v>118122</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="74">
+      <c r="A41" s="65">
+        <v>44148</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
-      </c>
-      <c r="K41" s="76"/>
-      <c r="L41" s="74">
+        <v>46072</v>
+      </c>
+      <c r="K41" s="74"/>
+      <c r="L41" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46100</v>
       </c>
-      <c r="M41" s="64"/>
+      <c r="M41" s="62"/>
     </row>
     <row r="42" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
-        <v>114074</v>
+      <c r="A42" s="65">
+        <v>104214</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="74">
-        <v>46057</v>
-      </c>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74">
-        <v>46100</v>
-      </c>
-      <c r="M42" s="64"/>
+        <v>114</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="72">
+        <v>46073</v>
+      </c>
+      <c r="K42" s="80"/>
+      <c r="L42" s="72">
+        <v>46096</v>
+      </c>
+      <c r="M42" s="48"/>
     </row>
-    <row r="43" spans="1:16" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="66">
-        <v>44148</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>110</v>
+    <row r="43" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57">
+        <v>84220</v>
+      </c>
+      <c r="B43" s="90" t="s">
+        <v>102</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="F43" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46072</v>
-      </c>
-      <c r="K43" s="76"/>
-      <c r="L43" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M43" s="63"/>
+      <c r="J43" s="72">
+        <v>46073</v>
+      </c>
+      <c r="K43" s="83"/>
+      <c r="L43" s="72">
+        <v>46098</v>
+      </c>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66">
-        <v>234125</v>
+      <c r="A44" s="65">
+        <v>104295</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="74">
+        <v>51</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="72">
         <v>46075</v>
       </c>
-      <c r="K44" s="85"/>
-      <c r="L44" s="74">
-        <v>46100</v>
-      </c>
-      <c r="M44" s="33"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="72">
+        <v>46098</v>
+      </c>
+      <c r="M44" s="96"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="58">
-        <v>314003</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46076</v>
-      </c>
-      <c r="K45" s="76"/>
-      <c r="L45" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M45" s="48"/>
+      <c r="A45" s="65">
+        <v>125001</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="72">
+        <v>46075</v>
+      </c>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72">
+        <v>46099</v>
+      </c>
+      <c r="M45" s="73"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="58">
-        <v>84913</v>
-      </c>
-      <c r="B46" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="74">
-        <v>46077</v>
-      </c>
-      <c r="K46" s="85"/>
-      <c r="L46" s="74">
+      <c r="A46" s="65">
+        <v>234125</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="40"/>
+      <c r="J46" s="72">
+        <v>46075</v>
+      </c>
+      <c r="K46" s="83"/>
+      <c r="L46" s="72">
         <v>46100</v>
       </c>
-      <c r="M46" s="107"/>
+      <c r="M46" s="111"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="21"/>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="57">
+        <v>314003</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="108">
-        <v>46068</v>
-      </c>
-      <c r="K47" s="79">
-        <v>46066</v>
-      </c>
-      <c r="L47" s="110">
-        <v>46103</v>
-      </c>
-      <c r="M47" s="107"/>
+      <c r="J47" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46076</v>
+      </c>
+      <c r="K47" s="74"/>
+      <c r="L47" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M47" s="117"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="66">
+      <c r="A48" s="65">
         <v>234114</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -16311,17 +16322,17 @@
         <v>38</v>
       </c>
       <c r="I48" s="38"/>
-      <c r="J48" s="74">
+      <c r="J48" s="72">
         <v>46076</v>
       </c>
-      <c r="K48" s="85"/>
-      <c r="L48" s="74">
+      <c r="K48" s="83"/>
+      <c r="L48" s="72">
         <v>46103</v>
       </c>
-      <c r="M48" s="68"/>
+      <c r="M48" s="67"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="66">
+      <c r="A49" s="65">
         <v>234117</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -16336,651 +16347,649 @@
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="38"/>
-      <c r="J49" s="74">
+      <c r="J49" s="72">
         <v>46076</v>
       </c>
-      <c r="K49" s="85"/>
-      <c r="L49" s="74">
+      <c r="K49" s="83"/>
+      <c r="L49" s="72">
         <v>46103</v>
       </c>
-      <c r="M49" s="107"/>
+      <c r="M49" s="111"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
+        <v>116354</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50" s="86">
+        <v>46076</v>
+      </c>
+      <c r="K50" s="77"/>
+      <c r="L50" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="M50" s="116"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="57">
+        <v>104283</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="84">
+        <v>46076</v>
+      </c>
+      <c r="K51" s="85"/>
+      <c r="L51" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="M51" s="66"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="65">
+        <v>334274</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="72">
+        <v>46077</v>
+      </c>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72">
+        <v>46099</v>
+      </c>
+      <c r="M52" s="117"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="57">
+        <v>84913</v>
+      </c>
+      <c r="B53" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="72">
+        <v>46077</v>
+      </c>
+      <c r="K53" s="83"/>
+      <c r="L53" s="72">
+        <v>46100</v>
+      </c>
+      <c r="M53" s="111"/>
+    </row>
+    <row r="54" spans="1:15" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28">
+        <v>104134</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="38"/>
+      <c r="J54" s="72">
+        <v>46077</v>
+      </c>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="M54" s="117"/>
+    </row>
+    <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28">
         <v>114101</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D55" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E55" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F55" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G55" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H55" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="41" t="s">
+      <c r="I55" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="74">
+      <c r="J55" s="82">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46078</v>
       </c>
-      <c r="K50" s="76"/>
-      <c r="L50" s="74">
+      <c r="K55" s="95"/>
+      <c r="L55" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46103</v>
       </c>
-      <c r="M50" s="113"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="66">
-        <v>234292</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I51" s="40"/>
-      <c r="J51" s="86">
-        <v>46055</v>
-      </c>
-      <c r="K51" s="87"/>
-      <c r="L51" s="74">
-        <v>46104</v>
-      </c>
-      <c r="M51" s="107"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="58">
-        <v>104165</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="74">
-        <v>46066</v>
-      </c>
-      <c r="K52" s="85"/>
-      <c r="L52" s="74">
-        <v>46104</v>
-      </c>
-      <c r="M52" s="121"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="66">
-        <v>134019</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="74">
-        <v>46068</v>
-      </c>
-      <c r="K53" s="78">
-        <v>46069</v>
-      </c>
-      <c r="L53" s="74">
-        <v>46104</v>
-      </c>
-      <c r="M53" s="112"/>
-    </row>
-    <row r="54" spans="1:15" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58">
-        <v>104279</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="74">
-        <v>46078</v>
-      </c>
-      <c r="K54" s="85"/>
-      <c r="L54" s="74">
-        <v>46105</v>
-      </c>
-      <c r="M54" s="69"/>
-    </row>
-    <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58">
-        <v>334009</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="84">
-        <v>46082</v>
-      </c>
-      <c r="K55" s="96"/>
-      <c r="L55" s="74">
-        <v>46105</v>
-      </c>
-      <c r="M55" s="68"/>
+      <c r="M55" s="117"/>
     </row>
     <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58">
-        <v>314006</v>
+      <c r="A56" s="57">
+        <v>104279</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C56" s="21"/>
-      <c r="D56" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="23"/>
-      <c r="J56" s="86">
-        <v>46082</v>
-      </c>
-      <c r="K56" s="87"/>
-      <c r="L56" s="74">
+      <c r="J56" s="84">
+        <v>46078</v>
+      </c>
+      <c r="K56" s="85"/>
+      <c r="L56" s="72">
         <v>46105</v>
       </c>
       <c r="M56" s="68"/>
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="66">
+      <c r="A57" s="65">
+        <v>134058</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="72">
+        <v>46079</v>
+      </c>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72">
+        <v>46107</v>
+      </c>
+      <c r="M57" s="117"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="65">
+        <v>44137</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46079</v>
+      </c>
+      <c r="K58" s="74"/>
+      <c r="L58" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46108</v>
+      </c>
+      <c r="M58" s="33"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="57">
+        <v>116041</v>
+      </c>
+      <c r="B59" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="86">
+        <v>46079</v>
+      </c>
+      <c r="K59" s="77"/>
+      <c r="L59" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="M59" s="111"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="57">
+        <v>334009</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="72">
+        <v>46082</v>
+      </c>
+      <c r="K60" s="74"/>
+      <c r="L60" s="72">
+        <v>46105</v>
+      </c>
+      <c r="M60" s="67"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="64">
+        <v>314006</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="72">
+        <v>46082</v>
+      </c>
+      <c r="K61" s="83"/>
+      <c r="L61" s="72">
+        <v>46105</v>
+      </c>
+      <c r="M61" s="67"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="75">
         <v>84314</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B62" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20" t="s">
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="74">
+      <c r="G62" s="45"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K57" s="76"/>
-      <c r="L57" s="74">
+      <c r="K62" s="74"/>
+      <c r="L62" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46105</v>
       </c>
-      <c r="M57" s="115"/>
+      <c r="M62" s="118"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="66">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="75">
         <v>94412</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B63" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="18" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="74">
+      <c r="I63" s="50"/>
+      <c r="J63" s="82">
         <v>46082</v>
       </c>
-      <c r="K58" s="85"/>
-      <c r="L58" s="74">
+      <c r="K63" s="85"/>
+      <c r="L63" s="72">
         <v>46106</v>
       </c>
-      <c r="M58" s="48"/>
+      <c r="M63" s="107"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="66">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="75">
         <v>124108</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B64" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24" t="s">
+      <c r="C64" s="24"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="H59" s="24" t="s">
+      <c r="H64" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I59" s="35"/>
-      <c r="J59" s="74">
+      <c r="I64" s="100"/>
+      <c r="J64" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K59" s="79"/>
-      <c r="L59" s="74">
+      <c r="K64" s="77"/>
+      <c r="L64" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46106</v>
       </c>
-      <c r="M59" s="107"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="28">
-        <v>124107</v>
-      </c>
-      <c r="B60" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="102"/>
-      <c r="J60" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K60" s="76"/>
-      <c r="L60" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46106</v>
-      </c>
-      <c r="M60" s="113"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="77">
-        <v>134058</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="93"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="J61" s="74">
-        <v>46079</v>
-      </c>
-      <c r="K61" s="74"/>
-      <c r="L61" s="74">
-        <v>46107</v>
-      </c>
-      <c r="M61" s="113"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="77">
-        <v>234128</v>
-      </c>
-      <c r="B62" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K62" s="80"/>
-      <c r="L62" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46107</v>
-      </c>
-      <c r="M62" s="112"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="77">
-        <v>44137</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="84">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46079</v>
-      </c>
-      <c r="K63" s="96"/>
-      <c r="L63" s="74">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46108</v>
-      </c>
-      <c r="M63" s="105"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="77">
-        <v>44105</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="45"/>
-      <c r="I64" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="74">
-        <v>46082</v>
-      </c>
-      <c r="K64" s="78"/>
-      <c r="L64" s="74">
-        <v>46108</v>
-      </c>
-      <c r="M64" s="104"/>
+      <c r="M64" s="53"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="31">
-        <v>116354</v>
-      </c>
-      <c r="B65" s="71" t="s">
-        <v>89</v>
+        <v>124107</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="C65" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="I65" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="J65" s="88">
-        <v>46076</v>
-      </c>
-      <c r="K65" s="79"/>
-      <c r="L65" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="M65" s="83"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K65" s="74"/>
+      <c r="L65" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46106</v>
+      </c>
+      <c r="M65" s="54"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="65">
-        <v>116041</v>
-      </c>
-      <c r="B66" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="88">
-        <v>46079</v>
-      </c>
-      <c r="K66" s="79"/>
-      <c r="L66" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="M66" s="53"/>
+      <c r="A66" s="75">
+        <v>234128</v>
+      </c>
+      <c r="B66" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K66" s="78"/>
+      <c r="L66" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46107</v>
+      </c>
+      <c r="M66" s="81"/>
     </row>
     <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="31">
-        <v>116029</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="55"/>
-      <c r="E67" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="36"/>
-      <c r="G67" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="44"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="K67" s="79"/>
-      <c r="L67" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="M67" s="54"/>
+      <c r="A67" s="75">
+        <v>44105</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="45"/>
+      <c r="I67" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="72">
+        <v>46082</v>
+      </c>
+      <c r="K67" s="76"/>
+      <c r="L67" s="72">
+        <v>46108</v>
+      </c>
+      <c r="M67" s="108"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
-        <v>116083</v>
-      </c>
-      <c r="B68" s="71" t="s">
-        <v>92</v>
+        <v>116029</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>88</v>
       </c>
       <c r="C68" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="62"/>
-      <c r="E68" s="24"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F68" s="36"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="78" t="s">
+      <c r="G68" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="44"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="K68" s="79"/>
-      <c r="L68" s="78" t="s">
+      <c r="K68" s="77"/>
+      <c r="L68" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="M68" s="53"/>
+      <c r="M68" s="54"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="66">
-        <v>337403</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
+      <c r="A69" s="28">
+        <v>116083</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
       <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="109" t="s">
-        <v>120</v>
-      </c>
-      <c r="K69" s="76"/>
-      <c r="L69" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="M69" s="54"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="K69" s="77"/>
+      <c r="L69" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="M69" s="53"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="73">
-        <v>324033</v>
+      <c r="A70" s="75">
+        <v>337403</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C70" s="36"/>
-      <c r="D70" s="51"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="21"/>
-      <c r="F70" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" s="50"/>
-      <c r="J70" s="78" t="s">
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="K70" s="76"/>
-      <c r="L70" s="78" t="s">
+      <c r="K70" s="74"/>
+      <c r="L70" s="76" t="s">
         <v>120</v>
       </c>
       <c r="M70" s="54"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="77">
-        <v>104000</v>
-      </c>
-      <c r="B71" s="71" t="s">
-        <v>100</v>
+      <c r="A71" s="71">
+        <v>324033</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="36"/>
-      <c r="G71" s="93"/>
-      <c r="H71" s="93"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="78" t="s">
+      <c r="D71" s="51"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" s="50"/>
+      <c r="J71" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="K71" s="76"/>
-      <c r="L71" s="78" t="s">
+      <c r="K71" s="74"/>
+      <c r="L71" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M71" s="53"/>
+      <c r="M71" s="54"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="65">
-        <v>104192</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>122</v>
+      <c r="A72" s="75">
+        <v>104000</v>
+      </c>
+      <c r="B72" s="70" t="s">
+        <v>100</v>
       </c>
       <c r="C72" s="36"/>
       <c r="D72" s="36"/>
-      <c r="E72" s="22" t="s">
-        <v>13</v>
+      <c r="E72" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="78" t="s">
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="K72" s="76"/>
-      <c r="L72" s="78" t="s">
+      <c r="K72" s="74"/>
+      <c r="L72" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="98"/>
+      <c r="M72" s="53"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="65">
-        <v>104276</v>
+      <c r="A73" s="64">
+        <v>104192</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C73" s="36"/>
       <c r="D73" s="36"/>
@@ -16991,116 +17000,116 @@
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
       <c r="I73" s="50"/>
-      <c r="J73" s="78" t="s">
+      <c r="J73" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="K73" s="76"/>
-      <c r="L73" s="78" t="s">
+      <c r="K73" s="74"/>
+      <c r="L73" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="53"/>
+      <c r="M73" s="98"/>
     </row>
     <row r="74" spans="1:15" s="32" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="117">
-        <v>117006</v>
-      </c>
-      <c r="B74" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="A74" s="57">
+        <v>104276</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="21"/>
       <c r="D74" s="21"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="22"/>
+      <c r="E74" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="23"/>
-      <c r="J74" s="78" t="s">
+      <c r="J74" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="K74" s="76"/>
-      <c r="L74" s="78" t="s">
+      <c r="K74" s="74"/>
+      <c r="L74" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M74" s="57"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="60"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="60"/>
+      <c r="O74" s="59"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="77">
+      <c r="A75" s="109">
+        <v>117006</v>
+      </c>
+      <c r="B75" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="36"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="K75" s="74"/>
+      <c r="L75" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="M75" s="120"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="75">
         <v>84154</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B76" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51" t="s">
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G75" s="45"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="78" t="s">
+      <c r="G76" s="45"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="K75" s="76"/>
-      <c r="L75" s="78" t="s">
+      <c r="K76" s="74"/>
+      <c r="L76" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M75" s="119"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="65">
-        <v>104283</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="74">
-        <v>46076</v>
-      </c>
-      <c r="K76" s="85"/>
-      <c r="L76" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="M76" s="67"/>
+      <c r="M76" s="126"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="122">
-        <v>104134</v>
-      </c>
-      <c r="B77" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="93"/>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I77" s="94"/>
-      <c r="J77" s="74">
-        <v>46077</v>
-      </c>
-      <c r="K77" s="85"/>
-      <c r="L77" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="M77" s="113"/>
+      <c r="A77" s="121">
+        <v>334011</v>
+      </c>
+      <c r="B77" s="122" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="72"/>
+      <c r="K77" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="L77" s="72">
+        <v>46090</v>
+      </c>
+      <c r="M77" s="117"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765F1F6-FAB1-43DA-9E2C-3C563D2C701C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE95FD-FF87-48C1-80AB-A2088F7F7D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69690" yWindow="2970" windowWidth="29670" windowHeight="27210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26535" yWindow="3525" windowWidth="29535" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="סמסטר חורף" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
   <si>
     <t>מספר</t>
   </si>
@@ -532,6 +532,18 @@
   <si>
     <t>ריק</t>
   </si>
+  <si>
+    <t>גלים מועד ב'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">במקום </t>
+  </si>
+  <si>
+    <t>אסטרו מועד ב'</t>
+  </si>
+  <si>
+    <t>לייזרים וקוונטית מועד ב'</t>
+  </si>
 </sst>
 </file>
 
@@ -892,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1107,17 +1119,11 @@
     <xf numFmtId="14" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1148,19 +1154,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1169,36 +1166,11 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,37 +1185,74 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,13 +1593,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1608,6 +1610,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -14603,10 +14612,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D55DB98B-67EC-4AC3-87E3-56FDBEEEA350}" name="טבלה13" displayName="טבלה13" ref="A1:M77" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M77" xr:uid="{D55DB98B-67EC-4AC3-87E3-56FDBEEEA350}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M77">
-    <sortCondition ref="J1:J77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D55DB98B-67EC-4AC3-87E3-56FDBEEEA350}" name="טבלה13" displayName="טבלה13" ref="A1:M77" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:M77" xr:uid="{D55DB98B-67EC-4AC3-87E3-56FDBEEEA350}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="חומרים 7"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="מתמ. 5"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="חשמל 7"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="מדעי מחשב 7"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="ביו-רפואה 7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:M74">
+    <sortCondition ref="L1:L77"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{85D29950-44C3-49A5-852E-E80B2576A63B}" name="מספר" dataDxfId="12"/>
@@ -14893,7 +14933,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14959,7 +14999,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65">
         <v>134113</v>
       </c>
@@ -14984,528 +15024,518 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M2" s="102"/>
+      <c r="M2" s="96"/>
       <c r="O2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
-        <v>114086</v>
+    <row r="3" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65">
+        <v>236343</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>8</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="35"/>
       <c r="J3" s="72">
-        <v>46055</v>
-      </c>
-      <c r="K3" s="76"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
+      </c>
+      <c r="K3" s="74"/>
       <c r="L3" s="72">
-        <v>46090</v>
-      </c>
-      <c r="M3" s="117"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46086</v>
+      </c>
+      <c r="M3" s="118"/>
       <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65">
-        <v>234292</v>
+        <v>84312</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="H4" s="22"/>
       <c r="I4" s="40"/>
       <c r="J4" s="72">
-        <v>46055</v>
-      </c>
-      <c r="K4" s="83"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
+      </c>
+      <c r="K4" s="74"/>
       <c r="L4" s="72">
-        <v>46104</v>
-      </c>
-      <c r="M4" s="111"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46086</v>
+      </c>
+      <c r="M4" s="120"/>
       <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
-        <v>236343</v>
+    <row r="5" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>116217</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="35"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="J5" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="K5" s="74"/>
       <c r="L5" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M5" s="33"/>
+      <c r="M5" s="63"/>
       <c r="O5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65">
-        <v>84312</v>
+        <v>104222</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="18"/>
       <c r="H6" s="22"/>
       <c r="I6" s="40"/>
       <c r="J6" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="K6" s="74"/>
       <c r="L6" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M6" s="97"/>
+      <c r="M6" s="73"/>
       <c r="O6" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>118122</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="93"/>
+    <row r="7" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>114074</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="J7" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
-      </c>
-      <c r="K7" s="74"/>
+        <v>46057</v>
+      </c>
+      <c r="K7" s="72"/>
       <c r="L7" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
+        <v>46086</v>
       </c>
       <c r="M7" s="63"/>
     </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>116217</v>
+    <row r="8" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>104215</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>8</v>
       </c>
       <c r="J8" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46057</v>
-      </c>
-      <c r="K8" s="74"/>
+        <v>46058</v>
+      </c>
+      <c r="K8" s="76"/>
       <c r="L8" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46086</v>
+        <v>46087</v>
       </c>
       <c r="M8" s="63"/>
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65">
-        <v>104222</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="40"/>
+    <row r="9" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
+        <v>104112</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46057</v>
-      </c>
-      <c r="K9" s="74"/>
+        <v>46058</v>
+      </c>
+      <c r="K9" s="81"/>
       <c r="L9" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46086</v>
-      </c>
-      <c r="M9" s="73"/>
+        <v>46087</v>
+      </c>
+      <c r="M9" s="33"/>
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
-        <v>114074</v>
+    <row r="10" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65">
+        <v>104195</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>71</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>4</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="72">
-        <v>46057</v>
-      </c>
-      <c r="K10" s="72"/>
+        <v>46063</v>
+      </c>
+      <c r="K10" s="81"/>
       <c r="L10" s="72">
-        <v>46100</v>
-      </c>
-      <c r="M10" s="63"/>
+        <v>46087</v>
+      </c>
+      <c r="M10" s="48"/>
       <c r="Q10" s="5">
         <v>1</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>104215</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>72</v>
-      </c>
+    <row r="11" spans="1:19" ht="38.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57">
+        <v>236990</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>8</v>
-      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="23"/>
       <c r="J11" s="72">
-        <v>46058</v>
-      </c>
-      <c r="K11" s="76"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46065</v>
+      </c>
+      <c r="K11" s="74"/>
       <c r="L11" s="72">
-        <v>46087</v>
-      </c>
-      <c r="M11" s="116"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46089</v>
+      </c>
+      <c r="M11" s="111"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
-        <v>104112</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22" t="s">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>104122</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="82">
-        <v>46058</v>
-      </c>
-      <c r="K12" s="83"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="80">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46063</v>
+      </c>
+      <c r="K12" s="74"/>
       <c r="L12" s="72">
-        <v>46087</v>
-      </c>
-      <c r="M12" s="33"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46090</v>
+      </c>
+      <c r="M12" s="92"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65">
-        <v>234218</v>
+    <row r="13" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57">
+        <v>104042</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="40"/>
+        <v>116</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="J13" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46061</v>
-      </c>
-      <c r="K13" s="74"/>
+        <v>46062</v>
+      </c>
+      <c r="K13" s="72"/>
       <c r="L13" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
-      </c>
-      <c r="M13" s="106"/>
+        <v>46090</v>
+      </c>
+      <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57">
-        <v>104042</v>
+    <row r="14" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65">
+        <v>104012</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+        <v>95</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="38" t="s">
-        <v>4</v>
-      </c>
+      <c r="I14" s="38"/>
       <c r="J14" s="72">
-        <v>46062</v>
-      </c>
-      <c r="K14" s="72"/>
+        <v>46063</v>
+      </c>
+      <c r="K14" s="81"/>
       <c r="L14" s="72">
         <v>46090</v>
       </c>
-      <c r="M14" s="48"/>
+      <c r="M14" s="63"/>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65">
-        <v>104031</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="23"/>
+        <v>84738</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="72">
-        <v>46062</v>
-      </c>
-      <c r="K15" s="83"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46063</v>
+      </c>
+      <c r="K15" s="74"/>
       <c r="L15" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46091</v>
       </c>
-      <c r="M15" s="48"/>
+      <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
-        <v>104195</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>50</v>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>315052</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="38"/>
+      <c r="D16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
-      <c r="K16" s="83"/>
+      <c r="K16" s="74"/>
       <c r="L16" s="72">
-        <v>46087</v>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46090</v>
       </c>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="6" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65">
-        <v>104012</v>
+        <v>44202</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="38"/>
+        <v>66</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="69"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="72">
-        <v>46063</v>
-      </c>
-      <c r="K17" s="83"/>
+        <v>46064</v>
+      </c>
+      <c r="K17" s="81"/>
       <c r="L17" s="72">
         <v>46090</v>
       </c>
-      <c r="M17" s="116"/>
+      <c r="M17" s="117"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
-        <v>104122</v>
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65">
+        <v>334011</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="82">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="82">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>63</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="80"/>
+      <c r="K18" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="80">
         <v>46090</v>
       </c>
-      <c r="M18" s="124"/>
+      <c r="M18" s="109"/>
       <c r="T18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="57">
-        <v>315052</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>75</v>
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65">
+        <v>104031</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K19" s="74"/>
+        <v>46062</v>
+      </c>
+      <c r="K19" s="81"/>
       <c r="L19" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46090</v>
-      </c>
-      <c r="M19" s="117"/>
+        <v>46091</v>
+      </c>
+      <c r="M19" s="109"/>
       <c r="O19" s="5"/>
       <c r="T19" t="s">
         <v>125</v>
       </c>
       <c r="U19">
-        <v>24.3</v>
+        <v>5.3</v>
       </c>
       <c r="V19" t="s">
         <v>126</v>
@@ -15514,7 +15544,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>104220</v>
       </c>
@@ -15544,13 +15574,13 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
         <v>46063</v>
       </c>
-      <c r="K20" s="80">
+      <c r="K20" s="79">
         <v>46062</v>
       </c>
       <c r="L20" s="72">
         <v>46091</v>
       </c>
-      <c r="M20" s="119"/>
+      <c r="M20" s="102"/>
       <c r="T20" t="s">
         <v>129</v>
       </c>
@@ -15564,32 +15594,30 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65">
-        <v>84738</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="40"/>
+    <row r="21" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57">
+        <v>314532</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K21" s="74"/>
+        <v>46069</v>
+      </c>
+      <c r="K21" s="81"/>
       <c r="L21" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46091</v>
       </c>
-      <c r="M21" s="111"/>
+      <c r="M21" s="109"/>
       <c r="T21" t="s">
         <v>131</v>
       </c>
@@ -15599,110 +15627,130 @@
     </row>
     <row r="22" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
-        <v>118129</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>91</v>
+        <v>124107</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="35"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="72">
-        <v>46063</v>
-      </c>
-      <c r="K22" s="72"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K22" s="74"/>
       <c r="L22" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
-      </c>
-      <c r="M22" s="125"/>
+        <v>46086</v>
+      </c>
+      <c r="M22" s="109"/>
+      <c r="T22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U22">
+        <v>12.3</v>
+      </c>
+      <c r="V22" t="s">
+        <v>137</v>
+      </c>
+      <c r="W22">
+        <v>9.3000000000000007</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="65">
-        <v>44202</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="72">
-        <v>46064</v>
-      </c>
-      <c r="K23" s="83"/>
-      <c r="L23" s="72">
-        <v>46090</v>
-      </c>
-      <c r="M23" s="62"/>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="57">
+        <v>116041</v>
+      </c>
+      <c r="B23" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="84">
+        <v>46079</v>
+      </c>
+      <c r="K23" s="77"/>
+      <c r="L23" s="76">
+        <v>46089</v>
+      </c>
+      <c r="M23" s="33"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="65">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>114086</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="72">
+        <v>46055</v>
+      </c>
+      <c r="K24" s="76"/>
+      <c r="L24" s="72">
+        <v>46093</v>
+      </c>
+      <c r="M24" s="48"/>
+    </row>
+    <row r="25" spans="1:23" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65">
         <v>104033</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="72">
+      <c r="I25" s="40"/>
+      <c r="J25" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46064</v>
-      </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46093</v>
-      </c>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57">
-        <v>236990</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46065</v>
       </c>
       <c r="K25" s="74"/>
       <c r="L25" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46089</v>
-      </c>
-      <c r="M25" s="63"/>
+        <v>46093</v>
+      </c>
+      <c r="M25" s="33"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65">
         <v>44268</v>
       </c>
@@ -15721,268 +15769,282 @@
       <c r="J26" s="72">
         <v>46065</v>
       </c>
-      <c r="K26" s="83"/>
+      <c r="K26" s="81"/>
       <c r="L26" s="72">
         <v>46093</v>
       </c>
       <c r="M26" s="33"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65">
+        <v>104064</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="72">
+        <v>46068</v>
+      </c>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72">
+        <v>46093</v>
+      </c>
+      <c r="M27" s="111"/>
+    </row>
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>115204</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46069</v>
+      </c>
+      <c r="K28" s="74"/>
+      <c r="L28" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46093</v>
+      </c>
+      <c r="M28" s="109"/>
+    </row>
+    <row r="29" spans="1:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65">
         <v>104285</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="72">
+      <c r="F29" s="19"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="72">
         <v>46065</v>
       </c>
-      <c r="K27" s="83"/>
-      <c r="L27" s="72">
+      <c r="K29" s="81"/>
+      <c r="L29" s="72">
         <v>46094</v>
       </c>
-      <c r="M27" s="117"/>
+      <c r="M29" s="48"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="65">
+    <row r="30" spans="1:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="65">
         <v>104166</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B30" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="72">
+      <c r="I30" s="38"/>
+      <c r="J30" s="72">
         <v>46066</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="72">
+      <c r="K30" s="81"/>
+      <c r="L30" s="72">
         <v>46094</v>
       </c>
-      <c r="M28" s="117"/>
+      <c r="M30" s="48"/>
     </row>
-    <row r="29" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57">
-        <v>104165</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="72">
-        <v>46066</v>
-      </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="72">
-        <v>46104</v>
-      </c>
-      <c r="M29" s="96"/>
-    </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65">
-        <v>104064</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="72">
-        <v>46068</v>
-      </c>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72">
-        <v>46093</v>
-      </c>
-      <c r="M30" s="63"/>
-    </row>
-    <row r="31" spans="1:23" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="112">
-        <v>46068</v>
-      </c>
-      <c r="K31" s="77">
-        <v>46066</v>
-      </c>
-      <c r="L31" s="114">
-        <v>46103</v>
-      </c>
-      <c r="M31" s="111"/>
+    <row r="31" spans="1:23" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65">
+        <v>234218</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="40"/>
+      <c r="J31" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46061</v>
+      </c>
+      <c r="K31" s="74"/>
+      <c r="L31" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46096</v>
+      </c>
+      <c r="M31" s="123"/>
       <c r="O31" s="52"/>
     </row>
-    <row r="32" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="65">
-        <v>134019</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="40" t="s">
+        <v>104066</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46069</v>
+      </c>
+      <c r="K32" s="74"/>
+      <c r="L32" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46096</v>
+      </c>
+      <c r="M32" s="33"/>
+    </row>
+    <row r="33" spans="1:21" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65">
+        <v>104214</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="72">
-        <v>46068</v>
-      </c>
-      <c r="K32" s="76">
-        <v>46069</v>
-      </c>
-      <c r="L32" s="72">
-        <v>46104</v>
-      </c>
-      <c r="M32" s="63"/>
-    </row>
-    <row r="33" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57">
-        <v>314532</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="23"/>
       <c r="J33" s="72">
-        <v>46069</v>
-      </c>
-      <c r="K33" s="83"/>
+        <v>46073</v>
+      </c>
+      <c r="K33" s="79"/>
       <c r="L33" s="72">
-        <v>46091</v>
+        <v>46096</v>
       </c>
       <c r="M33" s="48"/>
       <c r="P33" s="12"/>
     </row>
-    <row r="34" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
-        <v>115204</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>11</v>
+    <row r="34" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="85">
+        <v>118130</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>119</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>15</v>
-      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46069</v>
-      </c>
-      <c r="K34" s="74"/>
+        <v>46072</v>
+      </c>
+      <c r="K34" s="72"/>
       <c r="L34" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46093</v>
-      </c>
-      <c r="M34" s="48"/>
+        <v>46091</v>
+      </c>
+      <c r="M34" s="33"/>
+      <c r="T34" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="U34" s="9">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65">
-        <v>104066</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>22</v>
+    <row r="35" spans="1:21" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57">
+        <v>315037</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="D35" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="21"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="38"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46069</v>
-      </c>
-      <c r="K35" s="74"/>
+        <v>46072</v>
+      </c>
+      <c r="K35" s="81"/>
       <c r="L35" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
+        <v>46097</v>
       </c>
       <c r="M35" s="33"/>
     </row>
-    <row r="36" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>104034</v>
       </c>
@@ -16008,14 +16070,14 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46070</v>
       </c>
-      <c r="K36" s="79"/>
+      <c r="K36" s="78"/>
       <c r="L36" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46098</v>
       </c>
       <c r="M36" s="73"/>
     </row>
-    <row r="37" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="65">
         <v>276011</v>
       </c>
@@ -16040,7 +16102,7 @@
       </c>
       <c r="M37" s="48"/>
     </row>
-    <row r="38" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="65">
         <v>234129</v>
       </c>
@@ -16059,254 +16121,260 @@
       <c r="J38" s="72">
         <v>46071</v>
       </c>
-      <c r="K38" s="83"/>
+      <c r="K38" s="81"/>
       <c r="L38" s="72">
         <v>46098</v>
       </c>
       <c r="M38" s="48"/>
     </row>
-    <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87">
-        <v>118130</v>
-      </c>
-      <c r="B39" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>12</v>
-      </c>
+    <row r="39" spans="1:21" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57">
+        <v>84220</v>
+      </c>
+      <c r="B39" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="F39" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="23"/>
       <c r="J39" s="72">
-        <v>46072</v>
-      </c>
-      <c r="K39" s="72"/>
+        <v>46073</v>
+      </c>
+      <c r="K39" s="81"/>
       <c r="L39" s="72">
-        <v>46091</v>
+        <v>46098</v>
       </c>
       <c r="M39" s="33"/>
     </row>
-    <row r="40" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57">
-        <v>315037</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>98</v>
+    <row r="40" spans="1:21" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65">
+        <v>104295</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="21"/>
-      <c r="D40" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="23"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="72">
-        <v>46072</v>
-      </c>
-      <c r="K40" s="83"/>
+        <v>46075</v>
+      </c>
+      <c r="K40" s="81"/>
       <c r="L40" s="72">
-        <v>46097</v>
-      </c>
-      <c r="M40" s="33"/>
+        <v>46098</v>
+      </c>
+      <c r="M40" s="92"/>
     </row>
-    <row r="41" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="65">
-        <v>44148</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="23"/>
+        <v>125001</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="J41" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46072</v>
-      </c>
-      <c r="K41" s="74"/>
+        <v>46075</v>
+      </c>
+      <c r="K41" s="72"/>
       <c r="L41" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M41" s="62"/>
+        <v>46099</v>
+      </c>
+      <c r="M41" s="73"/>
     </row>
-    <row r="42" spans="1:16" s="8" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="65">
-        <v>104214</v>
+        <v>334274</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>17</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="40" t="s">
         <v>8</v>
       </c>
       <c r="J42" s="72">
-        <v>46073</v>
-      </c>
-      <c r="K42" s="80"/>
+        <v>46077</v>
+      </c>
+      <c r="K42" s="72"/>
       <c r="L42" s="72">
-        <v>46096</v>
+        <v>46099</v>
       </c>
       <c r="M42" s="48"/>
     </row>
-    <row r="43" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57">
-        <v>84220</v>
-      </c>
-      <c r="B43" s="90" t="s">
-        <v>102</v>
+    <row r="43" spans="1:21" s="10" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="65">
+        <v>44148</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" s="21"/>
       <c r="I43" s="23"/>
       <c r="J43" s="72">
-        <v>46073</v>
-      </c>
-      <c r="K43" s="83"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46072</v>
+      </c>
+      <c r="K43" s="74"/>
       <c r="L43" s="72">
-        <v>46098</v>
-      </c>
-      <c r="M43" s="33"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M43" s="62"/>
     </row>
-    <row r="44" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="65">
-        <v>104295</v>
+        <v>234125</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="40"/>
       <c r="J44" s="72">
         <v>46075</v>
       </c>
-      <c r="K44" s="83"/>
+      <c r="K44" s="81"/>
       <c r="L44" s="72">
-        <v>46098</v>
-      </c>
-      <c r="M44" s="96"/>
+        <v>46100</v>
+      </c>
+      <c r="M44" s="33"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="65">
-        <v>125001</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="38" t="s">
-        <v>4</v>
-      </c>
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="57">
+        <v>314003</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="23"/>
       <c r="J45" s="72">
-        <v>46075</v>
-      </c>
-      <c r="K45" s="72"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46076</v>
+      </c>
+      <c r="K45" s="74"/>
       <c r="L45" s="72">
-        <v>46099</v>
-      </c>
-      <c r="M45" s="73"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M45" s="48"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="65">
-        <v>234125</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I46" s="40"/>
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="57">
+        <v>84913</v>
+      </c>
+      <c r="B46" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="72">
-        <v>46075</v>
-      </c>
-      <c r="K46" s="83"/>
+        <v>46077</v>
+      </c>
+      <c r="K46" s="81"/>
       <c r="L46" s="72">
         <v>46100</v>
       </c>
-      <c r="M46" s="111"/>
+      <c r="M46" s="66"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="57">
-        <v>314003</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="21"/>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="28">
+        <v>116354</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+      <c r="G47" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J47" s="84">
         <v>46076</v>
       </c>
-      <c r="K47" s="74"/>
-      <c r="L47" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M47" s="117"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="76">
+        <v>46093</v>
+      </c>
+      <c r="M47" s="111"/>
+      <c r="T47" t="s">
+        <v>138</v>
+      </c>
+      <c r="U47">
+        <v>12.3</v>
+      </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="65">
         <v>234114</v>
       </c>
@@ -16325,13 +16393,13 @@
       <c r="J48" s="72">
         <v>46076</v>
       </c>
-      <c r="K48" s="83"/>
+      <c r="K48" s="81"/>
       <c r="L48" s="72">
         <v>46103</v>
       </c>
       <c r="M48" s="67"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="65">
         <v>234117</v>
       </c>
@@ -16350,527 +16418,540 @@
       <c r="J49" s="72">
         <v>46076</v>
       </c>
-      <c r="K49" s="83"/>
+      <c r="K49" s="81"/>
       <c r="L49" s="72">
         <v>46103</v>
       </c>
-      <c r="M49" s="111"/>
+      <c r="M49" s="66"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
-        <v>116354</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="20" t="s">
+        <v>114101</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46078</v>
+      </c>
+      <c r="K50" s="74"/>
+      <c r="L50" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46103</v>
+      </c>
+      <c r="M50" s="67"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
+        <v>118129</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I50" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" s="86">
-        <v>46076</v>
-      </c>
-      <c r="K50" s="77"/>
-      <c r="L50" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="M50" s="116"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="82">
+        <v>46063</v>
+      </c>
+      <c r="K51" s="80"/>
+      <c r="L51" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46096</v>
+      </c>
+      <c r="M51" s="110"/>
+      <c r="T51" t="s">
+        <v>96</v>
+      </c>
+      <c r="U51">
+        <v>5.3</v>
+      </c>
+      <c r="V51" t="s">
+        <v>126</v>
+      </c>
+      <c r="W51">
+        <v>25.3</v>
+      </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="57">
-        <v>104283</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="84">
-        <v>46076</v>
-      </c>
-      <c r="K51" s="85"/>
-      <c r="L51" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="M51" s="66"/>
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="65">
+        <v>234292</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="40"/>
+      <c r="J52" s="72">
+        <v>46055</v>
+      </c>
+      <c r="K52" s="81"/>
+      <c r="L52" s="72">
+        <v>46104</v>
+      </c>
+      <c r="M52" s="66"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="65">
-        <v>334274</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="72">
-        <v>46077</v>
-      </c>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72">
-        <v>46099</v>
-      </c>
-      <c r="M52" s="117"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57">
-        <v>84913</v>
-      </c>
-      <c r="B53" s="90" t="s">
-        <v>103</v>
+        <v>104165</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="E53" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="23"/>
       <c r="J53" s="72">
-        <v>46077</v>
-      </c>
-      <c r="K53" s="83"/>
+        <v>46066</v>
+      </c>
+      <c r="K53" s="81"/>
       <c r="L53" s="72">
-        <v>46100</v>
-      </c>
-      <c r="M53" s="111"/>
+        <v>46104</v>
+      </c>
+      <c r="M53" s="115"/>
     </row>
-    <row r="54" spans="1:15" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
-        <v>104134</v>
+    <row r="54" spans="1:23" s="6" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="65">
+        <v>134019</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="38"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="J54" s="72">
-        <v>46077</v>
-      </c>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="M54" s="117"/>
+        <v>46068</v>
+      </c>
+      <c r="K54" s="76">
+        <v>46069</v>
+      </c>
+      <c r="L54" s="72">
+        <v>46104</v>
+      </c>
+      <c r="M54" s="111"/>
     </row>
-    <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
-        <v>114101</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="82">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+    <row r="55" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="57">
+        <v>104279</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="80">
         <v>46078</v>
       </c>
-      <c r="K55" s="95"/>
+      <c r="K55" s="83"/>
       <c r="L55" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46103</v>
-      </c>
-      <c r="M55" s="117"/>
+        <v>46105</v>
+      </c>
+      <c r="M55" s="68"/>
     </row>
-    <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57">
-        <v>104279</v>
+        <v>334009</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="E56" s="21"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="84">
-        <v>46078</v>
-      </c>
-      <c r="K56" s="85"/>
+      <c r="I56" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="82">
+        <v>46082</v>
+      </c>
+      <c r="K56" s="91"/>
       <c r="L56" s="72">
         <v>46105</v>
       </c>
-      <c r="M56" s="68"/>
+      <c r="M56" s="67"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="65">
-        <v>134058</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="38" t="s">
-        <v>4</v>
-      </c>
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="57">
+        <v>314006</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="23"/>
       <c r="J57" s="72">
-        <v>46079</v>
-      </c>
-      <c r="K57" s="72"/>
+        <v>46082</v>
+      </c>
+      <c r="K57" s="81"/>
       <c r="L57" s="72">
-        <v>46107</v>
-      </c>
-      <c r="M57" s="117"/>
+        <v>46105</v>
+      </c>
+      <c r="M57" s="67"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="65">
-        <v>44137</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="21"/>
-      <c r="I58" s="23"/>
+        <v>84314</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="40"/>
       <c r="J58" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46079</v>
+        <v>46082</v>
       </c>
       <c r="K58" s="74"/>
       <c r="L58" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46108</v>
-      </c>
-      <c r="M58" s="33"/>
+        <v>46105</v>
+      </c>
+      <c r="M58" s="116"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="57">
-        <v>116041</v>
-      </c>
-      <c r="B59" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="65">
+        <v>94412</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="I59" s="23"/>
-      <c r="J59" s="86">
-        <v>46079</v>
-      </c>
-      <c r="K59" s="77"/>
-      <c r="L59" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="M59" s="111"/>
+      <c r="J59" s="72">
+        <v>46082</v>
+      </c>
+      <c r="K59" s="81"/>
+      <c r="L59" s="72">
+        <v>46106</v>
+      </c>
+      <c r="M59" s="109"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="57">
-        <v>334009</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="103" t="s">
-        <v>15</v>
-      </c>
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="65">
+        <v>124108</v>
+      </c>
+      <c r="B60" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="106"/>
       <c r="J60" s="72">
-        <v>46082</v>
-      </c>
-      <c r="K60" s="74"/>
-      <c r="L60" s="72">
-        <v>46105</v>
-      </c>
-      <c r="M60" s="67"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="64">
-        <v>314006</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="72">
-        <v>46082</v>
-      </c>
-      <c r="K61" s="83"/>
-      <c r="L61" s="72">
-        <v>46105</v>
-      </c>
-      <c r="M61" s="67"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="75">
-        <v>84314</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" s="45"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K62" s="74"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46106</v>
+      </c>
+      <c r="M60" s="118"/>
+      <c r="T60" t="s">
+        <v>138</v>
+      </c>
+      <c r="U60">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="31">
+        <v>118122</v>
+      </c>
+      <c r="B61" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
+      </c>
+      <c r="K61" s="74"/>
+      <c r="L61" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M61" s="111"/>
+    </row>
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="75">
+        <v>134058</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="72">
+        <v>46079</v>
+      </c>
+      <c r="K62" s="72"/>
       <c r="L62" s="72">
+        <v>46107</v>
+      </c>
+      <c r="M62" s="67"/>
+    </row>
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="75">
+        <v>234128</v>
+      </c>
+      <c r="B63" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="80">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K63" s="122"/>
+      <c r="L63" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46105</v>
-      </c>
-      <c r="M62" s="118"/>
+        <v>46107</v>
+      </c>
+      <c r="M63" s="124"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="75">
-        <v>94412</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I63" s="50"/>
-      <c r="J63" s="82">
-        <v>46082</v>
-      </c>
-      <c r="K63" s="85"/>
-      <c r="L63" s="72">
-        <v>46106</v>
-      </c>
-      <c r="M63" s="107"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="75">
-        <v>124108</v>
-      </c>
-      <c r="B64" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" s="100"/>
+        <v>44137</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="36"/>
+      <c r="I64" s="64"/>
       <c r="J64" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K64" s="77"/>
+        <v>46079</v>
+      </c>
+      <c r="K64" s="74"/>
       <c r="L64" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46106</v>
+        <v>46108</v>
       </c>
       <c r="M64" s="53"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="31">
-        <v>124107</v>
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="75">
+        <v>44105</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="45"/>
+      <c r="I65" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="72">
+        <v>46082</v>
+      </c>
+      <c r="K65" s="76"/>
+      <c r="L65" s="72">
+        <v>46108</v>
+      </c>
+      <c r="M65" s="97"/>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K65" s="74"/>
-      <c r="L65" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46106</v>
-      </c>
-      <c r="M65" s="54"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="98">
+        <v>46068</v>
+      </c>
+      <c r="K66" s="77">
+        <v>46066</v>
+      </c>
+      <c r="L66" s="100">
+        <v>46103</v>
+      </c>
+      <c r="M66" s="53"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="75">
-        <v>234128</v>
-      </c>
-      <c r="B66" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K66" s="78"/>
-      <c r="L66" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46107</v>
-      </c>
-      <c r="M66" s="81"/>
-    </row>
-    <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="75">
-        <v>44105</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="45"/>
-      <c r="I67" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="J67" s="72">
-        <v>46082</v>
-      </c>
-      <c r="K67" s="76"/>
-      <c r="L67" s="72">
-        <v>46108</v>
-      </c>
-      <c r="M67" s="108"/>
+    <row r="67" spans="1:15" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="31">
+        <v>116029</v>
+      </c>
+      <c r="B67" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="55"/>
+      <c r="E67" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="36"/>
+      <c r="G67" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="44"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="K67" s="77"/>
+      <c r="L67" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="M67" s="54"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
-        <v>116029</v>
+        <v>116083</v>
       </c>
       <c r="B68" s="70" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C68" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="55"/>
-      <c r="E68" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="D68" s="61"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="36"/>
-      <c r="G68" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="44"/>
-      <c r="I68" s="101"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="106"/>
       <c r="J68" s="76" t="s">
         <v>121</v>
       </c>
@@ -16878,49 +16959,53 @@
       <c r="L68" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="M68" s="54"/>
+      <c r="M68" s="53"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="28">
-        <v>116083</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="65">
+        <v>337403</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
       <c r="F69" s="21"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="K69" s="77"/>
-      <c r="L69" s="115" t="s">
-        <v>121</v>
-      </c>
-      <c r="M69" s="53"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="K69" s="74"/>
+      <c r="L69" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="M69" s="54"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="75">
-        <v>337403</v>
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="71">
+        <v>324033</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
+      <c r="D70" s="51"/>
       <c r="E70" s="21"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="94" t="s">
-        <v>15</v>
-      </c>
+      <c r="F70" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="50"/>
       <c r="J70" s="76" t="s">
         <v>120</v>
       </c>
@@ -16930,26 +17015,22 @@
       </c>
       <c r="M70" s="54"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="71">
-        <v>324033</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>68</v>
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="75">
+        <v>104000</v>
+      </c>
+      <c r="B71" s="70" t="s">
+        <v>100</v>
       </c>
       <c r="C71" s="36"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="I71" s="50"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="36"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="90"/>
       <c r="J71" s="76" t="s">
         <v>120</v>
       </c>
@@ -16957,24 +17038,24 @@
       <c r="L71" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M71" s="54"/>
+      <c r="M71" s="53"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="75">
-        <v>104000</v>
-      </c>
-      <c r="B72" s="70" t="s">
-        <v>100</v>
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="64">
+        <v>104192</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>122</v>
       </c>
       <c r="C72" s="36"/>
       <c r="D72" s="36"/>
-      <c r="E72" s="15" t="s">
-        <v>49</v>
+      <c r="E72" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="F72" s="36"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="92"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="50"/>
       <c r="J72" s="76" t="s">
         <v>120</v>
       </c>
@@ -16982,14 +17063,14 @@
       <c r="L72" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="53"/>
+      <c r="M72" s="93"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="64">
-        <v>104192</v>
+        <v>104276</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C73" s="36"/>
       <c r="D73" s="36"/>
@@ -17007,22 +17088,22 @@
       <c r="L73" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="98"/>
+      <c r="M73" s="53"/>
     </row>
     <row r="74" spans="1:15" s="32" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="57">
-        <v>104276</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="21"/>
+      <c r="A74" s="104">
+        <v>117006</v>
+      </c>
+      <c r="B74" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="D74" s="21"/>
-      <c r="E74" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="22"/>
       <c r="H74" s="21"/>
       <c r="I74" s="23"/>
       <c r="J74" s="76" t="s">
@@ -17032,26 +17113,26 @@
       <c r="L74" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M74" s="53"/>
+      <c r="M74" s="107"/>
       <c r="N74" s="60"/>
       <c r="O74" s="59"/>
     </row>
-    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="109">
-        <v>117006</v>
-      </c>
-      <c r="B75" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="50"/>
+    <row r="75" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="75">
+        <v>84154</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="45"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="46"/>
       <c r="J75" s="76" t="s">
         <v>120</v>
       </c>
@@ -17059,57 +17140,57 @@
       <c r="L75" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M75" s="120"/>
+      <c r="M75" s="103"/>
     </row>
-    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="75">
-        <v>84154</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="45"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="K76" s="74"/>
-      <c r="L76" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="M76" s="126"/>
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="64">
+        <v>104283</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="72">
+        <v>46076</v>
+      </c>
+      <c r="K76" s="81"/>
+      <c r="L76" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="M76" s="66"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="121">
-        <v>334011</v>
-      </c>
-      <c r="B77" s="122" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="72"/>
-      <c r="K77" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="L77" s="72">
-        <v>46090</v>
-      </c>
-      <c r="M77" s="117"/>
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="119">
+        <v>104134</v>
+      </c>
+      <c r="B77" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="90"/>
+      <c r="J77" s="72">
+        <v>46077</v>
+      </c>
+      <c r="K77" s="81"/>
+      <c r="L77" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="M77" s="67"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE95FD-FF87-48C1-80AB-A2088F7F7D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0457766-54B9-4FAE-AFDF-74E4282508AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26535" yWindow="3525" windowWidth="29535" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -904,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1119,11 +1119,17 @@
     <xf numFmtId="14" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,6 +1160,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1170,10 +1179,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1184,9 +1193,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1203,14 +1209,11 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,6 +1225,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1236,23 +1242,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14615,37 +14621,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D55DB98B-67EC-4AC3-87E3-56FDBEEEA350}" name="טבלה13" displayName="טבלה13" ref="A1:M77" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M77" xr:uid="{D55DB98B-67EC-4AC3-87E3-56FDBEEEA350}">
     <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="חומרים 7"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="מתמ. 5"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="חשמל 7"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="מדעי מחשב 7"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters blank="1">
-        <filter val="ביו-רפואה 7"/>
+      <filters>
+        <filter val="פיזיקה 5"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:M74">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M74">
     <sortCondition ref="L1:L77"/>
   </sortState>
   <tableColumns count="13">
@@ -14933,7 +14914,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15024,7 +15005,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M2" s="96"/>
+      <c r="M2" s="99"/>
       <c r="O2" s="1" t="s">
         <v>39</v>
       </c>
@@ -15054,7 +15035,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M3" s="118"/>
+      <c r="M3" s="120"/>
       <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
@@ -15084,12 +15065,12 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="123"/>
       <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>116217</v>
       </c>
@@ -15194,40 +15175,30 @@
       </c>
       <c r="M7" s="63"/>
     </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>104215</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>72</v>
-      </c>
+    <row r="8" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
+        <v>116041</v>
+      </c>
+      <c r="B8" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="72">
-        <v>46058</v>
-      </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="72">
-        <v>46087</v>
-      </c>
-      <c r="M8" s="63"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="86">
+        <v>46079</v>
+      </c>
+      <c r="K8" s="77"/>
+      <c r="L8" s="76">
+        <v>46089</v>
+      </c>
+      <c r="M8" s="33"/>
       <c r="R8"/>
       <c r="S8"/>
     </row>
@@ -15250,7 +15221,7 @@
       <c r="J9" s="72">
         <v>46058</v>
       </c>
-      <c r="K9" s="81"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="72">
         <v>46087</v>
       </c>
@@ -15277,7 +15248,7 @@
       <c r="J10" s="72">
         <v>46063</v>
       </c>
-      <c r="K10" s="81"/>
+      <c r="K10" s="83"/>
       <c r="L10" s="72">
         <v>46087</v>
       </c>
@@ -15313,7 +15284,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46089</v>
       </c>
-      <c r="M11" s="111"/>
+      <c r="M11" s="112"/>
     </row>
     <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
@@ -15331,7 +15302,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="22"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="80">
+      <c r="J12" s="82">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46063</v>
       </c>
@@ -15340,7 +15311,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46090</v>
       </c>
-      <c r="M12" s="92"/>
+      <c r="M12" s="95"/>
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
@@ -15368,33 +15339,37 @@
       <c r="M13" s="48"/>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
-        <v>104012</v>
+      <c r="A14" s="28">
+        <v>104215</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="38"/>
+        <v>87</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="J14" s="72">
-        <v>46063</v>
-      </c>
-      <c r="K14" s="81"/>
+        <v>46058</v>
+      </c>
+      <c r="K14" s="76"/>
       <c r="L14" s="72">
-        <v>46090</v>
+        <v>46087</v>
       </c>
       <c r="M14" s="63"/>
     </row>
@@ -15471,11 +15446,11 @@
       <c r="J17" s="72">
         <v>46064</v>
       </c>
-      <c r="K17" s="81"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="72">
         <v>46090</v>
       </c>
-      <c r="M17" s="117"/>
+      <c r="M17" s="119"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -15494,14 +15469,14 @@
       <c r="I18" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="80"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="L18" s="80">
+      <c r="L18" s="82">
         <v>46090</v>
       </c>
-      <c r="M18" s="109"/>
+      <c r="M18" s="111"/>
       <c r="T18" t="s">
         <v>124</v>
       </c>
@@ -15525,11 +15500,11 @@
       <c r="J19" s="72">
         <v>46062</v>
       </c>
-      <c r="K19" s="81"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="72">
         <v>46091</v>
       </c>
-      <c r="M19" s="109"/>
+      <c r="M19" s="111"/>
       <c r="O19" s="5"/>
       <c r="T19" t="s">
         <v>125</v>
@@ -15544,43 +15519,30 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57">
-        <v>104220</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>72</v>
-      </c>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="87">
+        <v>118130</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>8</v>
-      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
-        <v>46063</v>
-      </c>
-      <c r="K20" s="79">
-        <v>46062</v>
-      </c>
+        <v>46072</v>
+      </c>
+      <c r="K20" s="72"/>
       <c r="L20" s="72">
         <v>46091</v>
       </c>
-      <c r="M20" s="102"/>
+      <c r="M20" s="120"/>
       <c r="T20" t="s">
         <v>129</v>
       </c>
@@ -15613,11 +15575,11 @@
       <c r="J21" s="72">
         <v>46069</v>
       </c>
-      <c r="K21" s="81"/>
+      <c r="K21" s="83"/>
       <c r="L21" s="72">
         <v>46091</v>
       </c>
-      <c r="M21" s="109"/>
+      <c r="M21" s="111"/>
       <c r="T21" t="s">
         <v>131</v>
       </c>
@@ -15625,31 +15587,36 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>124107</v>
+    <row r="22" spans="1:23" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65">
+        <v>104012</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="41"/>
+        <v>95</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K22" s="74"/>
+        <v>46063</v>
+      </c>
+      <c r="K22" s="83"/>
       <c r="L22" s="72">
-        <v>46086</v>
-      </c>
-      <c r="M22" s="109"/>
+        <v>46090</v>
+      </c>
+      <c r="M22" s="112"/>
       <c r="T22" t="s">
         <v>136</v>
       </c>
@@ -15663,62 +15630,79 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57">
-        <v>116041</v>
-      </c>
-      <c r="B23" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="20" t="s">
+        <v>104220</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,TRUE)</f>
+        <v>46063</v>
+      </c>
+      <c r="K23" s="80">
+        <v>46062</v>
+      </c>
+      <c r="L23" s="72">
+        <v>46091</v>
+      </c>
+      <c r="M23" s="73"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>115204</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="84">
-        <v>46079</v>
-      </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="76">
-        <v>46089</v>
-      </c>
-      <c r="M23" s="33"/>
-    </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <v>114086</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>8</v>
+      <c r="D24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="J24" s="72">
-        <v>46055</v>
-      </c>
-      <c r="K24" s="76"/>
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46069</v>
+      </c>
+      <c r="K24" s="74"/>
       <c r="L24" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46093</v>
       </c>
       <c r="M24" s="48"/>
@@ -15769,83 +15753,79 @@
       <c r="J26" s="72">
         <v>46065</v>
       </c>
-      <c r="K26" s="81"/>
+      <c r="K26" s="83"/>
       <c r="L26" s="72">
         <v>46093</v>
       </c>
       <c r="M26" s="33"/>
     </row>
     <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65">
-        <v>104064</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="38" t="s">
-        <v>4</v>
+      <c r="A27" s="28">
+        <v>114086</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>8</v>
       </c>
       <c r="J27" s="72">
-        <v>46068</v>
-      </c>
-      <c r="K27" s="72"/>
+        <v>46055</v>
+      </c>
+      <c r="K27" s="76"/>
       <c r="L27" s="72">
         <v>46093</v>
       </c>
       <c r="M27" s="111"/>
     </row>
     <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
-        <v>115204</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>15</v>
+      <c r="A28" s="65">
+        <v>104064</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="38" t="s">
+        <v>4</v>
       </c>
       <c r="J28" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46069</v>
-      </c>
-      <c r="K28" s="74"/>
+        <v>46068</v>
+      </c>
+      <c r="K28" s="72"/>
       <c r="L28" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46093</v>
       </c>
-      <c r="M28" s="109"/>
+      <c r="M28" s="112"/>
     </row>
     <row r="29" spans="1:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65">
@@ -15866,7 +15846,7 @@
       <c r="J29" s="72">
         <v>46065</v>
       </c>
-      <c r="K29" s="81"/>
+      <c r="K29" s="83"/>
       <c r="L29" s="72">
         <v>46094</v>
       </c>
@@ -15891,7 +15871,7 @@
       <c r="J30" s="72">
         <v>46066</v>
       </c>
-      <c r="K30" s="81"/>
+      <c r="K30" s="83"/>
       <c r="L30" s="72">
         <v>46094</v>
       </c>
@@ -15922,7 +15902,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M31" s="123"/>
+      <c r="M31" s="126"/>
       <c r="O31" s="52"/>
     </row>
     <row r="32" spans="1:23" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -15952,66 +15932,67 @@
       </c>
       <c r="M32" s="33"/>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65">
-        <v>104214</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>8</v>
-      </c>
+    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>118129</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="72">
-        <v>46073</v>
-      </c>
-      <c r="K33" s="79"/>
+        <v>46063</v>
+      </c>
+      <c r="K33" s="72"/>
       <c r="L33" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M33" s="48"/>
+      <c r="M33" s="110"/>
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85">
-        <v>118130</v>
-      </c>
-      <c r="B34" s="87" t="s">
-        <v>119</v>
+      <c r="A34" s="28">
+        <v>116354</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="D34" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="72">
-        <v>46072</v>
-      </c>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72">
-        <v>46091</v>
-      </c>
-      <c r="M34" s="33"/>
+      <c r="G34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="86">
+        <v>46076</v>
+      </c>
+      <c r="K34" s="77"/>
+      <c r="L34" s="76">
+        <v>46098</v>
+      </c>
+      <c r="M34" s="63"/>
       <c r="T34" s="9" t="s">
         <v>139</v>
       </c>
@@ -16038,44 +16019,46 @@
       <c r="J35" s="72">
         <v>46072</v>
       </c>
-      <c r="K35" s="81"/>
+      <c r="K35" s="83"/>
       <c r="L35" s="72">
         <v>46097</v>
       </c>
       <c r="M35" s="33"/>
     </row>
     <row r="36" spans="1:21" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
-        <v>104034</v>
+      <c r="A36" s="65">
+        <v>104214</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="19"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="23"/>
+      <c r="H36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="J36" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46070</v>
-      </c>
-      <c r="K36" s="78"/>
+        <v>46073</v>
+      </c>
+      <c r="K36" s="80"/>
       <c r="L36" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46098</v>
-      </c>
-      <c r="M36" s="73"/>
+        <v>46096</v>
+      </c>
+      <c r="M36" s="48"/>
     </row>
     <row r="37" spans="1:21" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="65">
@@ -16121,7 +16104,7 @@
       <c r="J38" s="72">
         <v>46071</v>
       </c>
-      <c r="K38" s="81"/>
+      <c r="K38" s="83"/>
       <c r="L38" s="72">
         <v>46098</v>
       </c>
@@ -16131,7 +16114,7 @@
       <c r="A39" s="57">
         <v>84220</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="90" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="21"/>
@@ -16146,7 +16129,7 @@
       <c r="J39" s="72">
         <v>46073</v>
       </c>
-      <c r="K39" s="81"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="72">
         <v>46098</v>
       </c>
@@ -16171,11 +16154,11 @@
       <c r="J40" s="72">
         <v>46075</v>
       </c>
-      <c r="K40" s="81"/>
+      <c r="K40" s="83"/>
       <c r="L40" s="72">
         <v>46098</v>
       </c>
-      <c r="M40" s="92"/>
+      <c r="M40" s="95"/>
     </row>
     <row r="41" spans="1:21" s="8" customFormat="1" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="65">
@@ -16275,7 +16258,7 @@
       <c r="J44" s="72">
         <v>46075</v>
       </c>
-      <c r="K44" s="81"/>
+      <c r="K44" s="83"/>
       <c r="L44" s="72">
         <v>46100</v>
       </c>
@@ -16312,7 +16295,7 @@
       <c r="A46" s="57">
         <v>84913</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="90" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="21"/>
@@ -16327,7 +16310,7 @@
       <c r="J46" s="72">
         <v>46077</v>
       </c>
-      <c r="K46" s="81"/>
+      <c r="K46" s="83"/>
       <c r="L46" s="72">
         <v>46100</v>
       </c>
@@ -16335,43 +16318,35 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
-        <v>116354</v>
+        <v>118122</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J47" s="84">
-        <v>46076</v>
-      </c>
-      <c r="K47" s="77"/>
-      <c r="L47" s="76">
-        <v>46093</v>
-      </c>
-      <c r="M47" s="111"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
+      </c>
+      <c r="K47" s="74"/>
+      <c r="L47" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46100</v>
+      </c>
+      <c r="M47" s="112"/>
       <c r="T47" t="s">
         <v>138</v>
       </c>
       <c r="U47">
-        <v>12.3</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -16393,7 +16368,7 @@
       <c r="J48" s="72">
         <v>46076</v>
       </c>
-      <c r="K48" s="81"/>
+      <c r="K48" s="83"/>
       <c r="L48" s="72">
         <v>46103</v>
       </c>
@@ -16418,7 +16393,7 @@
       <c r="J49" s="72">
         <v>46076</v>
       </c>
-      <c r="K49" s="81"/>
+      <c r="K49" s="83"/>
       <c r="L49" s="72">
         <v>46103</v>
       </c>
@@ -16426,10 +16401,10 @@
     </row>
     <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
-        <v>114101</v>
+        <v>104034</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>6</v>
@@ -16437,62 +16412,57 @@
       <c r="D50" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="E50" s="19"/>
       <c r="F50" s="19" t="s">
         <v>99</v>
       </c>
       <c r="G50" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="41" t="s">
-        <v>15</v>
-      </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46078</v>
-      </c>
-      <c r="K50" s="74"/>
+        <v>46070</v>
+      </c>
+      <c r="K50" s="79"/>
       <c r="L50" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46103</v>
-      </c>
-      <c r="M50" s="67"/>
+        <v>46098</v>
+      </c>
+      <c r="M50" s="127"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="28">
-        <v>118129</v>
-      </c>
-      <c r="B51" s="86" t="s">
-        <v>91</v>
+    <row r="51" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="21"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="82">
-        <v>46063</v>
-      </c>
-      <c r="K51" s="80"/>
-      <c r="L51" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46096</v>
-      </c>
-      <c r="M51" s="110"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="124">
+        <v>46068</v>
+      </c>
+      <c r="K51" s="125">
+        <v>46066</v>
+      </c>
+      <c r="L51" s="103">
+        <v>46103</v>
+      </c>
+      <c r="M51" s="120"/>
       <c r="T51" t="s">
         <v>96</v>
       </c>
       <c r="U51">
-        <v>5.3</v>
+        <v>24.3</v>
       </c>
       <c r="V51" t="s">
         <v>126</v>
@@ -16520,7 +16490,7 @@
       <c r="J52" s="72">
         <v>46055</v>
       </c>
-      <c r="K52" s="81"/>
+      <c r="K52" s="83"/>
       <c r="L52" s="72">
         <v>46104</v>
       </c>
@@ -16545,11 +16515,11 @@
       <c r="J53" s="72">
         <v>46066</v>
       </c>
-      <c r="K53" s="81"/>
+      <c r="K53" s="83"/>
       <c r="L53" s="72">
         <v>46104</v>
       </c>
-      <c r="M53" s="115"/>
+      <c r="M53" s="117"/>
     </row>
     <row r="54" spans="1:23" s="6" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65">
@@ -16576,7 +16546,7 @@
       <c r="L54" s="72">
         <v>46104</v>
       </c>
-      <c r="M54" s="111"/>
+      <c r="M54" s="112"/>
     </row>
     <row r="55" spans="1:23" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57">
@@ -16594,10 +16564,10 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="23"/>
-      <c r="J55" s="80">
+      <c r="J55" s="82">
         <v>46078</v>
       </c>
-      <c r="K55" s="83"/>
+      <c r="K55" s="85"/>
       <c r="L55" s="72">
         <v>46105</v>
       </c>
@@ -16619,10 +16589,10 @@
       <c r="I56" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="82">
+      <c r="J56" s="84">
         <v>46082</v>
       </c>
-      <c r="K56" s="91"/>
+      <c r="K56" s="94"/>
       <c r="L56" s="72">
         <v>46105</v>
       </c>
@@ -16648,7 +16618,7 @@
       <c r="J57" s="72">
         <v>46082</v>
       </c>
-      <c r="K57" s="81"/>
+      <c r="K57" s="83"/>
       <c r="L57" s="72">
         <v>46105</v>
       </c>
@@ -16679,7 +16649,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46105</v>
       </c>
-      <c r="M58" s="116"/>
+      <c r="M58" s="118"/>
     </row>
     <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="65">
@@ -16700,17 +16670,17 @@
       <c r="J59" s="72">
         <v>46082</v>
       </c>
-      <c r="K59" s="81"/>
+      <c r="K59" s="83"/>
       <c r="L59" s="72">
         <v>46106</v>
       </c>
-      <c r="M59" s="109"/>
+      <c r="M59" s="111"/>
     </row>
     <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="65">
         <v>124108</v>
       </c>
-      <c r="B60" s="112" t="s">
+      <c r="B60" s="113" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="61"/>
@@ -16723,7 +16693,7 @@
       <c r="H60" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I60" s="106"/>
+      <c r="I60" s="108"/>
       <c r="J60" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
@@ -16733,7 +16703,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46106</v>
       </c>
-      <c r="M60" s="118"/>
+      <c r="M60" s="120"/>
       <c r="T60" t="s">
         <v>138</v>
       </c>
@@ -16741,32 +16711,44 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
-        <v>118122</v>
-      </c>
-      <c r="B61" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="44"/>
+        <v>114101</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="J61" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
+        <v>46078</v>
       </c>
       <c r="K61" s="74"/>
       <c r="L61" s="72">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46100</v>
-      </c>
-      <c r="M61" s="111"/>
+        <v>46103</v>
+      </c>
+      <c r="M61" s="67"/>
     </row>
     <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="75">
@@ -16775,12 +16757,12 @@
       <c r="B62" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
       <c r="I62" s="38" t="s">
         <v>4</v>
       </c>
@@ -16793,38 +16775,31 @@
       </c>
       <c r="M62" s="67"/>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="75">
-        <v>234128</v>
-      </c>
-      <c r="B63" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="80">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="31">
+        <v>124107</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="82">
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
         <v>46082</v>
       </c>
-      <c r="K63" s="122"/>
+      <c r="K63" s="94"/>
       <c r="L63" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
-        <v>46107</v>
-      </c>
-      <c r="M63" s="124"/>
+        <v>46105</v>
+      </c>
+      <c r="M63" s="121"/>
     </row>
     <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="75">
@@ -16878,36 +16853,42 @@
       <c r="L65" s="72">
         <v>46108</v>
       </c>
-      <c r="M65" s="97"/>
+      <c r="M65" s="101"/>
     </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="98">
-        <v>46068</v>
-      </c>
-      <c r="K66" s="77">
-        <v>46066</v>
-      </c>
-      <c r="L66" s="100">
-        <v>46103</v>
-      </c>
-      <c r="M66" s="53"/>
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="75">
+        <v>234128</v>
+      </c>
+      <c r="B66" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K66" s="78"/>
+      <c r="L66" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+        <v>46107</v>
+      </c>
+      <c r="M66" s="81"/>
     </row>
-    <row r="67" spans="1:15" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
         <v>116029</v>
       </c>
@@ -16926,7 +16907,7 @@
         <v>14</v>
       </c>
       <c r="H67" s="44"/>
-      <c r="I67" s="95"/>
+      <c r="I67" s="98"/>
       <c r="J67" s="76" t="s">
         <v>121</v>
       </c>
@@ -16951,7 +16932,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="61"/>
       <c r="H68" s="61"/>
-      <c r="I68" s="106"/>
+      <c r="I68" s="108"/>
       <c r="J68" s="76" t="s">
         <v>121</v>
       </c>
@@ -16977,11 +16958,11 @@
       <c r="I69" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="99" t="s">
+      <c r="J69" s="102" t="s">
         <v>120</v>
       </c>
       <c r="K69" s="74"/>
-      <c r="L69" s="101" t="s">
+      <c r="L69" s="104" t="s">
         <v>120</v>
       </c>
       <c r="M69" s="54"/>
@@ -16996,13 +16977,13 @@
       <c r="C70" s="36"/>
       <c r="D70" s="51"/>
       <c r="E70" s="21"/>
-      <c r="F70" s="89" t="s">
+      <c r="F70" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="G70" s="89" t="s">
+      <c r="G70" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H70" s="89" t="s">
+      <c r="H70" s="91" t="s">
         <v>38</v>
       </c>
       <c r="I70" s="50"/>
@@ -17028,9 +17009,9 @@
         <v>49</v>
       </c>
       <c r="F71" s="36"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="90"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="92"/>
       <c r="J71" s="76" t="s">
         <v>120</v>
       </c>
@@ -17063,7 +17044,7 @@
       <c r="L72" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M72" s="93"/>
+      <c r="M72" s="96"/>
     </row>
     <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="64">
@@ -17091,10 +17072,10 @@
       <c r="M73" s="53"/>
     </row>
     <row r="74" spans="1:15" s="32" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="104">
+      <c r="A74" s="106">
         <v>117006</v>
       </c>
-      <c r="B74" s="105" t="s">
+      <c r="B74" s="107" t="s">
         <v>113</v>
       </c>
       <c r="C74" s="20" t="s">
@@ -17113,7 +17094,7 @@
       <c r="L74" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M74" s="107"/>
+      <c r="M74" s="109"/>
       <c r="N74" s="60"/>
       <c r="O74" s="59"/>
     </row>
@@ -17140,7 +17121,7 @@
       <c r="L75" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M75" s="103"/>
+      <c r="M75" s="105"/>
     </row>
     <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="64">
@@ -17161,33 +17142,33 @@
       <c r="J76" s="72">
         <v>46076</v>
       </c>
-      <c r="K76" s="81"/>
-      <c r="L76" s="81" t="s">
+      <c r="K76" s="83"/>
+      <c r="L76" s="83" t="s">
         <v>135</v>
       </c>
       <c r="M76" s="66"/>
     </row>
     <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="119">
+      <c r="A77" s="122">
         <v>104134</v>
       </c>
-      <c r="B77" s="114" t="s">
+      <c r="B77" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
       <c r="H77" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I77" s="90"/>
+      <c r="I77" s="92"/>
       <c r="J77" s="72">
         <v>46077</v>
       </c>
-      <c r="K77" s="81"/>
-      <c r="L77" s="81" t="s">
+      <c r="K77" s="83"/>
+      <c r="L77" s="83" t="s">
         <v>135</v>
       </c>
       <c r="M77" s="67"/>

--- a/changes-proposal.xlsx
+++ b/changes-proposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danib\Documents\technion exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0457766-54B9-4FAE-AFDF-74E4282508AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BED7004-02F2-4CED-9305-6D268EDB9CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26535" yWindow="3525" windowWidth="29535" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="142">
   <si>
     <t>מספר</t>
   </si>
@@ -543,6 +543,12 @@
   </si>
   <si>
     <t>לייזרים וקוונטית מועד ב'</t>
+  </si>
+  <si>
+    <t>אקזוטיים</t>
+  </si>
+  <si>
+    <t>קוונטית 3</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1185,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1242,22 +1248,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14914,7 +14920,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15065,7 +15071,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46086</v>
       </c>
-      <c r="M4" s="123"/>
+      <c r="M4" s="122"/>
       <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
@@ -15902,7 +15908,7 @@
         <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
         <v>46096</v>
       </c>
-      <c r="M31" s="126"/>
+      <c r="M31" s="125"/>
       <c r="O31" s="52"/>
     </row>
     <row r="32" spans="1:23" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -15961,38 +15967,29 @@
     </row>
     <row r="34" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
-        <v>116354</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>89</v>
+        <v>124107</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" s="86">
-        <v>46076</v>
-      </c>
-      <c r="K34" s="77"/>
-      <c r="L34" s="76">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="72">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46082</v>
+      </c>
+      <c r="K34" s="74"/>
+      <c r="L34" s="72">
         <v>46098</v>
       </c>
-      <c r="M34" s="63"/>
+      <c r="M34" s="48"/>
       <c r="T34" s="9" t="s">
         <v>139</v>
       </c>
@@ -16316,37 +16313,37 @@
       </c>
       <c r="M46" s="66"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
-        <v>118122</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>101</v>
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46056</v>
-      </c>
-      <c r="K47" s="74"/>
-      <c r="L47" s="72">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,7,FALSE)</f>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="101">
+        <v>46068</v>
+      </c>
+      <c r="K47" s="77">
+        <v>46066</v>
+      </c>
+      <c r="L47" s="103">
         <v>46100</v>
       </c>
-      <c r="M47" s="112"/>
+      <c r="M47" s="120"/>
       <c r="T47" t="s">
         <v>138</v>
       </c>
       <c r="U47">
-        <v>17.3</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -16432,37 +16429,36 @@
       </c>
       <c r="M50" s="127"/>
     </row>
-    <row r="51" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>128</v>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
+        <v>118122</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="124">
-        <v>46068</v>
-      </c>
-      <c r="K51" s="125">
-        <v>46066</v>
-      </c>
-      <c r="L51" s="103">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="84">
+        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
+        <v>46056</v>
+      </c>
+      <c r="K51" s="94"/>
+      <c r="L51" s="72">
         <v>46103</v>
       </c>
-      <c r="M51" s="120"/>
+      <c r="M51" s="112"/>
       <c r="T51" t="s">
         <v>96</v>
       </c>
       <c r="U51">
-        <v>24.3</v>
+        <v>17.3</v>
       </c>
       <c r="V51" t="s">
         <v>126</v>
@@ -16777,29 +16773,50 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="31">
-        <v>124107</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>96</v>
+        <v>116354</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="82">
-        <f>VLOOKUP(טבלה13[[#This Row],[שם קורס]],'[1]דוח מרוכז'!$1:$1048576,5,FALSE)</f>
-        <v>46082</v>
-      </c>
-      <c r="K63" s="94"/>
-      <c r="L63" s="72">
+      <c r="D63" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="36"/>
+      <c r="G63" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="J63" s="123">
+        <v>46076</v>
+      </c>
+      <c r="K63" s="124"/>
+      <c r="L63" s="76">
         <v>46105</v>
       </c>
-      <c r="M63" s="121"/>
+      <c r="M63" s="126"/>
+      <c r="T63" t="s">
+        <v>140</v>
+      </c>
+      <c r="U63">
+        <v>19.3</v>
+      </c>
+      <c r="V63" t="s">
+        <v>126</v>
+      </c>
+      <c r="W63">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="75">
@@ -16828,7 +16845,7 @@
       </c>
       <c r="M64" s="53"/>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="75">
         <v>44105</v>
       </c>
@@ -16853,9 +16870,9 @@
       <c r="L65" s="72">
         <v>46108</v>
       </c>
-      <c r="M65" s="101"/>
+      <c r="M65" s="100"/>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="75">
         <v>234128</v>
       </c>
@@ -16888,7 +16905,7 @@
       </c>
       <c r="M66" s="81"/>
     </row>
-    <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
         <v>116029</v>
       </c>
@@ -16916,8 +16933,20 @@
         <v>121</v>
       </c>
       <c r="M67" s="54"/>
+      <c r="T67" t="s">
+        <v>141</v>
+      </c>
+      <c r="U67">
+        <v>22.3</v>
+      </c>
+      <c r="V67" t="s">
+        <v>126</v>
+      </c>
+      <c r="W67">
+        <v>19.3</v>
+      </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
         <v>116083</v>
       </c>
@@ -16942,7 +16971,7 @@
       </c>
       <c r="M68" s="53"/>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="65">
         <v>337403</v>
       </c>
@@ -16967,7 +16996,7 @@
       </c>
       <c r="M69" s="54"/>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="71">
         <v>324033</v>
       </c>
@@ -16996,7 +17025,7 @@
       </c>
       <c r="M70" s="54"/>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="75">
         <v>104000</v>
       </c>
@@ -17021,7 +17050,7 @@
       </c>
       <c r="M71" s="53"/>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="64">
         <v>104192</v>
       </c>
@@ -17046,7 +17075,7 @@
       </c>
       <c r="M72" s="96"/>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="64">
         <v>104276</v>
       </c>
@@ -17071,7 +17100,7 @@
       </c>
       <c r="M73" s="53"/>
     </row>
-    <row r="74" spans="1:15" s="32" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" s="32" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="106">
         <v>117006</v>
       </c>
@@ -17098,7 +17127,7 @@
       <c r="N74" s="60"/>
       <c r="O74" s="59"/>
     </row>
-    <row r="75" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="75">
         <v>84154</v>
       </c>
@@ -17123,7 +17152,7 @@
       </c>
       <c r="M75" s="105"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="64">
         <v>104283</v>
       </c>
@@ -17148,8 +17177,8 @@
       </c>
       <c r="M76" s="66"/>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="122">
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="121">
         <v>104134</v>
       </c>
       <c r="B77" s="115" t="s">
